--- a/data_clean/Frontline 16.12.2020.xlsx
+++ b/data_clean/Frontline 16.12.2020.xlsx
@@ -1218,7 +1218,7 @@
         <v>1.127369761547484</v>
       </c>
       <c r="K2">
-        <v>51.85444445778055</v>
+        <v>0.0185444445778053</v>
       </c>
       <c r="L2">
         <v>0.006647632796415791</v>
@@ -1248,13 +1248,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L3">
         <v>-0.0407155861561961</v>
@@ -1319,13 +1319,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L4">
         <v>-0.03012907296278259</v>
@@ -1390,13 +1390,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.9995724668661822</v>
+        <v>-0.0004275331338178257</v>
       </c>
       <c r="V4">
-        <v>0.9995724668661822</v>
+        <v>-0.0004275331338178257</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L5">
         <v>-0.02914330755821501</v>
@@ -1461,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.9993584260051326</v>
+        <v>-0.0006415739948674171</v>
       </c>
       <c r="V5">
-        <v>0.9993584260051326</v>
+        <v>-0.0006415739948674171</v>
       </c>
       <c r="W5">
-        <v>0.9982876712328766</v>
+        <v>-0.00171232876712335</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L6">
         <v>-0.02945874450533906</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.9994436122405307</v>
+        <v>-0.0005563877594693123</v>
       </c>
       <c r="V6">
-        <v>0.9994436122405307</v>
+        <v>-0.0005563877594693123</v>
       </c>
       <c r="W6">
-        <v>0.9991423670668954</v>
+        <v>-0.0008576329331045907</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1573,7 +1573,7 @@
         <v>0.5770874636164391</v>
       </c>
       <c r="K7">
-        <v>36.59197583709864</v>
+        <v>-0.1340802416290136</v>
       </c>
       <c r="L7">
         <v>-0.02531016026416893</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000057097179399</v>
+        <v>5.709717939939019E-05</v>
       </c>
       <c r="V7">
-        <v>1.000057097179399</v>
+        <v>5.709717939939019E-05</v>
       </c>
       <c r="W7">
-        <v>1.002575107296137</v>
+        <v>0.002575107296137302</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1644,7 +1644,7 @@
         <v>0.3590056912243225</v>
       </c>
       <c r="K8">
-        <v>26.41679085985989</v>
+        <v>-0.2358320914014012</v>
       </c>
       <c r="L8">
         <v>-0.02372869826761368</v>
@@ -1674,13 +1674,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.9996737490314425</v>
+        <v>-0.0003262509685575399</v>
       </c>
       <c r="V8">
-        <v>0.9996737490314425</v>
+        <v>-0.0003262509685575399</v>
       </c>
       <c r="W8">
-        <v>0.9974315068493151</v>
+        <v>-0.002568493150684859</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1715,7 +1715,7 @@
         <v>0.3590056912243225</v>
       </c>
       <c r="K9">
-        <v>26.41679085985989</v>
+        <v>-0.2358320914014012</v>
       </c>
       <c r="L9">
         <v>-0.02283243102319552</v>
@@ -1745,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.9997552319177579</v>
+        <v>-0.0002447680822420528</v>
       </c>
       <c r="V9">
-        <v>0.9997552319177579</v>
+        <v>-0.0002447680822420528</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1786,7 +1786,7 @@
         <v>0.6381567365462497</v>
       </c>
       <c r="K10">
-        <v>38.95578013442628</v>
+        <v>-0.1104421986557372</v>
       </c>
       <c r="L10">
         <v>-0.02074069748150258</v>
@@ -1816,13 +1816,13 @@
         <v>-0.02499999999999858</v>
       </c>
       <c r="U10">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V10">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W10">
-        <v>1.001716738197425</v>
+        <v>0.001716738197425016</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1857,7 +1857,7 @@
         <v>0.6381567365462497</v>
       </c>
       <c r="K11">
-        <v>38.95578013442628</v>
+        <v>-0.1104421986557372</v>
       </c>
       <c r="L11">
         <v>-0.01833692800583146</v>
@@ -1887,13 +1887,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1928,7 +1928,7 @@
         <v>0.6381567365462496</v>
       </c>
       <c r="K12">
-        <v>38.95578013442628</v>
+        <v>-0.1104421986557372</v>
       </c>
       <c r="L12">
         <v>-0.01597578528571216</v>
@@ -1958,13 +1958,13 @@
         <v>-0.03750000000000142</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1999,7 +1999,7 @@
         <v>1.777714874615047</v>
       </c>
       <c r="K13">
-        <v>63.99918475654972</v>
+        <v>0.1399918475654972</v>
       </c>
       <c r="L13">
         <v>-0.0104269941602266</v>
@@ -2029,13 +2029,13 @@
         <v>-0.01666666666665861</v>
       </c>
       <c r="U13">
-        <v>1.000499857183662</v>
+        <v>0.0004998571836616339</v>
       </c>
       <c r="V13">
-        <v>1.000499857183662</v>
+        <v>0.0004998571836616339</v>
       </c>
       <c r="W13">
-        <v>1.005998286203942</v>
+        <v>0.005998286203941827</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2070,7 +2070,7 @@
         <v>1.777714874615048</v>
       </c>
       <c r="K14">
-        <v>63.99918475654972</v>
+        <v>0.1399918475654972</v>
       </c>
       <c r="L14">
         <v>-0.003913887902274718</v>
@@ -2100,13 +2100,13 @@
         <v>0.01490384615384954</v>
       </c>
       <c r="U14">
-        <v>1.000422744766475</v>
+        <v>0.0004227447664748585</v>
       </c>
       <c r="V14">
-        <v>1.000422744766475</v>
+        <v>0.0004227447664748585</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2141,7 +2141,7 @@
         <v>1.15350375235609</v>
       </c>
       <c r="K15">
-        <v>53.56404654944635</v>
+        <v>0.03564046549446342</v>
       </c>
       <c r="L15">
         <v>0.001198926815877013</v>
@@ -2171,13 +2171,13 @@
         <v>0.02321428571428896</v>
       </c>
       <c r="U15">
-        <v>1.000178747824451</v>
+        <v>0.00017874782445082</v>
       </c>
       <c r="V15">
-        <v>1.000178747824451</v>
+        <v>0.00017874782445082</v>
       </c>
       <c r="W15">
-        <v>0.9974446337308347</v>
+        <v>-0.002555366269165305</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2212,7 +2212,7 @@
         <v>1.026976249642443</v>
       </c>
       <c r="K16">
-        <v>50.66543082700652</v>
+        <v>0.00665430827006519</v>
       </c>
       <c r="L16">
         <v>0.004739657346740181</v>
@@ -2242,13 +2242,13 @@
         <v>0.0487500000000054</v>
       </c>
       <c r="U16">
-        <v>1.000097823428711</v>
+        <v>9.782342871123006E-05</v>
       </c>
       <c r="V16">
-        <v>1.000097823428711</v>
+        <v>9.782342871123006E-05</v>
       </c>
       <c r="W16">
-        <v>0.9991460290350128</v>
+        <v>-0.0008539709649871829</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2283,7 +2283,7 @@
         <v>1.257901974313389</v>
       </c>
       <c r="K17">
-        <v>55.71109767490714</v>
+        <v>0.0571109767490714</v>
       </c>
       <c r="L17">
         <v>0.007912530851730624</v>
@@ -2313,13 +2313,13 @@
         <v>0.08124999999999716</v>
       </c>
       <c r="U17">
-        <v>1.000192571037316</v>
+        <v>0.0001925710373160694</v>
       </c>
       <c r="V17">
-        <v>1.000057058085131</v>
+        <v>5.7058085130679E-05</v>
       </c>
       <c r="W17">
-        <v>1.001709401709402</v>
+        <v>0.001709401709401703</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2354,7 +2354,7 @@
         <v>1.379441829403352</v>
       </c>
       <c r="K18">
-        <v>57.97333695479534</v>
+        <v>0.0797333695479534</v>
       </c>
       <c r="L18">
         <v>0.01096890016248517</v>
@@ -2384,13 +2384,13 @@
         <v>0.1125000000000043</v>
       </c>
       <c r="U18">
-        <v>1.000220218582673</v>
+        <v>0.0002202185826731817</v>
       </c>
       <c r="V18">
-        <v>1.000285274148456</v>
+        <v>0.0002852741484564714</v>
       </c>
       <c r="W18">
-        <v>1.000853242320819</v>
+        <v>0.0008532423208189588</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2425,7 +2425,7 @@
         <v>1.507378518971752</v>
       </c>
       <c r="K19">
-        <v>60.11770889661729</v>
+        <v>0.1011770889661729</v>
       </c>
       <c r="L19">
         <v>0.01403725806835855</v>
@@ -2455,13 +2455,13 @@
         <v>0.1375000000000028</v>
       </c>
       <c r="U19">
-        <v>1.000243235535873</v>
+        <v>0.000243235535873243</v>
       </c>
       <c r="V19">
-        <v>1.000342231348392</v>
+        <v>0.0003422313483916195</v>
       </c>
       <c r="W19">
-        <v>1.000852514919011</v>
+        <v>0.0008525149190110604</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2496,7 +2496,7 @@
         <v>1.507378518971752</v>
       </c>
       <c r="K20">
-        <v>60.11770889661729</v>
+        <v>0.1011770889661729</v>
       </c>
       <c r="L20">
         <v>0.0168194301528946</v>
@@ -2526,13 +2526,13 @@
         <v>0.1624999999999943</v>
       </c>
       <c r="U20">
-        <v>1.000217578872341</v>
+        <v>0.0002175788723413064</v>
       </c>
       <c r="V20">
-        <v>1.000456152354886</v>
+        <v>0.0004561523548864965</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2567,7 +2567,7 @@
         <v>1.320225810225968</v>
       </c>
       <c r="K21">
-        <v>56.90074666040331</v>
+        <v>0.06900746660403312</v>
       </c>
       <c r="L21">
         <v>0.01881758280760931</v>
@@ -2597,13 +2597,13 @@
         <v>0.1343749999999986</v>
       </c>
       <c r="U21">
-        <v>1.000153022188217</v>
+        <v>0.0001530221882171112</v>
       </c>
       <c r="V21">
-        <v>1.000455944374786</v>
+        <v>0.0004559443747862435</v>
       </c>
       <c r="W21">
-        <v>0.9991482112436115</v>
+        <v>-0.0008517887563884718</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2638,7 +2638,7 @@
         <v>1.712302880779653</v>
       </c>
       <c r="K22">
-        <v>63.13096125486732</v>
+        <v>0.1313096125486732</v>
       </c>
       <c r="L22">
         <v>0.0211720578900968</v>
@@ -2668,13 +2668,13 @@
         <v>0.1124999999999972</v>
       </c>
       <c r="U22">
-        <v>1.000260569344017</v>
+        <v>0.0002605693440167478</v>
       </c>
       <c r="V22">
-        <v>1.000455736584254</v>
+        <v>0.0004557365842543515</v>
       </c>
       <c r="W22">
-        <v>1.002557544757033</v>
+        <v>0.002557544757033181</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2709,7 +2709,7 @@
         <v>1.10450944083418</v>
       </c>
       <c r="K23">
-        <v>52.48298816832001</v>
+        <v>0.02482988168320011</v>
       </c>
       <c r="L23">
         <v>0.02213305973083133</v>
@@ -2739,13 +2739,13 @@
         <v>0.1062499999999957</v>
       </c>
       <c r="U23">
-        <v>1.000081406707913</v>
+        <v>8.140670791267901E-05</v>
       </c>
       <c r="V23">
-        <v>1.000398587860153</v>
+        <v>0.0003985878601526771</v>
       </c>
       <c r="W23">
-        <v>0.9965986394557824</v>
+        <v>-0.00340136054421758</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2780,7 +2780,7 @@
         <v>1.478148109287712</v>
       </c>
       <c r="K24">
-        <v>59.6472867682058</v>
+        <v>0.09647286768205798</v>
       </c>
       <c r="L24">
         <v>0.02346110414655757</v>
@@ -2810,13 +2810,13 @@
         <v>0.109375</v>
       </c>
       <c r="U24">
-        <v>1.000222965440357</v>
+        <v>0.000222965440356715</v>
       </c>
       <c r="V24">
-        <v>1.000626102794695</v>
+        <v>0.0006261027946952158</v>
       </c>
       <c r="W24">
-        <v>1.003412969283276</v>
+        <v>0.003412969283276279</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2851,7 +2851,7 @@
         <v>1.871451970817759</v>
       </c>
       <c r="K25">
-        <v>65.1744131483693</v>
+        <v>0.1517441314836929</v>
       </c>
       <c r="L25">
         <v>0.02613528164984536</v>
@@ -2881,13 +2881,13 @@
         <v>0.1125000000000043</v>
       </c>
       <c r="U25">
-        <v>1.000346757814435</v>
+        <v>0.0003467578144349392</v>
       </c>
       <c r="V25">
-        <v>1.000739476678043</v>
+        <v>0.0007394766780430828</v>
       </c>
       <c r="W25">
-        <v>1.003401360544218</v>
+        <v>0.003401360544217802</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2922,7 +2922,7 @@
         <v>1.323512440626676</v>
       </c>
       <c r="K26">
-        <v>56.96171096332545</v>
+        <v>0.06961710963325451</v>
       </c>
       <c r="L26">
         <v>0.02801117810438695</v>
@@ -2952,13 +2952,13 @@
         <v>0.1031249999999915</v>
       </c>
       <c r="U26">
-        <v>1.000182232346241</v>
+        <v>0.0001822323462414843</v>
       </c>
       <c r="V26">
-        <v>1.000511567100551</v>
+        <v>0.0005115671005513356</v>
       </c>
       <c r="W26">
-        <v>0.9966101694915254</v>
+        <v>-0.003389830508474634</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2993,7 +2993,7 @@
         <v>1.075022338709721</v>
       </c>
       <c r="K27">
-        <v>51.8077477362574</v>
+        <v>0.01807747736257392</v>
       </c>
       <c r="L27">
         <v>0.02821112146494273</v>
@@ -3023,13 +3023,13 @@
         <v>0.078125</v>
       </c>
       <c r="U27">
-        <v>1.000069638615006</v>
+        <v>6.963861500630664E-05</v>
       </c>
       <c r="V27">
-        <v>1.000340870355642</v>
+        <v>0.0003408703556415649</v>
       </c>
       <c r="W27">
-        <v>0.9974489795918368</v>
+        <v>-0.00255102040816324</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3064,7 +3064,7 @@
         <v>1.27265442761535</v>
       </c>
       <c r="K28">
-        <v>55.99858967342959</v>
+        <v>0.05998589673429588</v>
       </c>
       <c r="L28">
         <v>0.02826258693071307</v>
@@ -3094,13 +3094,13 @@
         <v>0.06250000000000711</v>
       </c>
       <c r="U28">
-        <v>1.000159364488483</v>
+        <v>0.0001593644884825274</v>
       </c>
       <c r="V28">
-        <v>1.000113584734212</v>
+        <v>0.0001135847342117469</v>
       </c>
       <c r="W28">
-        <v>1.002557544757033</v>
+        <v>0.002557544757033181</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3135,7 +3135,7 @@
         <v>0.996301845335728</v>
       </c>
       <c r="K29">
-        <v>49.90737486235079</v>
+        <v>-0.0009262513764921598</v>
       </c>
       <c r="L29">
         <v>0.02683552211639109</v>
@@ -3165,13 +3165,13 @@
         <v>0.06249999999999289</v>
       </c>
       <c r="U29">
-        <v>1.000025977311642</v>
+        <v>2.597731164200034E-05</v>
       </c>
       <c r="V29">
-        <v>0.9998864281658149</v>
+        <v>-0.0001135718341851444</v>
       </c>
       <c r="W29">
-        <v>0.9965986394557824</v>
+        <v>-0.00340136054421758</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3206,7 +3206,7 @@
         <v>1.224877214044618</v>
       </c>
       <c r="K30">
-        <v>55.05369942721047</v>
+        <v>0.05053699427210478</v>
       </c>
       <c r="L30">
         <v>0.02579407998149939</v>
@@ -3236,13 +3236,13 @@
         <v>0.05624999999999858</v>
       </c>
       <c r="U30">
-        <v>1.000141956283774</v>
+        <v>0.0001419562837736699</v>
       </c>
       <c r="V30">
-        <v>1.000283961835529</v>
+        <v>0.0002839618355294782</v>
       </c>
       <c r="W30">
-        <v>1.003412969283276</v>
+        <v>0.003412969283276279</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3277,7 +3277,7 @@
         <v>1.037632103086345</v>
       </c>
       <c r="K31">
-        <v>50.92342732108865</v>
+        <v>0.009234273210886546</v>
       </c>
       <c r="L31">
         <v>0.02400279571469818</v>
@@ -3307,13 +3307,13 @@
         <v>0.05624999999999147</v>
       </c>
       <c r="U31">
-        <v>1.00004710176926</v>
+        <v>4.710176926026044E-05</v>
       </c>
       <c r="V31">
-        <v>1.000170328734457</v>
+        <v>0.0001703287344574367</v>
       </c>
       <c r="W31">
-        <v>0.9974489795918368</v>
+        <v>-0.00255102040816324</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3348,7 +3348,7 @@
         <v>1.252184347766556</v>
       </c>
       <c r="K32">
-        <v>55.59866131777006</v>
+        <v>0.05598661317770059</v>
       </c>
       <c r="L32">
         <v>0.02305439210341229</v>
@@ -3378,13 +3378,13 @@
         <v>0.04062499999999147</v>
       </c>
       <c r="U32">
-        <v>1.000170735871607</v>
+        <v>0.0001707358716067642</v>
       </c>
       <c r="V32">
-        <v>1.000283832879201</v>
+        <v>0.0002838328792005296</v>
       </c>
       <c r="W32">
-        <v>1.003410059676044</v>
+        <v>0.003410059676044463</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3419,7 +3419,7 @@
         <v>1.365106581808772</v>
       </c>
       <c r="K33">
-        <v>57.71860736883892</v>
+        <v>0.07718607368838915</v>
       </c>
       <c r="L33">
         <v>0.02321744148591854</v>
@@ -3449,13 +3449,13 @@
         <v>0.01249999999999574</v>
       </c>
       <c r="U33">
-        <v>1.000312962330716</v>
+        <v>0.0003129623307158713</v>
       </c>
       <c r="V33">
-        <v>1.000340502809148</v>
+        <v>0.0003405028091483242</v>
       </c>
       <c r="W33">
-        <v>1.001699235344095</v>
+        <v>0.001699235344095218</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3490,7 +3490,7 @@
         <v>1.15854077290539</v>
       </c>
       <c r="K34">
-        <v>53.6724062592525</v>
+        <v>0.03672406259252503</v>
       </c>
       <c r="L34">
         <v>0.02300759960404861</v>
@@ -3520,13 +3520,13 @@
         <v>0.003124999999990052</v>
       </c>
       <c r="U34">
-        <v>1.000227537757047</v>
+        <v>0.0002275377570466475</v>
       </c>
       <c r="V34">
-        <v>1.00011346230215</v>
+        <v>0.0001134623021501469</v>
       </c>
       <c r="W34">
-        <v>0.9974554707379134</v>
+        <v>-0.002544529262086592</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3561,7 +3561,7 @@
         <v>1.047326829042567</v>
       </c>
       <c r="K35">
-        <v>51.15582007648235</v>
+        <v>0.0115582007648235</v>
       </c>
       <c r="L35">
         <v>0.02187435694075919</v>
@@ -3591,13 +3591,13 @@
         <v>0.009374999999998579</v>
       </c>
       <c r="U35">
-        <v>1.000227485995393</v>
+        <v>0.0002274859953932395</v>
       </c>
       <c r="V35">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W35">
-        <v>0.9982993197278912</v>
+        <v>-0.00170068027210879</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3632,7 +3632,7 @@
         <v>1.350468450124346</v>
       </c>
       <c r="K36">
-        <v>57.45528939360589</v>
+        <v>0.07455289393605891</v>
       </c>
       <c r="L36">
         <v>0.02205699096194647</v>
@@ -3662,13 +3662,13 @@
         <v>0.015625</v>
       </c>
       <c r="U36">
-        <v>1.000426439232409</v>
+        <v>0.0004264392324093702</v>
       </c>
       <c r="V36">
-        <v>1.000397073004708</v>
+        <v>0.0003970730047082593</v>
       </c>
       <c r="W36">
-        <v>1.00511073253833</v>
+        <v>0.005110732538330387</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3703,7 +3703,7 @@
         <v>1.350468450124346</v>
       </c>
       <c r="K37">
-        <v>57.45528939360589</v>
+        <v>0.07455289393605891</v>
       </c>
       <c r="L37">
         <v>0.02293899212872855</v>
@@ -3733,13 +3733,13 @@
         <v>0.04375000000000284</v>
       </c>
       <c r="U37">
-        <v>1.000341005967605</v>
+        <v>0.0003410059676045574</v>
       </c>
       <c r="V37">
-        <v>1.000226808800182</v>
+        <v>0.0002268088001815549</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3774,7 +3774,7 @@
         <v>1.350468450124346</v>
       </c>
       <c r="K38">
-        <v>57.45528939360589</v>
+        <v>0.07455289393605891</v>
       </c>
       <c r="L38">
         <v>0.02410112819654148</v>
@@ -3804,13 +3804,13 @@
         <v>0.05624999999999858</v>
       </c>
       <c r="U38">
-        <v>1.000426112152719</v>
+        <v>0.0004261121527187051</v>
       </c>
       <c r="V38">
-        <v>1.000453514739229</v>
+        <v>0.0004535147392290551</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3845,7 +3845,7 @@
         <v>1.350468450124346</v>
       </c>
       <c r="K39">
-        <v>57.4552893936059</v>
+        <v>0.07455289393605891</v>
       </c>
       <c r="L39">
         <v>0.02526862242023604</v>
@@ -3875,13 +3875,13 @@
         <v>0.07500000000000284</v>
       </c>
       <c r="U39">
-        <v>1.000425930658489</v>
+        <v>0.0004259306584888378</v>
       </c>
       <c r="V39">
-        <v>1.000226654578422</v>
+        <v>0.0002266545784224139</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3916,7 +3916,7 @@
         <v>1.660617104684274</v>
       </c>
       <c r="K40">
-        <v>62.41473460275802</v>
+        <v>0.1241473460275802</v>
       </c>
       <c r="L40">
         <v>0.02782917725553171</v>
@@ -3946,13 +3946,13 @@
         <v>0.09687499999999716</v>
       </c>
       <c r="U40">
-        <v>1.000510899182561</v>
+        <v>0.0005108991825613085</v>
       </c>
       <c r="V40">
-        <v>1.000283254022207</v>
+        <v>0.0002832540222070801</v>
       </c>
       <c r="W40">
-        <v>1.004237288135593</v>
+        <v>0.004237288135593209</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3987,7 +3987,7 @@
         <v>1.193172015807074</v>
       </c>
       <c r="K41">
-        <v>54.40394128720422</v>
+        <v>0.04403941287204216</v>
       </c>
       <c r="L41">
         <v>0.02909592334099558</v>
@@ -4017,13 +4017,13 @@
         <v>0.1000000000000014</v>
       </c>
       <c r="U41">
-        <v>1.000340425531915</v>
+        <v>0.0003404255319148231</v>
       </c>
       <c r="V41">
-        <v>1.000169904287251</v>
+        <v>0.0001699042872513878</v>
       </c>
       <c r="W41">
-        <v>0.9949367088607596</v>
+        <v>-0.005063291139240422</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4058,7 +4058,7 @@
         <v>1.193172015807074</v>
       </c>
       <c r="K42">
-        <v>54.40394128720422</v>
+        <v>0.04403941287204216</v>
       </c>
       <c r="L42">
         <v>0.02939298870177082</v>
@@ -4088,13 +4088,13 @@
         <v>0.1093750000000071</v>
       </c>
       <c r="U42">
-        <v>1.00034030968181</v>
+        <v>0.0003403096818104245</v>
       </c>
       <c r="V42">
-        <v>1.000339750849377</v>
+        <v>0.0003397508493769852</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4129,7 +4129,7 @@
         <v>1.193172015807074</v>
       </c>
       <c r="K43">
-        <v>54.40394128720422</v>
+        <v>0.04403941287204216</v>
       </c>
       <c r="L43">
         <v>0.02897728773270779</v>
@@ -4159,13 +4159,13 @@
         <v>0.1218750000000028</v>
       </c>
       <c r="U43">
-        <v>1.00014174746272</v>
+        <v>0.0001417474627203319</v>
       </c>
       <c r="V43">
-        <v>1.000169817728971</v>
+        <v>0.0001698177289710667</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4200,7 +4200,7 @@
         <v>0.9789113769999319</v>
       </c>
       <c r="K44">
-        <v>49.46716605793537</v>
+        <v>-0.005328339420646255</v>
       </c>
       <c r="L44">
         <v>0.02680904918637304</v>
@@ -4230,13 +4230,13 @@
         <v>0.09375</v>
       </c>
       <c r="U44">
-        <v>1.000028345474645</v>
+        <v>2.834547464503068E-05</v>
       </c>
       <c r="V44">
-        <v>1.000169788895806</v>
+        <v>0.0001697888958061</v>
       </c>
       <c r="W44">
-        <v>0.996607294317218</v>
+        <v>-0.003392705682782049</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4271,7 +4271,7 @@
         <v>1.073423111915738</v>
       </c>
       <c r="K45">
-        <v>51.77057715556906</v>
+        <v>0.01770577155569064</v>
       </c>
       <c r="L45">
         <v>0.02424309224641082</v>
@@ -4301,13 +4301,13 @@
         <v>0.05937500000000284</v>
       </c>
       <c r="U45">
-        <v>1.000170068027211</v>
+        <v>0.0001700680272107569</v>
       </c>
       <c r="V45">
-        <v>1.00005658669081</v>
+        <v>5.658669081021195E-05</v>
       </c>
       <c r="W45">
-        <v>1.001702127659575</v>
+        <v>0.001702127659574559</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4342,7 +4342,7 @@
         <v>1.172909148669219</v>
       </c>
       <c r="K46">
-        <v>53.97874777173993</v>
+        <v>0.03978747771739921</v>
       </c>
       <c r="L46">
         <v>0.02213263754741244</v>
@@ -4372,13 +4372,13 @@
         <v>0.04375000000000284</v>
       </c>
       <c r="U46">
-        <v>1.000255058663493</v>
+        <v>0.0002550586634926244</v>
       </c>
       <c r="V46">
-        <v>1.000339500933628</v>
+        <v>0.0003395009336275567</v>
       </c>
       <c r="W46">
-        <v>1.001699235344095</v>
+        <v>0.001699235344095218</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4413,7 +4413,7 @@
         <v>1.225270220644732</v>
       </c>
       <c r="K47">
-        <v>55.06163742620579</v>
+        <v>0.05061637426205789</v>
       </c>
       <c r="L47">
         <v>0.02066173358314061</v>
@@ -4443,13 +4443,13 @@
         <v>0.02187500000000853</v>
       </c>
       <c r="U47">
-        <v>1.000226661000142</v>
+        <v>0.0002266610001415703</v>
       </c>
       <c r="V47">
-        <v>1.000169692855931</v>
+        <v>0.0001696928559307143</v>
       </c>
       <c r="W47">
-        <v>1.000848176420695</v>
+        <v>0.0008481764206953457</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4484,7 +4484,7 @@
         <v>1.225270220644732</v>
       </c>
       <c r="K48">
-        <v>55.06163742620579</v>
+        <v>0.05061637426205789</v>
       </c>
       <c r="L48">
         <v>0.01959615790362756</v>
@@ -4514,13 +4514,13 @@
         <v>-0.01874999999999005</v>
       </c>
       <c r="U48">
-        <v>1.000198283432003</v>
+        <v>0.0001982834320028992</v>
       </c>
       <c r="V48">
-        <v>1.000056554688384</v>
+        <v>5.655468838394739E-05</v>
       </c>
       <c r="W48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4555,7 +4555,7 @@
         <v>1.158080904737343</v>
       </c>
       <c r="K49">
-        <v>53.66253425416835</v>
+        <v>0.03662534254168348</v>
       </c>
       <c r="L49">
         <v>0.01846246406115581</v>
@@ -4585,13 +4585,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U49">
-        <v>1.000141602945341</v>
+        <v>0.0001416029453411571</v>
       </c>
       <c r="V49">
-        <v>1.000169654470395</v>
+        <v>0.0001696544703952974</v>
       </c>
       <c r="W49">
-        <v>0.9991525423728814</v>
+        <v>-0.0008474576271185752</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4626,7 +4626,7 @@
         <v>1.215803351998627</v>
       </c>
       <c r="K50">
-        <v>54.86964133807216</v>
+        <v>0.04869641338072161</v>
       </c>
       <c r="L50">
         <v>0.01760225134168607</v>
@@ -4656,13 +4656,13 @@
         <v>-0.02499999999999858</v>
       </c>
       <c r="U50">
-        <v>1.000169899476143</v>
+        <v>0.0001698994761432093</v>
       </c>
       <c r="V50">
-        <v>1.000339251385276</v>
+        <v>0.0003392513852764623</v>
       </c>
       <c r="W50">
-        <v>1.000848176420695</v>
+        <v>0.0008481764206953457</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4697,7 +4697,7 @@
         <v>1.215803351998627</v>
       </c>
       <c r="K51">
-        <v>54.86964133807216</v>
+        <v>0.04869641338072161</v>
       </c>
       <c r="L51">
         <v>0.01689817728580115</v>
@@ -4727,13 +4727,13 @@
         <v>-0.03750000000000142</v>
       </c>
       <c r="U51">
-        <v>1.000198182384417</v>
+        <v>0.000198182384417267</v>
       </c>
       <c r="V51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4768,7 +4768,7 @@
         <v>1.215803351998627</v>
       </c>
       <c r="K52">
-        <v>54.86964133807215</v>
+        <v>0.0486964133807215</v>
       </c>
       <c r="L52">
         <v>0.01627184675456824</v>
@@ -4798,13 +4798,13 @@
         <v>-0.006250000000001421</v>
       </c>
       <c r="U52">
-        <v>1.000113224637681</v>
+        <v>0.000113224637681153</v>
       </c>
       <c r="V52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4839,7 +4839,7 @@
         <v>1.139113000521998</v>
       </c>
       <c r="K53">
-        <v>53.25165151368933</v>
+        <v>0.03251651513689335</v>
       </c>
       <c r="L53">
         <v>0.01536371040677266</v>
@@ -4869,13 +4869,13 @@
         <v>0.009374999999991473</v>
       </c>
       <c r="U53">
-        <v>1.0001981206838</v>
+        <v>0.0001981206837995408</v>
       </c>
       <c r="V53">
-        <v>0.9999434772778657</v>
+        <v>-5.65227221343001E-05</v>
       </c>
       <c r="W53">
-        <v>0.9991525423728814</v>
+        <v>-0.0008474576271185752</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4910,7 +4910,7 @@
         <v>1.205510815293744</v>
       </c>
       <c r="K54">
-        <v>54.65902986892342</v>
+        <v>0.04659029868923414</v>
       </c>
       <c r="L54">
         <v>0.01459628261984418</v>
@@ -4940,13 +4940,13 @@
         <v>0.01562499999999289</v>
       </c>
       <c r="U54">
-        <v>1.000113189394154</v>
+        <v>0.0001131893941537232</v>
       </c>
       <c r="V54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54">
-        <v>1.000848176420695</v>
+        <v>0.0008481764206953457</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4981,7 +4981,7 @@
         <v>1.205510815293744</v>
       </c>
       <c r="K55">
-        <v>54.65902986892342</v>
+        <v>0.04659029868923414</v>
       </c>
       <c r="L55">
         <v>0.01390974905300734</v>
@@ -5011,13 +5011,13 @@
         <v>0.01562499999999289</v>
       </c>
       <c r="U55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V55">
-        <v>0.9997173704143349</v>
+        <v>-0.0002826295856650507</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5052,7 +5052,7 @@
         <v>0.9314113964460099</v>
       </c>
       <c r="K56">
-        <v>48.22439166300354</v>
+        <v>-0.01775608336996454</v>
       </c>
       <c r="L56">
         <v>0.01202828964299597</v>
@@ -5082,13 +5082,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V56">
-        <v>0.9998303743073617</v>
+        <v>-0.0001696256926383422</v>
       </c>
       <c r="W56">
-        <v>0.9966101694915254</v>
+        <v>-0.003389830508474634</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5123,7 +5123,7 @@
         <v>0.9912461362902896</v>
       </c>
       <c r="K57">
-        <v>49.78019131964221</v>
+        <v>-0.002198086803577914</v>
       </c>
       <c r="L57">
         <v>0.009808836080992121</v>
@@ -5153,13 +5153,13 @@
         <v>0.01250000000000284</v>
       </c>
       <c r="U57">
-        <v>1.000113176583765</v>
+        <v>0.0001131765837647514</v>
       </c>
       <c r="V57">
-        <v>0.9998868970197365</v>
+        <v>-0.0001131029802634576</v>
       </c>
       <c r="W57">
-        <v>1.000850340136054</v>
+        <v>0.0008503401360544505</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5194,7 +5194,7 @@
         <v>0.9325128086017185</v>
       </c>
       <c r="K58">
-        <v>48.25390054084267</v>
+        <v>-0.0174609945915733</v>
       </c>
       <c r="L58">
         <v>0.007181430685889324</v>
@@ -5224,13 +5224,13 @@
         <v>-0.003125000000004263</v>
       </c>
       <c r="U58">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V58">
-        <v>0.9998303263390078</v>
+        <v>-0.0001696736609921867</v>
       </c>
       <c r="W58">
-        <v>0.9991503823279524</v>
+        <v>-0.000849617672047609</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5265,7 +5265,7 @@
         <v>1.119624424571372</v>
       </c>
       <c r="K59">
-        <v>52.8218306786959</v>
+        <v>0.02821830678695891</v>
       </c>
       <c r="L59">
         <v>0.005375711989771426</v>
@@ -5295,13 +5295,13 @@
         <v>-0.009374999999998579</v>
       </c>
       <c r="U59">
-        <v>1.000198036608481</v>
+        <v>0.0001980366084815</v>
       </c>
       <c r="V59">
-        <v>1.000226269940039</v>
+        <v>0.0002262699400386037</v>
       </c>
       <c r="W59">
-        <v>1.002551020408163</v>
+        <v>0.002551020408163351</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5336,7 +5336,7 @@
         <v>0.9896739091818831</v>
       </c>
       <c r="K60">
-        <v>49.74050796036315</v>
+        <v>-0.00259492039636855</v>
       </c>
       <c r="L60">
         <v>0.003544950372501085</v>
@@ -5366,13 +5366,13 @@
         <v>-0.03437500000000426</v>
       </c>
       <c r="U60">
-        <v>1.000028285342536</v>
+        <v>2.828534253551673E-05</v>
       </c>
       <c r="V60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>0.998303647158609</v>
+        <v>-0.001696352841391024</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5407,7 +5407,7 @@
         <v>1.172936278058607</v>
       </c>
       <c r="K61">
-        <v>53.97932235300328</v>
+        <v>0.03979322353003278</v>
       </c>
       <c r="L61">
         <v>0.002730006778379937</v>
@@ -5437,13 +5437,13 @@
         <v>-0.03750000000000142</v>
       </c>
       <c r="U61">
-        <v>1.000197991797483</v>
+        <v>0.0001979917974828105</v>
       </c>
       <c r="V61">
-        <v>1.000056554688384</v>
+        <v>5.655468838372535E-05</v>
       </c>
       <c r="W61">
-        <v>1.002548853016143</v>
+        <v>0.002548853016142605</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5478,7 +5478,7 @@
         <v>1.237238863629385</v>
       </c>
       <c r="K62">
-        <v>55.30204591664658</v>
+        <v>0.05302045916646581</v>
       </c>
       <c r="L62">
         <v>0.002881385344763556</v>
@@ -5508,13 +5508,13 @@
         <v>-0.03750000000000142</v>
       </c>
       <c r="U62">
-        <v>1.000113115773995</v>
+        <v>0.0001131157739946431</v>
       </c>
       <c r="V62">
-        <v>1.000056551490132</v>
+        <v>5.655149013161775E-05</v>
       </c>
       <c r="W62">
-        <v>1.000847457627119</v>
+        <v>0.0008474576271186862</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5549,7 +5549,7 @@
         <v>0.9736305921841267</v>
       </c>
       <c r="K63">
-        <v>49.33195685351909</v>
+        <v>-0.006680431464809122</v>
       </c>
       <c r="L63">
         <v>0.002361771116681218</v>
@@ -5579,13 +5579,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U63">
-        <v>0.999943448509868</v>
+        <v>-5.655149013195082E-05</v>
       </c>
       <c r="V63">
-        <v>0.9998303551232753</v>
+        <v>-0.0001696448767246617</v>
       </c>
       <c r="W63">
-        <v>0.9966130397967825</v>
+        <v>-0.003386960203217493</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5620,7 +5620,7 @@
         <v>0.9736305921841267</v>
       </c>
       <c r="K64">
-        <v>49.33195685351909</v>
+        <v>-0.006680431464809122</v>
       </c>
       <c r="L64">
         <v>0.001460238732600459</v>
@@ -5650,13 +5650,13 @@
         <v>-0.03125000000000711</v>
       </c>
       <c r="U64">
-        <v>1.000028277344192</v>
+        <v>2.82773441919737E-05</v>
       </c>
       <c r="V64">
-        <v>0.9998868842260051</v>
+        <v>-0.0001131157739948652</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5691,7 +5691,7 @@
         <v>1.150690214187723</v>
       </c>
       <c r="K65">
-        <v>53.50329892221683</v>
+        <v>0.03503298922216824</v>
       </c>
       <c r="L65">
         <v>0.001306558589075202</v>
@@ -5721,13 +5721,13 @@
         <v>-0.01562500000000711</v>
       </c>
       <c r="U65">
-        <v>1.000169659267637</v>
+        <v>0.0001696592676374564</v>
       </c>
       <c r="V65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>1.002548853016143</v>
+        <v>0.002548853016142605</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5762,7 +5762,7 @@
         <v>1.150690214187723</v>
       </c>
       <c r="K66">
-        <v>53.50329892221683</v>
+        <v>0.03503298922216824</v>
       </c>
       <c r="L66">
         <v>0.001610935247212838</v>
@@ -5792,13 +5792,13 @@
         <v>0.009374999999991473</v>
       </c>
       <c r="U66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5833,7 +5833,7 @@
         <v>1.216086196460516</v>
       </c>
       <c r="K67">
-        <v>54.87540143532423</v>
+        <v>0.04875401435324234</v>
       </c>
       <c r="L67">
         <v>0.002476524218824564</v>
@@ -5863,13 +5863,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U67">
-        <v>1.000028271748042</v>
+        <v>2.827174804220789E-05</v>
       </c>
       <c r="V67">
-        <v>1.00005656428531</v>
+        <v>5.65642853103121E-05</v>
       </c>
       <c r="W67">
-        <v>1.000847457627119</v>
+        <v>0.0008474576271186862</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5904,7 +5904,7 @@
         <v>1.137764878733897</v>
       </c>
       <c r="K68">
-        <v>53.22217097175552</v>
+        <v>0.03222170971755522</v>
       </c>
       <c r="L68">
         <v>0.003308869823734733</v>
@@ -5934,13 +5934,13 @@
         <v>0.03750000000000142</v>
       </c>
       <c r="U68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V68">
-        <v>1.000056561085973</v>
+        <v>5.656108597285048E-05</v>
       </c>
       <c r="W68">
-        <v>0.9991532599491957</v>
+        <v>-0.0008467400508043177</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5975,7 +5975,7 @@
         <v>1.137764878733897</v>
       </c>
       <c r="K69">
-        <v>53.22217097175553</v>
+        <v>0.03222170971755534</v>
       </c>
       <c r="L69">
         <v>0.004055942431926288</v>
@@ -6005,13 +6005,13 @@
         <v>0.03437500000000426</v>
       </c>
       <c r="U69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6046,7 +6046,7 @@
         <v>1.137764878733897</v>
       </c>
       <c r="K70">
-        <v>53.22217097175553</v>
+        <v>0.03222170971755534</v>
       </c>
       <c r="L70">
         <v>0.004688936310256159</v>
@@ -6076,13 +6076,13 @@
         <v>0.02812500000000284</v>
       </c>
       <c r="U70">
-        <v>0.9998586452561348</v>
+        <v>-0.0001413547438652296</v>
       </c>
       <c r="V70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6117,7 +6117,7 @@
         <v>0.928519020578022</v>
       </c>
       <c r="K71">
-        <v>48.14673906092579</v>
+        <v>-0.01853260939074208</v>
       </c>
       <c r="L71">
         <v>0.004268511912607252</v>
@@ -6147,13 +6147,13 @@
         <v>0.03750000000000142</v>
       </c>
       <c r="U71">
-        <v>0.9999434501088585</v>
+        <v>-5.654989114145526E-05</v>
       </c>
       <c r="V71">
-        <v>1.000056557886998</v>
+        <v>5.65578869975436E-05</v>
       </c>
       <c r="W71">
-        <v>0.9974576271186441</v>
+        <v>-0.002542372881355948</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6188,7 +6188,7 @@
         <v>0.9285190205780223</v>
       </c>
       <c r="K72">
-        <v>48.1467390609258</v>
+        <v>-0.01853260939074203</v>
       </c>
       <c r="L72">
         <v>0.003221276081796477</v>
@@ -6218,13 +6218,13 @@
         <v>0.03437499999999716</v>
       </c>
       <c r="U72">
-        <v>0.9999434469107875</v>
+        <v>-5.655308921248547E-05</v>
       </c>
       <c r="V72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6259,7 +6259,7 @@
         <v>1.132296945799008</v>
       </c>
       <c r="K73">
-        <v>53.10221674470941</v>
+        <v>0.03102216744709407</v>
       </c>
       <c r="L73">
         <v>0.002776169527593878</v>
@@ -6289,13 +6289,13 @@
         <v>0.02499999999999858</v>
       </c>
       <c r="U73">
-        <v>1.000028278143823</v>
+        <v>2.827814382255767E-05</v>
       </c>
       <c r="V73">
-        <v>1.000226218753535</v>
+        <v>0.0002262187535346794</v>
       </c>
       <c r="W73">
-        <v>1.002548853016143</v>
+        <v>0.002548853016142605</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6330,7 +6330,7 @@
         <v>1.132296945799008</v>
       </c>
       <c r="K74">
-        <v>53.10221674470941</v>
+        <v>0.03102216744709407</v>
       </c>
       <c r="L74">
         <v>0.002714053817554933</v>
@@ -6360,13 +6360,13 @@
         <v>0.01249999999999574</v>
       </c>
       <c r="U74">
-        <v>1.000141386720959</v>
+        <v>0.0001413867209592023</v>
       </c>
       <c r="V74">
-        <v>1.000056541897546</v>
+        <v>5.654189754600303E-05</v>
       </c>
       <c r="W74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6401,7 +6401,7 @@
         <v>1.132296945799009</v>
       </c>
       <c r="K75">
-        <v>53.10221674470942</v>
+        <v>0.03102216744709418</v>
       </c>
       <c r="L75">
         <v>0.002878007715194289</v>
@@ -6431,13 +6431,13 @@
         <v>0.003124999999997158</v>
       </c>
       <c r="U75">
-        <v>1.000084820040148</v>
+        <v>8.482004014820355E-05</v>
       </c>
       <c r="V75">
-        <v>1.000169616102222</v>
+        <v>0.0001696161022219922</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6472,7 +6472,7 @@
         <v>0.9148569172555918</v>
       </c>
       <c r="K76">
-        <v>47.77677689708438</v>
+        <v>-0.02223223102915617</v>
       </c>
       <c r="L76">
         <v>0.002231269461286563</v>
@@ -6502,13 +6502,13 @@
         <v>-0.01562499999999289</v>
       </c>
       <c r="U76">
-        <v>0.9999434581024539</v>
+        <v>-5.654189754611405E-05</v>
       </c>
       <c r="V76">
-        <v>0.9998304126625212</v>
+        <v>-0.0001695873374788492</v>
       </c>
       <c r="W76">
-        <v>0.9974576271186441</v>
+        <v>-0.002542372881355948</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6543,7 +6543,7 @@
         <v>0.914856917255592</v>
       </c>
       <c r="K77">
-        <v>47.77677689708439</v>
+        <v>-0.02223223102915611</v>
       </c>
       <c r="L77">
         <v>0.001126544413671426</v>
@@ -6573,13 +6573,13 @@
         <v>-0.02499999999999147</v>
       </c>
       <c r="U77">
-        <v>0.9999151823579305</v>
+        <v>-8.481764206946796E-05</v>
       </c>
       <c r="V77">
-        <v>0.9997738451970375</v>
+        <v>-0.0002261548029625082</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6614,7 +6614,7 @@
         <v>1.127637478435574</v>
       </c>
       <c r="K78">
-        <v>52.99951189357277</v>
+        <v>0.0299951189357277</v>
       </c>
       <c r="L78">
         <v>0.0007373389373028514</v>
@@ -6644,13 +6644,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V78">
-        <v>1.000169654470395</v>
+        <v>0.0001696544703952974</v>
       </c>
       <c r="W78">
-        <v>1.002548853016143</v>
+        <v>0.002548853016142605</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6685,7 +6685,7 @@
         <v>1.127637478435574</v>
       </c>
       <c r="K79">
-        <v>52.99951189357277</v>
+        <v>0.0299951189357277</v>
       </c>
       <c r="L79">
         <v>0.0008037046867818311</v>
@@ -6715,13 +6715,13 @@
         <v>-0.01249999999999574</v>
       </c>
       <c r="U79">
-        <v>1.000028274945571</v>
+        <v>2.827494557067212E-05</v>
       </c>
       <c r="V79">
-        <v>1.000169625692638</v>
+        <v>0.0001696256926382311</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6756,7 +6756,7 @@
         <v>1.127637478435574</v>
       </c>
       <c r="K80">
-        <v>52.99951189357277</v>
+        <v>0.0299951189357277</v>
       </c>
       <c r="L80">
         <v>0.001138900519888389</v>
@@ -6786,13 +6786,13 @@
         <v>-0.003124999999990052</v>
       </c>
       <c r="U80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6827,7 +6827,7 @@
         <v>1.127637478435574</v>
       </c>
       <c r="K81">
-        <v>52.99951189357277</v>
+        <v>0.0299951189357277</v>
       </c>
       <c r="L81">
         <v>0.001611441730571076</v>
@@ -6857,13 +6857,13 @@
         <v>-0.003124999999990052</v>
       </c>
       <c r="U81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6898,7 +6898,7 @@
         <v>1.037309052546511</v>
       </c>
       <c r="K82">
-        <v>50.91564538281212</v>
+        <v>0.009156453828121136</v>
       </c>
       <c r="L82">
         <v>0.001822321015233172</v>
@@ -6928,13 +6928,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U82">
-        <v>0.9999717258538792</v>
+        <v>-2.827414612083246E-05</v>
       </c>
       <c r="V82">
-        <v>0.9998869353835718</v>
+        <v>-0.0001130646164282378</v>
       </c>
       <c r="W82">
-        <v>0.9991525423728814</v>
+        <v>-0.0008474576271185752</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6969,7 +6969,7 @@
         <v>1.121629195664978</v>
       </c>
       <c r="K83">
-        <v>52.86641030189198</v>
+        <v>0.02866410301891986</v>
       </c>
       <c r="L83">
         <v>0.002163475875878344</v>
@@ -6999,13 +6999,13 @@
         <v>-0.003124999999997158</v>
       </c>
       <c r="U83">
-        <v>1.000028274945571</v>
+        <v>2.827494557067212E-05</v>
       </c>
       <c r="V83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W83">
-        <v>1.000848176420695</v>
+        <v>0.0008481764206953457</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7040,7 +7040,7 @@
         <v>1.121629195664978</v>
       </c>
       <c r="K84">
-        <v>52.86641030189198</v>
+        <v>0.02866410301891986</v>
       </c>
       <c r="L84">
         <v>0.002553919950240346</v>
@@ -7070,13 +7070,13 @@
         <v>0.015625</v>
       </c>
       <c r="U84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7111,7 +7111,7 @@
         <v>0.9450399374332922</v>
       </c>
       <c r="K85">
-        <v>48.58717393126555</v>
+        <v>-0.01412826068734452</v>
       </c>
       <c r="L85">
         <v>0.002322320661438856</v>
@@ -7141,13 +7141,13 @@
         <v>0.02812499999999574</v>
       </c>
       <c r="U85">
-        <v>0.9999434517077584</v>
+        <v>-5.654829224155389E-05</v>
       </c>
       <c r="V85">
-        <v>0.9998869225985186</v>
+        <v>-0.0001130774014813651</v>
       </c>
       <c r="W85">
-        <v>0.9983050847457627</v>
+        <v>-0.001694915254237261</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7182,7 +7182,7 @@
         <v>1.110766213493144</v>
       </c>
       <c r="K86">
-        <v>52.6238389828553</v>
+        <v>0.02623838982855309</v>
       </c>
       <c r="L86">
         <v>0.002337902765308849</v>
@@ -7212,13 +7212,13 @@
         <v>0.02812499999999574</v>
       </c>
       <c r="U86">
-        <v>1.000113102980263</v>
+        <v>0.0001131029802634576</v>
       </c>
       <c r="V86">
-        <v>1.000169635284139</v>
+        <v>0.000169635284139158</v>
       </c>
       <c r="W86">
-        <v>1.00169779286927</v>
+        <v>0.001697792869270076</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7253,7 +7253,7 @@
         <v>1.197990569314113</v>
       </c>
       <c r="K87">
-        <v>54.50389942700928</v>
+        <v>0.04503899427009284</v>
       </c>
       <c r="L87">
         <v>0.002802547751406404</v>
@@ -7283,13 +7283,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U87">
-        <v>1.000113090189426</v>
+        <v>0.0001130901894261793</v>
       </c>
       <c r="V87">
-        <v>1.000226142017187</v>
+        <v>0.0002261420171867368</v>
       </c>
       <c r="W87">
-        <v>1.000847457627119</v>
+        <v>0.0008474576271186862</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7324,7 +7324,7 @@
         <v>1.289805680704619</v>
       </c>
       <c r="K88">
-        <v>56.32817193062949</v>
+        <v>0.06328171930629489</v>
       </c>
       <c r="L88">
         <v>0.003808215810713763</v>
@@ -7354,13 +7354,13 @@
         <v>0.01875000000000426</v>
       </c>
       <c r="U88">
-        <v>1.000169616102222</v>
+        <v>0.0001696161022219922</v>
       </c>
       <c r="V88">
-        <v>1.000113045444269</v>
+        <v>0.0001130454442686002</v>
       </c>
       <c r="W88">
-        <v>1.000846740050805</v>
+        <v>0.0008467400508045397</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7395,7 +7395,7 @@
         <v>1.176135173384042</v>
       </c>
       <c r="K89">
-        <v>54.04697225471843</v>
+        <v>0.04046972254718428</v>
       </c>
       <c r="L89">
         <v>0.004754783550810428</v>
@@ -7425,13 +7425,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U89">
-        <v>1.000056529112493</v>
+        <v>5.652911249298676E-05</v>
       </c>
       <c r="V89">
-        <v>1.00005651633322</v>
+        <v>5.651633322045768E-05</v>
       </c>
       <c r="W89">
-        <v>0.9991539763113366</v>
+        <v>-0.0008460236886633776</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7466,7 +7466,7 @@
         <v>0.9920697869716967</v>
       </c>
       <c r="K90">
-        <v>49.80095544141657</v>
+        <v>-0.001990445585834333</v>
       </c>
       <c r="L90">
         <v>0.00497024265737315</v>
@@ -7496,13 +7496,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U90">
-        <v>1.000056525917133</v>
+        <v>5.652591713301014E-05</v>
       </c>
       <c r="V90">
-        <v>0.999943486860695</v>
+        <v>-5.651313930499224E-05</v>
       </c>
       <c r="W90">
-        <v>0.9983065198983913</v>
+        <v>-0.001693480101608746</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7537,7 +7537,7 @@
         <v>1.074438311743942</v>
       </c>
       <c r="K91">
-        <v>51.79417993108127</v>
+        <v>0.01794179931081263</v>
       </c>
       <c r="L91">
         <v>0.00501979046350285</v>
@@ -7567,13 +7567,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V91">
-        <v>1.000169548999661</v>
+        <v>0.000169548999660929</v>
       </c>
       <c r="W91">
-        <v>1.000848176420695</v>
+        <v>0.0008481764206953457</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7608,7 +7608,7 @@
         <v>0.9887132081849637</v>
       </c>
       <c r="K92">
-        <v>49.716228771233</v>
+        <v>-0.002837712287669991</v>
       </c>
       <c r="L92">
         <v>0.004638619153869344</v>
@@ -7638,13 +7638,13 @@
         <v>0.01250000000000284</v>
       </c>
       <c r="U92">
-        <v>0.9999434772778656</v>
+        <v>-5.652272213441112E-05</v>
       </c>
       <c r="V92">
-        <v>1.000113013505114</v>
+        <v>0.0001130135051139458</v>
       </c>
       <c r="W92">
-        <v>0.9991525423728814</v>
+        <v>-0.0008474576271185752</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7679,7 +7679,7 @@
         <v>1.408639369270254</v>
       </c>
       <c r="K93">
-        <v>58.4827843986055</v>
+        <v>0.08482784398605503</v>
       </c>
       <c r="L93">
         <v>0.005547747740526352</v>
@@ -7709,13 +7709,13 @@
         <v>0.02812499999999574</v>
       </c>
       <c r="U93">
-        <v>1.000197840709966</v>
+        <v>0.0001978407099656465</v>
       </c>
       <c r="V93">
-        <v>1.00022600146901</v>
+        <v>0.0002260014690096401</v>
       </c>
       <c r="W93">
-        <v>1.004240882103478</v>
+        <v>0.004240882103477617</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7750,7 +7750,7 @@
         <v>1.58545038446405</v>
       </c>
       <c r="K94">
-        <v>61.32201932750318</v>
+        <v>0.1132201932750319</v>
       </c>
       <c r="L94">
         <v>0.007777691358974883</v>
@@ -7780,13 +7780,13 @@
         <v>0.046875</v>
       </c>
       <c r="U94">
-        <v>1.000254316312978</v>
+        <v>0.0002543163129784531</v>
       </c>
       <c r="V94">
-        <v>1.000338925605829</v>
+        <v>0.0003389256058294876</v>
       </c>
       <c r="W94">
-        <v>1.001689189189189</v>
+        <v>0.001689189189189033</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7821,7 +7821,7 @@
         <v>1.67850881351343</v>
       </c>
       <c r="K95">
-        <v>62.66579393150143</v>
+        <v>0.1266579393150142</v>
       </c>
       <c r="L95">
         <v>0.01094566223257615</v>
@@ -7851,13 +7851,13 @@
         <v>0.06249999999999289</v>
       </c>
       <c r="U95">
-        <v>1.000197751285383</v>
+        <v>0.0001977512853834629</v>
       </c>
       <c r="V95">
-        <v>1.000395279236546</v>
+        <v>0.0003952792365464752</v>
       </c>
       <c r="W95">
-        <v>1.000843170320405</v>
+        <v>0.000843170320404818</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7892,7 +7892,7 @@
         <v>1.776465054618027</v>
       </c>
       <c r="K96">
-        <v>63.98297906408999</v>
+        <v>0.1398297906408998</v>
       </c>
       <c r="L96">
         <v>0.01474813743797045</v>
@@ -7922,13 +7922,13 @@
         <v>0.07499999999999574</v>
       </c>
       <c r="U96">
-        <v>1.000225956785765</v>
+        <v>0.0002259567857645361</v>
       </c>
       <c r="V96">
-        <v>1.000451569202981</v>
+        <v>0.0004515692029805063</v>
       </c>
       <c r="W96">
-        <v>1.000842459983151</v>
+        <v>0.0008424599831506896</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7963,7 +7963,7 @@
         <v>1.610412473051613</v>
       </c>
       <c r="K97">
-        <v>61.69187780385585</v>
+        <v>0.1169187780385585</v>
       </c>
       <c r="L97">
         <v>0.01832930813870825</v>
@@ -7993,13 +7993,13 @@
         <v>0.09062499999999574</v>
       </c>
       <c r="U97">
-        <v>1.000169429305622</v>
+        <v>0.0001694293056222484</v>
       </c>
       <c r="V97">
-        <v>1.000451365380275</v>
+        <v>0.0004513653802753481</v>
       </c>
       <c r="W97">
-        <v>0.9991582491582492</v>
+        <v>-0.0008417508417507547</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8034,7 +8034,7 @@
         <v>1.466152906359286</v>
       </c>
       <c r="K98">
-        <v>59.45101386773812</v>
+        <v>0.09451013867738123</v>
       </c>
       <c r="L98">
         <v>0.02117190999078884</v>
@@ -8064,13 +8064,13 @@
         <v>0.1124999999999972</v>
       </c>
       <c r="U98">
-        <v>1.000169400604195</v>
+        <v>0.0001694006041954577</v>
       </c>
       <c r="V98">
-        <v>1.000338371306113</v>
+        <v>0.0003383713061131388</v>
       </c>
       <c r="W98">
-        <v>0.9991575400168491</v>
+        <v>-0.0008424599831509116</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8105,7 +8105,7 @@
         <v>1.466152906359286</v>
       </c>
       <c r="K99">
-        <v>59.45101386773812</v>
+        <v>0.09451013867738123</v>
       </c>
       <c r="L99">
         <v>0.0233081592662064</v>
@@ -8135,13 +8135,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U99">
-        <v>1.000169371912491</v>
+        <v>0.0001693719124911119</v>
       </c>
       <c r="V99">
-        <v>1.000338256849701</v>
+        <v>0.000338256849701235</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8176,7 +8176,7 @@
         <v>1.466152906359286</v>
       </c>
       <c r="K100">
-        <v>59.45101386773812</v>
+        <v>0.09451013867738123</v>
       </c>
       <c r="L100">
         <v>0.02479494199337751</v>
@@ -8206,13 +8206,13 @@
         <v>0.15625</v>
       </c>
       <c r="U100">
-        <v>1.000169343230504</v>
+        <v>0.0001693432305043263</v>
       </c>
       <c r="V100">
-        <v>1.000450856627592</v>
+        <v>0.0004508566275924775</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8247,7 +8247,7 @@
         <v>1.034014193937428</v>
       </c>
       <c r="K101">
-        <v>50.83613462577622</v>
+        <v>0.008361346257762303</v>
       </c>
       <c r="L101">
         <v>0.02446935523626319</v>
@@ -8277,13 +8277,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U101">
-        <v>1.000141095465192</v>
+        <v>0.0001410954651919205</v>
       </c>
       <c r="V101">
-        <v>1.000112663361875</v>
+        <v>0.0001126633618746542</v>
       </c>
       <c r="W101">
-        <v>0.9966273187183812</v>
+        <v>-0.003372681281618828</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8318,7 +8318,7 @@
         <v>1.034014193937428</v>
       </c>
       <c r="K102">
-        <v>50.83613462577622</v>
+        <v>0.008361346257762303</v>
       </c>
       <c r="L102">
         <v>0.0229782235558467</v>
@@ -8348,13 +8348,13 @@
         <v>0.1000000000000014</v>
       </c>
       <c r="U102">
-        <v>1.00014107556007</v>
+        <v>0.0001410755600699254</v>
       </c>
       <c r="V102">
-        <v>1.000056325335136</v>
+        <v>5.63253351357762E-05</v>
       </c>
       <c r="W102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8389,7 +8389,7 @@
         <v>1.034014193937428</v>
       </c>
       <c r="K103">
-        <v>50.83613462577622</v>
+        <v>0.008361346257762303</v>
       </c>
       <c r="L103">
         <v>0.02079300509835404</v>
@@ -8419,13 +8419,13 @@
         <v>0.06562500000000426</v>
       </c>
       <c r="U103">
-        <v>1.000056422264226</v>
+        <v>5.642226422564178E-05</v>
       </c>
       <c r="V103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8460,7 +8460,7 @@
         <v>1.034014193937428</v>
       </c>
       <c r="K104">
-        <v>50.83613462577622</v>
+        <v>0.008361346257762303</v>
       </c>
       <c r="L104">
         <v>0.01825133806266612</v>
@@ -8490,13 +8490,13 @@
         <v>0.02812499999999574</v>
       </c>
       <c r="U104">
-        <v>1.000056419080933</v>
+        <v>5.641908093312331E-05</v>
       </c>
       <c r="V104">
-        <v>1.000056322162771</v>
+        <v>5.632216277096092E-05</v>
       </c>
       <c r="W104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8531,7 +8531,7 @@
         <v>0.8755903774842975</v>
       </c>
       <c r="K105">
-        <v>46.68345434031893</v>
+        <v>-0.03316545659681069</v>
       </c>
       <c r="L105">
         <v>0.01497337730313577</v>
@@ -8561,13 +8561,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V105">
-        <v>1.000056318990764</v>
+        <v>5.631899076385949E-05</v>
       </c>
       <c r="W105">
-        <v>0.9983079526226734</v>
+        <v>-0.001692047377326644</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8602,7 +8602,7 @@
         <v>0.8755903774842975</v>
       </c>
       <c r="K106">
-        <v>46.68345434031893</v>
+        <v>-0.03316545659681069</v>
       </c>
       <c r="L106">
         <v>0.0114042390891757</v>
@@ -8632,13 +8632,13 @@
         <v>-0.05312500000000142</v>
       </c>
       <c r="U106">
-        <v>1.000084623847</v>
+        <v>8.462384700003156E-05</v>
       </c>
       <c r="V106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8673,7 +8673,7 @@
         <v>0.8755903774842976</v>
       </c>
       <c r="K107">
-        <v>46.68345434031893</v>
+        <v>-0.03316545659681069</v>
       </c>
       <c r="L107">
         <v>0.007844856067507665</v>
@@ -8703,13 +8703,13 @@
         <v>-0.09062500000000284</v>
       </c>
       <c r="U107">
-        <v>1.000084616686411</v>
+        <v>8.461668641057685E-05</v>
       </c>
       <c r="V107">
-        <v>1.000056315819114</v>
+        <v>5.631581911358374E-05</v>
       </c>
       <c r="W107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8744,7 +8744,7 @@
         <v>1.143639514972348</v>
       </c>
       <c r="K108">
-        <v>53.35036544085634</v>
+        <v>0.0335036544085634</v>
       </c>
       <c r="L108">
         <v>0.00541366531093177</v>
@@ -8774,13 +8774,13 @@
         <v>-0.1218749999999957</v>
       </c>
       <c r="U108">
-        <v>1.000084609527033</v>
+        <v>8.460952703281954E-05</v>
       </c>
       <c r="V108">
-        <v>0.9999436873521791</v>
+        <v>-5.631264782091083E-05</v>
       </c>
       <c r="W108">
-        <v>1.002542372881356</v>
+        <v>0.002542372881355837</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8815,7 +8815,7 @@
         <v>0.8919652793846251</v>
       </c>
       <c r="K109">
-        <v>47.14490742001053</v>
+        <v>-0.02855092579989466</v>
       </c>
       <c r="L109">
         <v>0.002877025826513895</v>
@@ -8845,13 +8845,13 @@
         <v>-0.1218749999999886</v>
       </c>
       <c r="U109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V109">
-        <v>0.9996621050853185</v>
+        <v>-0.0003378949146815025</v>
       </c>
       <c r="W109">
-        <v>0.9974640743871513</v>
+        <v>-0.002535925612848655</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8886,7 +8886,7 @@
         <v>0.8919652793846253</v>
       </c>
       <c r="K110">
-        <v>47.14490742001054</v>
+        <v>-0.0285509257998946</v>
       </c>
       <c r="L110">
         <v>0.0004276566020599375</v>
@@ -8916,13 +8916,13 @@
         <v>-0.1156249999999943</v>
       </c>
       <c r="U110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V110">
-        <v>0.9996056560193792</v>
+        <v>-0.0003943439806207705</v>
       </c>
       <c r="W110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8957,7 +8957,7 @@
         <v>0.8919652793846253</v>
       </c>
       <c r="K111">
-        <v>47.14490742001054</v>
+        <v>-0.0285509257998946</v>
       </c>
       <c r="L111">
         <v>-0.001814403814076177</v>
@@ -8987,13 +8987,13 @@
         <v>-0.1062499999999957</v>
       </c>
       <c r="U111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V111">
-        <v>0.9995491433724076</v>
+        <v>-0.0004508566275923664</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9028,7 +9028,7 @@
         <v>0.8919652793846254</v>
       </c>
       <c r="K112">
-        <v>47.14490742001055</v>
+        <v>-0.02855092579989454</v>
       </c>
       <c r="L112">
         <v>-0.003781515178886707</v>
@@ -9058,13 +9058,13 @@
         <v>-0.09374999999999289</v>
       </c>
       <c r="U112">
-        <v>1.000028200789622</v>
+        <v>2.82007896221792E-05</v>
       </c>
       <c r="V112">
-        <v>0.9996053225078936</v>
+        <v>-0.0003946774921064211</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9099,7 +9099,7 @@
         <v>0.8182714182826089</v>
       </c>
       <c r="K113">
-        <v>45.00271026948668</v>
+        <v>-0.04997289730513316</v>
       </c>
       <c r="L113">
         <v>-0.005751051244692371</v>
@@ -9129,13 +9129,13 @@
         <v>-0.07499999999999574</v>
       </c>
       <c r="U113">
-        <v>0.9999718000056399</v>
+        <v>-2.819999436010079E-05</v>
       </c>
       <c r="V113">
-        <v>0.9996051666760676</v>
+        <v>-0.0003948333239324198</v>
       </c>
       <c r="W113">
-        <v>0.9991525423728814</v>
+        <v>-0.0008474576271185752</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9170,7 +9170,7 @@
         <v>0.9052394731648143</v>
       </c>
       <c r="K114">
-        <v>47.51315967966541</v>
+        <v>-0.02486840320334588</v>
       </c>
       <c r="L114">
         <v>-0.007267796869897311</v>
@@ -9200,13 +9200,13 @@
         <v>-0.05624999999999858</v>
       </c>
       <c r="U114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V114">
-        <v>0.9996614377609749</v>
+        <v>-0.0003385622390250642</v>
       </c>
       <c r="W114">
-        <v>1.000848176420695</v>
+        <v>0.0008481764206953457</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9241,7 +9241,7 @@
         <v>0.9967847940934518</v>
       </c>
       <c r="K115">
-        <v>49.9194904249056</v>
+        <v>-0.0008050957509439516</v>
       </c>
       <c r="L115">
         <v>-0.008079206228434634</v>
@@ -9271,13 +9271,13 @@
         <v>-0.03437499999999005</v>
       </c>
       <c r="U115">
-        <v>1.000084602368866</v>
+        <v>8.460236886631556E-05</v>
       </c>
       <c r="V115">
-        <v>0.9997177692481373</v>
+        <v>-0.0002822307518627332</v>
       </c>
       <c r="W115">
-        <v>1.000847457627119</v>
+        <v>0.0008474576271186862</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9312,7 +9312,7 @@
         <v>1.285875281236545</v>
       </c>
       <c r="K116">
-        <v>56.25308133788253</v>
+        <v>0.06253081337882538</v>
       </c>
       <c r="L116">
         <v>-0.007458026059691164</v>
@@ -9342,13 +9342,13 @@
         <v>-0.02187500000000142</v>
       </c>
       <c r="U116">
-        <v>1.000112793615881</v>
+        <v>0.0001127936158813458</v>
       </c>
       <c r="V116">
-        <v>1.000112924171419</v>
+        <v>0.0001129241714188378</v>
       </c>
       <c r="W116">
-        <v>1.002540220152413</v>
+        <v>0.002540220152413397</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9383,7 +9383,7 @@
         <v>0.6077524663950741</v>
       </c>
       <c r="K117">
-        <v>37.80137049068166</v>
+        <v>-0.1219862950931834</v>
       </c>
       <c r="L117">
         <v>-0.009369894366156477</v>
@@ -9413,13 +9413,13 @@
         <v>-0.03750000000000142</v>
       </c>
       <c r="U117">
-        <v>0.9997744382101673</v>
+        <v>-0.0002255617898326845</v>
       </c>
       <c r="V117">
-        <v>0.9994918986055439</v>
+        <v>-0.0005081013944561175</v>
       </c>
       <c r="W117">
-        <v>0.9907094594594594</v>
+        <v>-0.009290540540540571</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9454,7 +9454,7 @@
         <v>0.7086831497022857</v>
       </c>
       <c r="K118">
-        <v>41.47539874936813</v>
+        <v>-0.08524601250631869</v>
       </c>
       <c r="L118">
         <v>-0.01204494872798692</v>
@@ -9484,13 +9484,13 @@
         <v>-0.04687500000000711</v>
       </c>
       <c r="U118">
-        <v>0.9998025889054964</v>
+        <v>-0.0001974110945035523</v>
       </c>
       <c r="V118">
-        <v>0.9996046091278808</v>
+        <v>-0.0003953908721191501</v>
       </c>
       <c r="W118">
-        <v>1.001705029838022</v>
+        <v>0.001705029838022121</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9525,7 +9525,7 @@
         <v>0.814925974236193</v>
       </c>
       <c r="K119">
-        <v>44.90133403810877</v>
+        <v>-0.0509866596189123</v>
       </c>
       <c r="L119">
         <v>-0.01435243792796327</v>
@@ -9555,13 +9555,13 @@
         <v>-0.05000000000000426</v>
       </c>
       <c r="U119">
-        <v>0.9998871713866636</v>
+        <v>-0.0001128286133363909</v>
       </c>
       <c r="V119">
-        <v>0.9997174662372154</v>
+        <v>-0.0002825337627846425</v>
       </c>
       <c r="W119">
-        <v>1.001702127659575</v>
+        <v>0.001702127659574559</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9596,7 +9596,7 @@
         <v>0.8708432503066662</v>
       </c>
       <c r="K120">
-        <v>46.54816752627024</v>
+        <v>-0.0345183247372976</v>
       </c>
       <c r="L120">
         <v>-0.0159301905180803</v>
@@ -9626,13 +9626,13 @@
         <v>-0.05000000000000426</v>
       </c>
       <c r="U120">
-        <v>0.9999717896637328</v>
+        <v>-2.821033626720926E-05</v>
       </c>
       <c r="V120">
-        <v>0.9998869545557314</v>
+        <v>-0.0001130454442686002</v>
       </c>
       <c r="W120">
-        <v>1.000849617672048</v>
+        <v>0.000849617672047609</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9667,7 +9667,7 @@
         <v>1.047424122108169</v>
       </c>
       <c r="K121">
-        <v>51.15814113929991</v>
+        <v>0.01158141139299906</v>
       </c>
       <c r="L121">
         <v>-0.01598280104547734</v>
@@ -9697,13 +9697,13 @@
         <v>-0.04062499999999858</v>
       </c>
       <c r="U121">
-        <v>1.000028211132113</v>
+        <v>2.821113211259885E-05</v>
       </c>
       <c r="V121">
-        <v>1.000056529112493</v>
+        <v>5.652911249298676E-05</v>
       </c>
       <c r="W121">
-        <v>1.002546689303905</v>
+        <v>0.002546689303905003</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9738,7 +9738,7 @@
         <v>1.04742412210817</v>
       </c>
       <c r="K122">
-        <v>51.15814113929991</v>
+        <v>0.01158141139299917</v>
       </c>
       <c r="L122">
         <v>-0.01504947685197518</v>
@@ -9768,13 +9768,13 @@
         <v>-0.03750000000000142</v>
       </c>
       <c r="U122">
-        <v>1.000056420672534</v>
+        <v>5.642067253441851E-05</v>
       </c>
       <c r="V122">
-        <v>1.000056525917133</v>
+        <v>5.652591713301014E-05</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9809,7 +9809,7 @@
         <v>1.243081597788515</v>
       </c>
       <c r="K123">
-        <v>55.41847425497522</v>
+        <v>0.05418474254975214</v>
       </c>
       <c r="L123">
         <v>-0.01259816624469328</v>
@@ -9839,13 +9839,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V123">
-        <v>1.000056522722134</v>
+        <v>5.65227221343001E-05</v>
       </c>
       <c r="W123">
-        <v>1.002540220152413</v>
+        <v>0.002540220152413397</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9880,7 +9880,7 @@
         <v>1.093007809133152</v>
       </c>
       <c r="K124">
-        <v>52.22186961575819</v>
+        <v>0.02221869615758199</v>
       </c>
       <c r="L124">
         <v>-0.00995360106799127</v>
@@ -9910,13 +9910,13 @@
         <v>-0.04062499999999858</v>
       </c>
       <c r="U124">
-        <v>0.9998871650211567</v>
+        <v>-0.0001128349788432903</v>
       </c>
       <c r="V124">
-        <v>1.000113039054993</v>
+        <v>0.0001130390549934912</v>
       </c>
       <c r="W124">
-        <v>0.9983108108108107</v>
+        <v>-0.001689189189189255</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9951,7 +9951,7 @@
         <v>0.969768393710535</v>
       </c>
       <c r="K125">
-        <v>49.23261012853099</v>
+        <v>-0.007673898714690153</v>
       </c>
       <c r="L125">
         <v>-0.007940868939140019</v>
@@ -9981,13 +9981,13 @@
         <v>0.003125000000004263</v>
       </c>
       <c r="U125">
-        <v>0.9998025165039778</v>
+        <v>-0.0001974834960222216</v>
       </c>
       <c r="V125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W125">
-        <v>0.9983079526226734</v>
+        <v>-0.001692047377326644</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10022,7 +10022,7 @@
         <v>0.8668809835284071</v>
       </c>
       <c r="K126">
-        <v>46.43472139771873</v>
+        <v>-0.03565278602281269</v>
       </c>
       <c r="L126">
         <v>-0.007027206547202179</v>
@@ -10052,13 +10052,13 @@
         <v>0.02812499999999574</v>
       </c>
       <c r="U126">
-        <v>0.9997178249950618</v>
+        <v>-0.0002821750049382121</v>
       </c>
       <c r="V126">
-        <v>0.9998869737213903</v>
+        <v>-0.0001130262786096514</v>
       </c>
       <c r="W126">
-        <v>0.9983050847457627</v>
+        <v>-0.001694915254237261</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10093,7 +10093,7 @@
         <v>0.9785597490318186</v>
       </c>
       <c r="K127">
-        <v>49.45818540535172</v>
+        <v>-0.005418145946482822</v>
       </c>
       <c r="L127">
         <v>-0.006195338581218293</v>
@@ -10123,13 +10123,13 @@
         <v>0.04687499999999289</v>
       </c>
       <c r="U127">
-        <v>0.9998024217448982</v>
+        <v>-0.0001975782551018046</v>
       </c>
       <c r="V127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W127">
-        <v>1.00169779286927</v>
+        <v>0.001697792869270076</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10164,7 +10164,7 @@
         <v>1.037338046665189</v>
       </c>
       <c r="K128">
-        <v>50.91634392059545</v>
+        <v>0.009163439205954527</v>
       </c>
       <c r="L128">
         <v>-0.005135007778631588</v>
@@ -10194,13 +10194,13 @@
         <v>0.0625</v>
       </c>
       <c r="U128">
-        <v>0.9998588447857264</v>
+        <v>-0.0001411552142736028</v>
       </c>
       <c r="V128">
-        <v>1.000113039054993</v>
+        <v>0.0001130390549934912</v>
       </c>
       <c r="W128">
-        <v>1.000847457627119</v>
+        <v>0.0008474576271186862</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10235,7 +10235,7 @@
         <v>1.099209938910851</v>
       </c>
       <c r="K129">
-        <v>52.36303042091933</v>
+        <v>0.02363030420919332</v>
       </c>
       <c r="L129">
         <v>-0.003676602241138767</v>
@@ -10265,13 +10265,13 @@
         <v>0.05937499999999574</v>
       </c>
       <c r="U129">
-        <v>0.9998870598864953</v>
+        <v>-0.0001129401135047114</v>
       </c>
       <c r="V129">
-        <v>1.00011302627861</v>
+        <v>0.0001130262786097624</v>
       </c>
       <c r="W129">
-        <v>1.000846740050805</v>
+        <v>0.0008467400508045397</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10306,7 +10306,7 @@
         <v>1.164338246537854</v>
       </c>
       <c r="K130">
-        <v>53.79650100442329</v>
+        <v>0.03796501004423292</v>
       </c>
       <c r="L130">
         <v>-0.001748023832729973</v>
@@ -10336,13 +10336,13 @@
         <v>0.0625</v>
       </c>
       <c r="U130">
-        <v>0.9999152853471889</v>
+        <v>-8.471465281112422E-05</v>
       </c>
       <c r="V130">
-        <v>1.000113013505114</v>
+        <v>0.0001130135051139458</v>
       </c>
       <c r="W130">
-        <v>1.000846023688663</v>
+        <v>0.0008460236886631556</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10377,7 +10377,7 @@
         <v>1.232894359829446</v>
       </c>
       <c r="K131">
-        <v>55.21507788320167</v>
+        <v>0.05215077883201669</v>
       </c>
       <c r="L131">
         <v>0.0006573850564663524</v>
@@ -10407,13 +10407,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U131">
-        <v>1.000056481219994</v>
+        <v>5.648121999435318E-05</v>
       </c>
       <c r="V131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W131">
-        <v>1.000845308537616</v>
+        <v>0.0008453085376163294</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10448,7 +10448,7 @@
         <v>1.149911749145497</v>
       </c>
       <c r="K132">
-        <v>53.48646285609353</v>
+        <v>0.03486462856093531</v>
       </c>
       <c r="L132">
         <v>0.002887426548479474</v>
@@ -10478,13 +10478,13 @@
         <v>0.06249999999999289</v>
       </c>
       <c r="U132">
-        <v>1.000028239015023</v>
+        <v>2.823901502324588E-05</v>
       </c>
       <c r="V132">
-        <v>1.000565003672524</v>
+        <v>0.0005650036725237673</v>
       </c>
       <c r="W132">
-        <v>0.9991554054054054</v>
+        <v>-0.0008445945945946276</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10519,7 +10519,7 @@
         <v>1.149911749145497</v>
       </c>
       <c r="K133">
-        <v>53.48646285609353</v>
+        <v>0.03486462856093531</v>
       </c>
       <c r="L133">
         <v>0.004858463755289396</v>
@@ -10549,13 +10549,13 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="U133">
-        <v>1.000028238217604</v>
+        <v>2.823821760356005E-05</v>
       </c>
       <c r="V133">
-        <v>1.00045174769891</v>
+        <v>0.0004517476989100988</v>
       </c>
       <c r="W133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10590,7 +10590,7 @@
         <v>1.224490313261296</v>
       </c>
       <c r="K134">
-        <v>55.04588201447758</v>
+        <v>0.05045882014477587</v>
       </c>
       <c r="L134">
         <v>0.006837614366760541</v>
@@ -10620,13 +10620,13 @@
         <v>0.05937500000000284</v>
       </c>
       <c r="U134">
-        <v>1.000056474840459</v>
+        <v>5.647484045856466E-05</v>
       </c>
       <c r="V134">
-        <v>1.000395100750691</v>
+        <v>0.0003951007506914905</v>
       </c>
       <c r="W134">
-        <v>1.000845308537616</v>
+        <v>0.0008453085376163294</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10661,7 +10661,7 @@
         <v>1.135360272349752</v>
       </c>
       <c r="K135">
-        <v>53.16949495835663</v>
+        <v>0.03169494958356633</v>
       </c>
       <c r="L135">
         <v>0.008361994688400765</v>
@@ -10691,13 +10691,13 @@
         <v>0.05937499999999574</v>
       </c>
       <c r="U135">
-        <v>1.000084707476847</v>
+        <v>8.470747684663493E-05</v>
       </c>
       <c r="V135">
-        <v>1.000282103362672</v>
+        <v>0.0002821033626720926</v>
       </c>
       <c r="W135">
-        <v>0.9991554054054054</v>
+        <v>-0.0008445945945946276</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10732,7 +10732,7 @@
         <v>1.135360272349752</v>
       </c>
       <c r="K136">
-        <v>53.16949495835663</v>
+        <v>0.03169494958356633</v>
       </c>
       <c r="L136">
         <v>0.009483142972365341</v>
@@ -10762,13 +10762,13 @@
         <v>0.05624999999999858</v>
       </c>
       <c r="U136">
-        <v>1.000084700302098</v>
+        <v>8.470030209761781E-05</v>
       </c>
       <c r="V136">
-        <v>1.000112809521124</v>
+        <v>0.0001128095211235802</v>
       </c>
       <c r="W136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10803,7 +10803,7 @@
         <v>1.135360272349752</v>
       </c>
       <c r="K137">
-        <v>53.16949495835663</v>
+        <v>0.03169494958356633</v>
       </c>
       <c r="L137">
         <v>0.01025392810382846</v>
@@ -10833,13 +10833,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U137">
-        <v>1.000084693128564</v>
+        <v>8.469312856429489E-05</v>
       </c>
       <c r="V137">
-        <v>1.000112796796571</v>
+        <v>0.0001127967965708354</v>
       </c>
       <c r="W137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10874,7 +10874,7 @@
         <v>1.135360272349752</v>
       </c>
       <c r="K138">
-        <v>53.16949495835663</v>
+        <v>0.03169494958356633</v>
       </c>
       <c r="L138">
         <v>0.0107259269387707</v>
@@ -10904,13 +10904,13 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="U138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V138">
-        <v>0.9999436079625558</v>
+        <v>-5.63920374442306E-05</v>
       </c>
       <c r="W138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10945,7 +10945,7 @@
         <v>1.135360272349752</v>
       </c>
       <c r="K139">
-        <v>53.16949495835663</v>
+        <v>0.03169494958356633</v>
       </c>
       <c r="L139">
         <v>0.01094772946253929</v>
@@ -10975,13 +10975,13 @@
         <v>0.04687500000000711</v>
       </c>
       <c r="U139">
-        <v>1.000084685956246</v>
+        <v>8.468595624555597E-05</v>
       </c>
       <c r="V139">
-        <v>1.000056395217686</v>
+        <v>5.639521768552314E-05</v>
       </c>
       <c r="W139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11016,7 +11016,7 @@
         <v>1.037740150453794</v>
       </c>
       <c r="K140">
-        <v>50.92602951473938</v>
+        <v>0.009260295147393793</v>
       </c>
       <c r="L140">
         <v>0.01065563086457928</v>
@@ -11046,13 +11046,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U140">
-        <v>1.000056452523428</v>
+        <v>5.645252342789675E-05</v>
       </c>
       <c r="V140">
-        <v>1.000112784074889</v>
+        <v>0.0001127840748886833</v>
       </c>
       <c r="W140">
-        <v>0.9991546914623838</v>
+        <v>-0.0008453085376162184</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11087,7 +11087,7 @@
         <v>0.8786857696260262</v>
       </c>
       <c r="K141">
-        <v>46.77130065242036</v>
+        <v>-0.03228699347579633</v>
       </c>
       <c r="L141">
         <v>0.009415583321780224</v>
@@ -11117,13 +11117,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V141">
-        <v>1.000112771356075</v>
+        <v>0.0001127713560753474</v>
       </c>
       <c r="W141">
-        <v>0.9983079526226734</v>
+        <v>-0.001692047377326644</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11158,7 +11158,7 @@
         <v>0.8786857696260261</v>
       </c>
       <c r="K142">
-        <v>46.77130065242036</v>
+        <v>-0.03228699347579644</v>
       </c>
       <c r="L142">
         <v>0.007646264192857938</v>
@@ -11188,13 +11188,13 @@
         <v>-0.009374999999991473</v>
       </c>
       <c r="U142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11229,7 +11229,7 @@
         <v>0.8786857696260262</v>
       </c>
       <c r="K143">
-        <v>46.77130065242036</v>
+        <v>-0.03228699347579633</v>
       </c>
       <c r="L143">
         <v>0.005641379905950307</v>
@@ -11259,13 +11259,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U143">
-        <v>1.00002822466836</v>
+        <v>2.822466836027715E-05</v>
       </c>
       <c r="V143">
-        <v>0.9999436206799347</v>
+        <v>-5.637932006530288E-05</v>
       </c>
       <c r="W143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11300,7 +11300,7 @@
         <v>0.8786857696260262</v>
       </c>
       <c r="K144">
-        <v>46.77130065242036</v>
+        <v>-0.03228699347579633</v>
       </c>
       <c r="L144">
         <v>0.003601079161592657</v>
@@ -11330,13 +11330,13 @@
         <v>-0.04375000000000284</v>
       </c>
       <c r="U144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V144">
-        <v>0.9998872350022553</v>
+        <v>-0.0001127649977447076</v>
       </c>
       <c r="W144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11371,7 +11371,7 @@
         <v>0.8786857696260262</v>
       </c>
       <c r="K145">
-        <v>46.77130065242036</v>
+        <v>-0.03228699347579633</v>
       </c>
       <c r="L145">
         <v>0.00165623253901826</v>
@@ -11401,13 +11401,13 @@
         <v>-0.05624999999999858</v>
       </c>
       <c r="U145">
-        <v>0.9999717761282492</v>
+        <v>-2.822387175083207E-05</v>
       </c>
       <c r="V145">
-        <v>0.9998308334273148</v>
+        <v>-0.0001691665726851754</v>
       </c>
       <c r="W145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11442,7 +11442,7 @@
         <v>0.8786857696260262</v>
       </c>
       <c r="K146">
-        <v>46.77130065242036</v>
+        <v>-0.03228699347579633</v>
       </c>
       <c r="L146">
         <v>-0.0001129198635061562</v>
@@ -11472,13 +11472,13 @@
         <v>-0.06562499999999716</v>
       </c>
       <c r="U146">
-        <v>0.9998871013265596</v>
+        <v>-0.0001128986734404425</v>
       </c>
       <c r="V146">
-        <v>0.999774406406858</v>
+        <v>-0.0002255935931420039</v>
       </c>
       <c r="W146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11513,7 +11513,7 @@
         <v>1.295694722696344</v>
       </c>
       <c r="K147">
-        <v>56.44020129882609</v>
+        <v>0.06440201298826087</v>
       </c>
       <c r="L147">
         <v>-0.0004298377737279579</v>
@@ -11543,13 +11543,13 @@
         <v>-0.05937499999999574</v>
       </c>
       <c r="U147">
-        <v>1.000310506407723</v>
+        <v>0.0003105064077228992</v>
       </c>
       <c r="V147">
-        <v>1.000056411124274</v>
+        <v>5.641112427379191E-05</v>
       </c>
       <c r="W147">
-        <v>1.003389830508475</v>
+        <v>0.003389830508474523</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11584,7 +11584,7 @@
         <v>1.06249911976423</v>
       </c>
       <c r="K148">
-        <v>51.51513082273157</v>
+        <v>0.0151513082273157</v>
       </c>
       <c r="L148">
         <v>-0.0004615633875656404</v>
@@ -11614,13 +11614,13 @@
         <v>-0.05624999999999858</v>
       </c>
       <c r="U148">
-        <v>1.000197533651269</v>
+        <v>0.0001975336512687331</v>
       </c>
       <c r="V148">
-        <v>0.9999435920577617</v>
+        <v>-5.640794223826795E-05</v>
       </c>
       <c r="W148">
-        <v>0.9983108108108107</v>
+        <v>-0.001689189189189255</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11655,7 +11655,7 @@
         <v>1.441398642033155</v>
       </c>
       <c r="K149">
-        <v>59.03987235909916</v>
+        <v>0.09039872359099155</v>
       </c>
       <c r="L149">
         <v>0.0009159080868440245</v>
@@ -11685,13 +11685,13 @@
         <v>-0.02812500000000284</v>
       </c>
       <c r="U149">
-        <v>1.000253921679269</v>
+        <v>0.0002539216792687427</v>
       </c>
       <c r="V149">
-        <v>1.000112822248547</v>
+        <v>0.0001128222485473618</v>
       </c>
       <c r="W149">
-        <v>1.003384094754653</v>
+        <v>0.003384094754653066</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11726,7 +11726,7 @@
         <v>1.441398642033155</v>
       </c>
       <c r="K150">
-        <v>59.03987235909916</v>
+        <v>0.09039872359099166</v>
       </c>
       <c r="L150">
         <v>0.003055970145273045</v>
@@ -11756,13 +11756,13 @@
         <v>0.003125000000004263</v>
       </c>
       <c r="U150">
-        <v>1.000225650861704</v>
+        <v>0.0002256508617042297</v>
       </c>
       <c r="V150">
-        <v>1.000169214281685</v>
+        <v>0.0001692142816851483</v>
       </c>
       <c r="W150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11797,7 +11797,7 @@
         <v>1.441398642033155</v>
       </c>
       <c r="K151">
-        <v>59.03987235909916</v>
+        <v>0.09039872359099155</v>
       </c>
       <c r="L151">
         <v>0.005510380874989298</v>
@@ -11827,13 +11827,13 @@
         <v>0.03125</v>
       </c>
       <c r="U151">
-        <v>1.0001409999718</v>
+        <v>0.0001409999718000599</v>
       </c>
       <c r="V151">
-        <v>1.000169185653057</v>
+        <v>0.0001691856530567915</v>
       </c>
       <c r="W151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11868,7 +11868,7 @@
         <v>1.662363518702604</v>
       </c>
       <c r="K152">
-        <v>62.43938917525019</v>
+        <v>0.1243938917525019</v>
       </c>
       <c r="L152">
         <v>0.00859480236743753</v>
@@ -11898,13 +11898,13 @@
         <v>0.06562500000000426</v>
       </c>
       <c r="U152">
-        <v>1.000197372131055</v>
+        <v>0.0001973721310550847</v>
       </c>
       <c r="V152">
-        <v>1.000281928390189</v>
+        <v>0.0002819283901889236</v>
       </c>
       <c r="W152">
-        <v>1.001686340640809</v>
+        <v>0.001686340640809414</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11939,7 +11939,7 @@
         <v>1.348670121736946</v>
       </c>
       <c r="K153">
-        <v>57.42271378406876</v>
+        <v>0.07422713784068757</v>
       </c>
       <c r="L153">
         <v>0.01121628512875887</v>
@@ -11969,13 +11969,13 @@
         <v>0.09375000000000711</v>
       </c>
       <c r="U153">
-        <v>1.000056380909424</v>
+        <v>5.63809094240586E-05</v>
       </c>
       <c r="V153">
-        <v>1.000169109357384</v>
+        <v>0.000169109357384345</v>
       </c>
       <c r="W153">
-        <v>0.9983164983164983</v>
+        <v>-0.001683501683501731</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12010,7 +12010,7 @@
         <v>1.348670121736946</v>
       </c>
       <c r="K154">
-        <v>57.42271378406877</v>
+        <v>0.07422713784068768</v>
       </c>
       <c r="L154">
         <v>0.01334903436071506</v>
@@ -12040,13 +12040,13 @@
         <v>0.1218749999999886</v>
       </c>
       <c r="U154">
-        <v>1.000112755461593</v>
+        <v>0.0001127554615925064</v>
       </c>
       <c r="V154">
-        <v>1.000169080764245</v>
+        <v>0.0001690807642451553</v>
       </c>
       <c r="W154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12081,7 +12081,7 @@
         <v>1.453214858014179</v>
       </c>
       <c r="K155">
-        <v>59.23716193332218</v>
+        <v>0.0923716193332218</v>
       </c>
       <c r="L155">
         <v>0.01530889765497901</v>
@@ -12111,13 +12111,13 @@
         <v>0.1281249999999901</v>
       </c>
       <c r="U155">
-        <v>1.000197299811156</v>
+        <v>0.0001972998111559043</v>
       </c>
       <c r="V155">
-        <v>1.000281753634622</v>
+        <v>0.0002817536346217953</v>
       </c>
       <c r="W155">
-        <v>1.000843170320405</v>
+        <v>0.000843170320404818</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12152,7 +12152,7 @@
         <v>1.453214858014179</v>
       </c>
       <c r="K156">
-        <v>59.23716193332218</v>
+        <v>0.0923716193332218</v>
       </c>
       <c r="L156">
         <v>0.01698294671254647</v>
@@ -12182,13 +12182,13 @@
         <v>0.1437500000000043</v>
       </c>
       <c r="U156">
-        <v>1.000253621146368</v>
+        <v>0.0002536211463675109</v>
       </c>
       <c r="V156">
-        <v>1.000394343980621</v>
+        <v>0.0003943439806208815</v>
       </c>
       <c r="W156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12223,7 +12223,7 @@
         <v>1.302351685195385</v>
       </c>
       <c r="K157">
-        <v>56.56614901927389</v>
+        <v>0.06566149019273892</v>
       </c>
       <c r="L157">
         <v>0.01800698322546589</v>
@@ -12253,13 +12253,13 @@
         <v>0.125</v>
       </c>
       <c r="U157">
-        <v>1.000169037892661</v>
+        <v>0.0001690378926608727</v>
       </c>
       <c r="V157">
-        <v>1.000337875886924</v>
+        <v>0.0003378758869243548</v>
       </c>
       <c r="W157">
-        <v>0.9991575400168491</v>
+        <v>-0.0008424599831509116</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12294,7 +12294,7 @@
         <v>1.630183469188265</v>
       </c>
       <c r="K158">
-        <v>61.97983860385895</v>
+        <v>0.1197983860385895</v>
       </c>
       <c r="L158">
         <v>0.01942994618009255</v>
@@ -12324,13 +12324,13 @@
         <v>0.1156250000000014</v>
       </c>
       <c r="U158">
-        <v>1.000225345764908</v>
+        <v>0.0002253457649079582</v>
       </c>
       <c r="V158">
-        <v>1.000506642648052</v>
+        <v>0.0005066426480522246</v>
       </c>
       <c r="W158">
-        <v>1.002529510961214</v>
+        <v>0.002529510961214232</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12365,7 +12365,7 @@
         <v>1.860240861463948</v>
       </c>
       <c r="K159">
-        <v>65.03790944766192</v>
+        <v>0.1503790944766191</v>
       </c>
       <c r="L159">
         <v>0.02154812538706517</v>
@@ -12395,13 +12395,13 @@
         <v>0.1124999999999972</v>
       </c>
       <c r="U159">
-        <v>1.000253456870089</v>
+        <v>0.0002534568700893747</v>
       </c>
       <c r="V159">
-        <v>1.000618916333765</v>
+        <v>0.0006189163337646519</v>
       </c>
       <c r="W159">
-        <v>1.001682085786375</v>
+        <v>0.001682085786375076</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12436,7 +12436,7 @@
         <v>1.253251747837663</v>
       </c>
       <c r="K160">
-        <v>55.61969491604071</v>
+        <v>0.05619694916040718</v>
       </c>
       <c r="L160">
         <v>0.02264185792299598</v>
@@ -12466,13 +12466,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U160">
-        <v>1.00011261895377</v>
+        <v>0.0001126189537701272</v>
       </c>
       <c r="V160">
-        <v>1.000393612235718</v>
+        <v>0.0003936122357175442</v>
       </c>
       <c r="W160">
-        <v>0.9966414777497902</v>
+        <v>-0.003358522250209828</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12507,7 +12507,7 @@
         <v>1.154148094483117</v>
       </c>
       <c r="K161">
-        <v>53.57793632847012</v>
+        <v>0.03577936328470122</v>
       </c>
       <c r="L161">
         <v>0.02265506424376303</v>
@@ -12537,13 +12537,13 @@
         <v>0.06562499999999716</v>
       </c>
       <c r="U161">
-        <v>1.000056303136085</v>
+        <v>5.630313608473436E-05</v>
       </c>
       <c r="V161">
-        <v>1.000337249170929</v>
+        <v>0.0003372491709292547</v>
       </c>
       <c r="W161">
-        <v>0.9991575400168491</v>
+        <v>-0.0008424599831509116</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12578,7 +12578,7 @@
         <v>1.320626434194244</v>
       </c>
       <c r="K162">
-        <v>56.90818714873362</v>
+        <v>0.06908187148733624</v>
       </c>
       <c r="L162">
         <v>0.02254585147549053</v>
@@ -12608,13 +12608,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U162">
-        <v>1.00014074991555</v>
+        <v>0.0001407499155501313</v>
       </c>
       <c r="V162">
-        <v>1.000224756981514</v>
+        <v>0.0002247569815136963</v>
       </c>
       <c r="W162">
-        <v>1.001686340640809</v>
+        <v>0.001686340640809414</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12649,7 +12649,7 @@
         <v>1.123707525583649</v>
       </c>
       <c r="K163">
-        <v>52.91253678045076</v>
+        <v>0.02912536780450758</v>
       </c>
       <c r="L163">
         <v>0.02167200662825411</v>
@@ -12679,13 +12679,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U163">
-        <v>1.00008443806468</v>
+        <v>8.443806467961501E-05</v>
       </c>
       <c r="V163">
-        <v>1.000224706477164</v>
+        <v>0.000224706477164327</v>
       </c>
       <c r="W163">
-        <v>0.9983164983164983</v>
+        <v>-0.001683501683501731</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12720,7 +12720,7 @@
         <v>1.280665660244821</v>
       </c>
       <c r="K164">
-        <v>56.1531522383402</v>
+        <v>0.06153152238340198</v>
       </c>
       <c r="L164">
         <v>0.02092699139357628</v>
@@ -12750,13 +12750,13 @@
         <v>0.02812499999999574</v>
       </c>
       <c r="U164">
-        <v>1.00011257458066</v>
+        <v>0.0001125745806596079</v>
       </c>
       <c r="V164">
-        <v>1.000112327997754</v>
+        <v>0.0001123279977535141</v>
       </c>
       <c r="W164">
-        <v>1.001686340640809</v>
+        <v>0.001686340640809414</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12791,7 +12791,7 @@
         <v>1.182943256580177</v>
       </c>
       <c r="K165">
-        <v>54.1902888686804</v>
+        <v>0.04190288868680403</v>
       </c>
       <c r="L165">
         <v>0.01992368510899352</v>
@@ -12821,13 +12821,13 @@
         <v>0.03125</v>
       </c>
       <c r="U165">
-        <v>1.00011256190905</v>
+        <v>0.0001125619090500685</v>
       </c>
       <c r="V165">
-        <v>1.000056157690796</v>
+        <v>5.615769079581057E-05</v>
       </c>
       <c r="W165">
-        <v>0.9991582491582492</v>
+        <v>-0.0008417508417507547</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12862,7 +12862,7 @@
         <v>1.182943256580177</v>
       </c>
       <c r="K166">
-        <v>54.1902888686804</v>
+        <v>0.04190288868680403</v>
       </c>
       <c r="L166">
         <v>0.01875536126599499</v>
@@ -12892,13 +12892,13 @@
         <v>0.015625</v>
       </c>
       <c r="U166">
-        <v>1.000112549240293</v>
+        <v>0.000112549240292692</v>
       </c>
       <c r="V166">
-        <v>1.000056154537286</v>
+        <v>5.6154537286357E-05</v>
       </c>
       <c r="W166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12933,7 +12933,7 @@
         <v>1.267492780325411</v>
       </c>
       <c r="K167">
-        <v>55.89842628489036</v>
+        <v>0.05898426284890368</v>
       </c>
       <c r="L167">
         <v>0.0178005945268632</v>
@@ -12963,13 +12963,13 @@
         <v>-0.009374999999991473</v>
       </c>
       <c r="U167">
-        <v>1.000140670717983</v>
+        <v>0.0001406707179834044</v>
       </c>
       <c r="V167">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W167">
-        <v>1.000842459983151</v>
+        <v>0.0008424599831506896</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13004,7 +13004,7 @@
         <v>1.075971017944579</v>
       </c>
       <c r="K168">
-        <v>51.82977067810413</v>
+        <v>0.01829770678104126</v>
       </c>
       <c r="L168">
         <v>0.01635658870085429</v>
@@ -13034,13 +13034,13 @@
         <v>-0.009374999999998579</v>
       </c>
       <c r="U168">
-        <v>1.000084390559509</v>
+        <v>8.439055950937302E-05</v>
       </c>
       <c r="V168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W168">
-        <v>0.9983164983164983</v>
+        <v>-0.001683501683501731</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13075,7 +13075,7 @@
         <v>0.9967052316442619</v>
       </c>
       <c r="K169">
-        <v>49.9174948734665</v>
+        <v>-0.0008250512653349973</v>
       </c>
       <c r="L169">
         <v>0.01434169922737635</v>
@@ -13105,13 +13105,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U169">
-        <v>1.000056255625563</v>
+        <v>5.625562556255126E-05</v>
       </c>
       <c r="V169">
-        <v>0.9999438486158683</v>
+        <v>-5.615138413173071E-05</v>
       </c>
       <c r="W169">
-        <v>0.9991568296795953</v>
+        <v>-0.000843170320404707</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13146,7 +13146,7 @@
         <v>1.306890797605709</v>
       </c>
       <c r="K170">
-        <v>56.65161085917519</v>
+        <v>0.06651610859175183</v>
       </c>
       <c r="L170">
         <v>0.01328609560881246</v>
@@ -13176,13 +13176,13 @@
         <v>-0.01562499999999289</v>
       </c>
       <c r="U170">
-        <v>1.000196883613658</v>
+        <v>0.0001968836136581054</v>
       </c>
       <c r="V170">
-        <v>1.000112309074573</v>
+        <v>0.0001123090745731581</v>
       </c>
       <c r="W170">
-        <v>1.00337552742616</v>
+        <v>0.00337552742616043</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13217,7 +13217,7 @@
         <v>1.123476939535022</v>
       </c>
       <c r="K171">
-        <v>52.9074236040929</v>
+        <v>0.02907423604092896</v>
       </c>
       <c r="L171">
         <v>0.01221597497890395</v>
@@ -13247,13 +13247,13 @@
         <v>-0.009374999999991473</v>
       </c>
       <c r="U171">
-        <v>1.000196844858131</v>
+        <v>0.0001968448581310955</v>
       </c>
       <c r="V171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W171">
-        <v>0.9983179142136249</v>
+        <v>-0.001682085786375076</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13288,7 +13288,7 @@
         <v>1.123476939535022</v>
       </c>
       <c r="K172">
-        <v>52.9074236040929</v>
+        <v>0.02907423604092896</v>
       </c>
       <c r="L172">
         <v>0.01116079641660569</v>
@@ -13318,13 +13318,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U172">
-        <v>1.000196806117859</v>
+        <v>0.0001968061178587721</v>
       </c>
       <c r="V172">
-        <v>1.000056148231331</v>
+        <v>5.614823133059943E-05</v>
       </c>
       <c r="W172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13359,7 +13359,7 @@
         <v>1.123476939535022</v>
       </c>
       <c r="K173">
-        <v>52.90742360409291</v>
+        <v>0.02907423604092907</v>
       </c>
       <c r="L173">
         <v>0.01014129026334282</v>
@@ -13389,13 +13389,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U173">
-        <v>1.000196767392832</v>
+        <v>0.0001967673928320313</v>
       </c>
       <c r="V173">
-        <v>0.9998877098422324</v>
+        <v>-0.0001122901577675917</v>
       </c>
       <c r="W173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13430,7 +13430,7 @@
         <v>1.123476939535022</v>
       </c>
       <c r="K174">
-        <v>52.9074236040929</v>
+        <v>0.02907423604092896</v>
       </c>
       <c r="L174">
         <v>0.009171449243473231</v>
@@ -13460,13 +13460,13 @@
         <v>-0.01250000000000995</v>
       </c>
       <c r="U174">
-        <v>1.000196728683042</v>
+        <v>0.0001967286830419912</v>
       </c>
       <c r="V174">
-        <v>0.9997753944634735</v>
+        <v>-0.0002246055365264787</v>
       </c>
       <c r="W174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13501,7 +13501,7 @@
         <v>0.9583484948807564</v>
       </c>
       <c r="K175">
-        <v>48.93656554928494</v>
+        <v>-0.01063434450715056</v>
       </c>
       <c r="L175">
         <v>0.007646138797313936</v>
@@ -13531,13 +13531,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U175">
-        <v>1.000140492848914</v>
+        <v>0.0001404928489141533</v>
       </c>
       <c r="V175">
-        <v>0.9998876720022466</v>
+        <v>-0.0001123279977534031</v>
       </c>
       <c r="W175">
-        <v>0.9983150800336984</v>
+        <v>-0.001684919966301601</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13572,7 +13572,7 @@
         <v>0.9583484948807562</v>
       </c>
       <c r="K176">
-        <v>48.93656554928494</v>
+        <v>-0.01063434450715056</v>
       </c>
       <c r="L176">
         <v>0.005853838712301356</v>
@@ -13602,13 +13602,13 @@
         <v>-0.01249999999999574</v>
       </c>
       <c r="U176">
-        <v>1.000140473113446</v>
+        <v>0.0001404731134460047</v>
       </c>
       <c r="V176">
-        <v>0.9999438296916251</v>
+        <v>-5.617030837490322E-05</v>
       </c>
       <c r="W176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13643,7 +13643,7 @@
         <v>0.9583484948807564</v>
       </c>
       <c r="K177">
-        <v>48.93656554928494</v>
+        <v>-0.01063434450715056</v>
       </c>
       <c r="L177">
         <v>0.003992772386491274</v>
@@ -13673,13 +13673,13 @@
         <v>-0.009374999999998579</v>
       </c>
       <c r="U177">
-        <v>1.000028090676705</v>
+        <v>2.809067670450638E-05</v>
       </c>
       <c r="V177">
-        <v>0.9998314796090327</v>
+        <v>-0.0001685203909672639</v>
       </c>
       <c r="W177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13714,7 +13714,7 @@
         <v>1.301208563378324</v>
       </c>
       <c r="K178">
-        <v>56.54457332055402</v>
+        <v>0.06544573320554015</v>
       </c>
       <c r="L178">
         <v>0.003421856565350993</v>
@@ -13744,13 +13744,13 @@
         <v>-0.01249999999999574</v>
       </c>
       <c r="U178">
-        <v>1.000196629213483</v>
+        <v>0.0001966292134831793</v>
       </c>
       <c r="V178">
-        <v>1.000168548794876</v>
+        <v>0.0001685487948761555</v>
       </c>
       <c r="W178">
-        <v>1.00337552742616</v>
+        <v>0.00337552742616043</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13785,7 +13785,7 @@
         <v>1.301208563378324</v>
       </c>
       <c r="K179">
-        <v>56.54457332055402</v>
+        <v>0.06544573320554015</v>
       </c>
       <c r="L179">
         <v>0.00365633626255983</v>
@@ -13815,13 +13815,13 @@
         <v>-0.009374999999998579</v>
       </c>
       <c r="U179">
-        <v>1.000084253096301</v>
+        <v>8.425309630122335E-05</v>
       </c>
       <c r="V179">
-        <v>1.000056173463656</v>
+        <v>5.617346365571763E-05</v>
       </c>
       <c r="W179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13856,7 +13856,7 @@
         <v>1.301208563378324</v>
       </c>
       <c r="K180">
-        <v>56.54457332055402</v>
+        <v>0.06544573320554015</v>
       </c>
       <c r="L180">
         <v>0.004350402957805151</v>
@@ -13886,13 +13886,13 @@
         <v>0</v>
       </c>
       <c r="U180">
-        <v>1.000084245998315</v>
+        <v>8.424599831502455E-05</v>
       </c>
       <c r="V180">
-        <v>1.00011234061675</v>
+        <v>0.0001123406167500285</v>
       </c>
       <c r="W180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13927,7 +13927,7 @@
         <v>1.182945076047109</v>
       </c>
       <c r="K181">
-        <v>54.19032705070132</v>
+        <v>0.04190327050701326</v>
       </c>
       <c r="L181">
         <v>0.00495584317022602</v>
@@ -13957,13 +13957,13 @@
         <v>0.003125000000004263</v>
       </c>
       <c r="U181">
-        <v>1.000056159267683</v>
+        <v>5.615926768309798E-05</v>
       </c>
       <c r="V181">
-        <v>1.000056163998877</v>
+        <v>5.616399887675705E-05</v>
       </c>
       <c r="W181">
-        <v>0.9991589571068124</v>
+        <v>-0.000841042893187649</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13998,7 +13998,7 @@
         <v>1.374287009853727</v>
       </c>
       <c r="K182">
-        <v>57.88209277775533</v>
+        <v>0.07882092777755334</v>
       </c>
       <c r="L182">
         <v>0.006064689895792645</v>
@@ -14028,13 +14028,13 @@
         <v>0.01249999999999574</v>
       </c>
       <c r="U182">
-        <v>1.000056156113997</v>
+        <v>5.615611399689691E-05</v>
       </c>
       <c r="V182">
-        <v>1.000112321689318</v>
+        <v>0.0001123216893181844</v>
       </c>
       <c r="W182">
-        <v>1.001683501683502</v>
+        <v>0.001683501683501731</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14069,7 +14069,7 @@
         <v>1.374287009853728</v>
       </c>
       <c r="K183">
-        <v>57.88209277775533</v>
+        <v>0.07882092777755334</v>
       </c>
       <c r="L183">
         <v>0.00738560492271822</v>
@@ -14099,13 +14099,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U183">
-        <v>1.00011230592133</v>
+        <v>0.000112305921329714</v>
       </c>
       <c r="V183">
-        <v>1.000224618149146</v>
+        <v>0.0002246181491463162</v>
       </c>
       <c r="W183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14140,7 +14140,7 @@
         <v>1.374287009853728</v>
       </c>
       <c r="K184">
-        <v>57.88209277775534</v>
+        <v>0.07882092777755334</v>
       </c>
       <c r="L184">
         <v>0.008723744857117776</v>
@@ -14170,13 +14170,13 @@
         <v>0.05624999999999858</v>
       </c>
       <c r="U184">
-        <v>1.000112293310126</v>
+        <v>0.000112293310126077</v>
       </c>
       <c r="V184">
-        <v>1.000280709633955</v>
+        <v>0.0002807096339545456</v>
       </c>
       <c r="W184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14211,7 +14211,7 @@
         <v>1.374287009853728</v>
       </c>
       <c r="K185">
-        <v>57.88209277775534</v>
+        <v>0.07882092777755334</v>
       </c>
       <c r="L185">
         <v>0.009955092384195117</v>
@@ -14241,13 +14241,13 @@
         <v>0.07187499999999858</v>
       </c>
       <c r="U185">
-        <v>1.000084210526316</v>
+        <v>8.421052631568671E-05</v>
       </c>
       <c r="V185">
-        <v>1.000056126171634</v>
+        <v>5.612617163386346E-05</v>
       </c>
       <c r="W185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14282,7 +14282,7 @@
         <v>1.374287009853728</v>
       </c>
       <c r="K186">
-        <v>57.88209277775534</v>
+        <v>0.07882092777755334</v>
       </c>
       <c r="L186">
         <v>0.01100684509753796</v>
@@ -14312,13 +14312,13 @@
         <v>0.07499999999999574</v>
       </c>
       <c r="U186">
-        <v>1.0000842034355</v>
+        <v>8.420343550019638E-05</v>
       </c>
       <c r="V186">
-        <v>1.000168369064991</v>
+        <v>0.0001683690649905145</v>
       </c>
       <c r="W186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14353,7 +14353,7 @@
         <v>1.497927903893331</v>
       </c>
       <c r="K187">
-        <v>59.96681896057225</v>
+        <v>0.09966818960572243</v>
       </c>
       <c r="L187">
         <v>0.01214928261916978</v>
@@ -14383,13 +14383,13 @@
         <v>0.07499999999999574</v>
       </c>
       <c r="U187">
-        <v>1.000140327243131</v>
+        <v>0.0001403272431310665</v>
       </c>
       <c r="V187">
-        <v>1.000224454295494</v>
+        <v>0.0002244542954938922</v>
       </c>
       <c r="W187">
-        <v>1.000840336134454</v>
+        <v>0.0008403361344537785</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14424,7 +14424,7 @@
         <v>1.325425956293886</v>
       </c>
       <c r="K188">
-        <v>56.99712573976187</v>
+        <v>0.06997125739761867</v>
       </c>
       <c r="L188">
         <v>0.0129226371308194</v>
@@ -14454,13 +14454,13 @@
         <v>0.07187499999999858</v>
       </c>
       <c r="U188">
-        <v>1.000028061510832</v>
+        <v>2.80615108316784E-05</v>
       </c>
       <c r="V188">
-        <v>1.000168302945301</v>
+        <v>0.0001683029453014573</v>
       </c>
       <c r="W188">
-        <v>0.9991603694374476</v>
+        <v>-0.0008396305625524292</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14495,7 +14495,7 @@
         <v>1.44664740961026</v>
       </c>
       <c r="K189">
-        <v>59.12774370054019</v>
+        <v>0.09127743700540192</v>
       </c>
       <c r="L189">
         <v>0.01368262684498532</v>
@@ -14525,13 +14525,13 @@
         <v>0.07812499999999289</v>
       </c>
       <c r="U189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V189">
-        <v>1.000224366165582</v>
+        <v>0.0002243661655823015</v>
       </c>
       <c r="W189">
-        <v>1.000840336134454</v>
+        <v>0.0008403361344537785</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14566,7 +14566,7 @@
         <v>1.574248939416988</v>
       </c>
       <c r="K190">
-        <v>61.15371809276229</v>
+        <v>0.1115371809276229</v>
       </c>
       <c r="L190">
         <v>0.01464267964279132</v>
@@ -14596,13 +14596,13 @@
         <v>0.07500000000000284</v>
       </c>
       <c r="U190">
-        <v>1.000140303617027</v>
+        <v>0.0001403036170271044</v>
       </c>
       <c r="V190">
-        <v>1.000392552714221</v>
+        <v>0.0003925527142214502</v>
       </c>
       <c r="W190">
-        <v>1.000839630562553</v>
+        <v>0.0008396305625526512</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14637,7 +14637,7 @@
         <v>1.387838130402775</v>
       </c>
       <c r="K191">
-        <v>58.12111435579921</v>
+        <v>0.08121114355799219</v>
       </c>
       <c r="L191">
         <v>0.01530250496461752</v>
@@ -14667,13 +14667,13 @@
         <v>0.0625</v>
       </c>
       <c r="U191">
-        <v>1.000140283934684</v>
+        <v>0.0001402839346837936</v>
       </c>
       <c r="V191">
-        <v>1.000336341723191</v>
+        <v>0.0003363417231907473</v>
       </c>
       <c r="W191">
-        <v>0.9991610738255032</v>
+        <v>-0.000838926174496768</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14708,7 +14708,7 @@
         <v>1.387838130402775</v>
       </c>
       <c r="K192">
-        <v>58.12111435579922</v>
+        <v>0.08121114355799219</v>
       </c>
       <c r="L192">
         <v>0.01568253433083491</v>
@@ -14738,13 +14738,13 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="U192">
-        <v>1.000084158554717</v>
+        <v>8.415855471710643E-05</v>
       </c>
       <c r="V192">
-        <v>1.000336228635472</v>
+        <v>0.0003362286354720023</v>
       </c>
       <c r="W192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14779,7 +14779,7 @@
         <v>1.226867012280878</v>
       </c>
       <c r="K193">
-        <v>55.09386081498663</v>
+        <v>0.05093860814986628</v>
       </c>
       <c r="L193">
         <v>0.01550513545211189</v>
@@ -14809,13 +14809,13 @@
         <v>0.03437499999999716</v>
       </c>
       <c r="U193">
-        <v>1.000112201963534</v>
+        <v>0.0001122019635344529</v>
       </c>
       <c r="V193">
-        <v>1.000056019270629</v>
+        <v>5.601927062914847E-05</v>
       </c>
       <c r="W193">
-        <v>0.9991603694374476</v>
+        <v>-0.0008396305625524292</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14850,7 +14850,7 @@
         <v>1.226867012280878</v>
       </c>
       <c r="K194">
-        <v>55.09386081498663</v>
+        <v>0.05093860814986628</v>
       </c>
       <c r="L194">
         <v>0.01494496985443069</v>
@@ -14880,13 +14880,13 @@
         <v>0.03124999999999289</v>
       </c>
       <c r="U194">
-        <v>1.000056094687833</v>
+        <v>5.609468783318583E-05</v>
       </c>
       <c r="V194">
-        <v>1.000056016132646</v>
+        <v>5.60161326461639E-05</v>
       </c>
       <c r="W194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14921,7 +14921,7 @@
         <v>1.226867012280878</v>
       </c>
       <c r="K195">
-        <v>55.09386081498663</v>
+        <v>0.05093860814986639</v>
       </c>
       <c r="L195">
         <v>0.01413427844442883</v>
@@ -14951,13 +14951,13 @@
         <v>0.02187500000000142</v>
       </c>
       <c r="U195">
-        <v>1.000084137312093</v>
+        <v>8.413731209322428E-05</v>
       </c>
       <c r="V195">
-        <v>1.000056012995015</v>
+        <v>5.601299501489798E-05</v>
       </c>
       <c r="W195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14992,7 +14992,7 @@
         <v>0.9656089944292702</v>
       </c>
       <c r="K196">
-        <v>49.12518192407042</v>
+        <v>-0.008748180759295843</v>
       </c>
       <c r="L196">
         <v>0.0125593687017589</v>
@@ -15022,13 +15022,13 @@
         <v>0.01250000000000995</v>
       </c>
       <c r="U196">
-        <v>1.000028043411201</v>
+        <v>2.80434112005512E-05</v>
       </c>
       <c r="V196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W196">
-        <v>0.9983193277310924</v>
+        <v>-0.001680672268907557</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15063,7 +15063,7 @@
         <v>1.189764047170095</v>
       </c>
       <c r="K197">
-        <v>54.33297933207309</v>
+        <v>0.04332979332073084</v>
       </c>
       <c r="L197">
         <v>0.0111890649283225</v>
@@ -15093,13 +15093,13 @@
         <v>7.105427357601002E-15</v>
       </c>
       <c r="U197">
-        <v>1.000056085249579</v>
+        <v>5.608524957922967E-05</v>
       </c>
       <c r="V197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W197">
-        <v>1.001683501683502</v>
+        <v>0.001683501683501731</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15134,7 +15134,7 @@
         <v>1.189764047170094</v>
       </c>
       <c r="K198">
-        <v>54.33297933207308</v>
+        <v>0.04332979332073084</v>
       </c>
       <c r="L198">
         <v>0.009989278617395072</v>
@@ -15164,13 +15164,13 @@
         <v>-0.01249999999999574</v>
       </c>
       <c r="U198">
-        <v>1.000112164208401</v>
+        <v>0.0001121642084012109</v>
       </c>
       <c r="V198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15205,7 +15205,7 @@
         <v>1.313949671957246</v>
       </c>
       <c r="K199">
-        <v>56.78384832137885</v>
+        <v>0.0678384832137886</v>
       </c>
       <c r="L199">
         <v>0.009239118219627362</v>
@@ -15235,13 +15235,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U199">
-        <v>1.000168227443504</v>
+        <v>0.0001682274435035325</v>
       </c>
       <c r="V199">
-        <v>1.000056009857735</v>
+        <v>5.600985773512868E-05</v>
       </c>
       <c r="W199">
-        <v>1.000840336134454</v>
+        <v>0.0008403361344537785</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15276,7 +15276,7 @@
         <v>1.041623944835792</v>
       </c>
       <c r="K200">
-        <v>51.0193832449183</v>
+        <v>0.01019383244918304</v>
       </c>
       <c r="L200">
         <v>0.008162962276245654</v>
@@ -15306,13 +15306,13 @@
         <v>-0.02499999999999147</v>
       </c>
       <c r="U200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V200">
-        <v>0.9999439932791935</v>
+        <v>-5.600672080652291E-05</v>
       </c>
       <c r="W200">
-        <v>0.9983207388748951</v>
+        <v>-0.001679261125104858</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15347,7 +15347,7 @@
         <v>0.8550757941119007</v>
       </c>
       <c r="K201">
-        <v>46.09384677574642</v>
+        <v>-0.03906153224253578</v>
       </c>
       <c r="L201">
         <v>0.006315868490636588</v>
@@ -15377,13 +15377,13 @@
         <v>-0.03437499999999716</v>
       </c>
       <c r="U201">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V201">
-        <v>0.9998319704267952</v>
+        <v>-0.0001680295732048309</v>
       </c>
       <c r="W201">
-        <v>0.9983179142136249</v>
+        <v>-0.001682085786375076</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15418,7 +15418,7 @@
         <v>0.7814193802390078</v>
       </c>
       <c r="K202">
-        <v>43.86498703826648</v>
+        <v>-0.06135012961733516</v>
       </c>
       <c r="L202">
         <v>0.003790444090354885</v>
@@ -15448,13 +15448,13 @@
         <v>-0.04687499999999289</v>
       </c>
       <c r="U202">
-        <v>0.9999719668087014</v>
+        <v>-2.803319129862647E-05</v>
       </c>
       <c r="V202">
-        <v>0.9997199036468545</v>
+        <v>-0.0002800963531455203</v>
       </c>
       <c r="W202">
-        <v>0.9991575400168491</v>
+        <v>-0.0008424599831509116</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15489,7 +15489,7 @@
         <v>0.7164555525749366</v>
       </c>
       <c r="K203">
-        <v>41.74040810437227</v>
+        <v>-0.08259591895627727</v>
       </c>
       <c r="L203">
         <v>0.0006951302773448462</v>
@@ -15519,13 +15519,13 @@
         <v>-0.05937499999999574</v>
       </c>
       <c r="U203">
-        <v>0.9999439320456394</v>
+        <v>-5.606795436063905E-05</v>
       </c>
       <c r="V203">
-        <v>0.9997198251709066</v>
+        <v>-0.0002801748290933714</v>
       </c>
       <c r="W203">
-        <v>0.9991568296795953</v>
+        <v>-0.000843170320404707</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15560,7 +15560,7 @@
         <v>0.8039667894572113</v>
       </c>
       <c r="K204">
-        <v>44.56660699940678</v>
+        <v>-0.05433393000593223</v>
       </c>
       <c r="L204">
         <v>-0.002244619741507687</v>
@@ -15590,13 +15590,13 @@
         <v>-0.05937500000000284</v>
       </c>
       <c r="U204">
-        <v>0.9999719644509238</v>
+        <v>-2.803554907615524E-05</v>
       </c>
       <c r="V204">
-        <v>0.9997197466509725</v>
+        <v>-0.0002802533490274817</v>
       </c>
       <c r="W204">
-        <v>1.00084388185654</v>
+        <v>0.0008438818565399409</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15631,7 +15631,7 @@
         <v>1.264552246732368</v>
       </c>
       <c r="K205">
-        <v>55.84116014797414</v>
+        <v>0.05841160147974134</v>
       </c>
       <c r="L205">
         <v>-0.00336396067245419</v>
@@ -15661,13 +15661,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U205">
-        <v>1.000168218010542</v>
+        <v>0.0001682180105415654</v>
       </c>
       <c r="V205">
-        <v>0.9999439336174031</v>
+        <v>-5.606638259691987E-05</v>
       </c>
       <c r="W205">
-        <v>1.004215851602024</v>
+        <v>0.004215851602023646</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15702,7 +15702,7 @@
         <v>0.9795926008375548</v>
       </c>
       <c r="K206">
-        <v>49.48455558093593</v>
+        <v>-0.005154444190640761</v>
       </c>
       <c r="L206">
         <v>-0.004215417805378883</v>
@@ -15732,13 +15732,13 @@
         <v>-0.05312500000000142</v>
       </c>
       <c r="U206">
-        <v>1.000084094859001</v>
+        <v>8.40948590010715E-05</v>
       </c>
       <c r="V206">
-        <v>0.9998317914213622</v>
+        <v>-0.0001682085786377518</v>
       </c>
       <c r="W206">
-        <v>0.9974811083123426</v>
+        <v>-0.002518891687657399</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15773,7 +15773,7 @@
         <v>0.9078134466985684</v>
       </c>
       <c r="K207">
-        <v>47.58397359393397</v>
+        <v>-0.0241602640606603</v>
       </c>
       <c r="L207">
         <v>-0.005141209433347171</v>
@@ -15803,13 +15803,13 @@
         <v>-0.06562499999999005</v>
       </c>
       <c r="U207">
-        <v>1.0000560585251</v>
+        <v>5.605852510015552E-05</v>
       </c>
       <c r="V207">
-        <v>0.999775684163302</v>
+        <v>-0.0002243158366980191</v>
       </c>
       <c r="W207">
-        <v>0.9991582491582492</v>
+        <v>-0.0008417508417507547</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15844,7 +15844,7 @@
         <v>0.6551510209879081</v>
       </c>
       <c r="K208">
-        <v>39.58255244871062</v>
+        <v>-0.1041744755128938</v>
       </c>
       <c r="L208">
         <v>-0.007565460433056528</v>
@@ -15874,13 +15874,13 @@
         <v>-0.08125000000000426</v>
       </c>
       <c r="U208">
-        <v>0.9998038061604866</v>
+        <v>-0.0001961938395134144</v>
       </c>
       <c r="V208">
-        <v>0.9995512676688356</v>
+        <v>-0.0004487323311643809</v>
       </c>
       <c r="W208">
-        <v>0.995787700084246</v>
+        <v>-0.004212299915754003</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15915,7 +15915,7 @@
         <v>0.9481191953233942</v>
       </c>
       <c r="K209">
-        <v>48.66843864581926</v>
+        <v>-0.01331561354180733</v>
       </c>
       <c r="L209">
         <v>-0.009184795963847827</v>
@@ -15945,13 +15945,13 @@
         <v>-0.07187499999999858</v>
       </c>
       <c r="U209">
-        <v>0.999943933617403</v>
+        <v>-5.606638259703089E-05</v>
       </c>
       <c r="V209">
-        <v>0.9998316498316498</v>
+        <v>-0.0001683501683501509</v>
       </c>
       <c r="W209">
-        <v>1.004230118443316</v>
+        <v>0.004230118443316444</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15986,7 +15986,7 @@
         <v>0.8930387863055543</v>
       </c>
       <c r="K210">
-        <v>47.17488055532156</v>
+        <v>-0.02825119444678437</v>
       </c>
       <c r="L210">
         <v>-0.01048622267627715</v>
@@ -16016,13 +16016,13 @@
         <v>-0.05937499999999574</v>
       </c>
       <c r="U210">
-        <v>0.9999158957106812</v>
+        <v>-8.410428931882041E-05</v>
       </c>
       <c r="V210">
-        <v>0.9997754953134647</v>
+        <v>-0.0002245046865353428</v>
       </c>
       <c r="W210">
-        <v>0.9991575400168491</v>
+        <v>-0.0008424599831509116</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16057,7 +16057,7 @@
         <v>1.076494763780211</v>
       </c>
       <c r="K211">
-        <v>51.8419204592877</v>
+        <v>0.01841920459287705</v>
       </c>
       <c r="L211">
         <v>-0.01055521086054177</v>
@@ -16087,13 +16087,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U211">
-        <v>1.000028037121149</v>
+        <v>2.803712114851642E-05</v>
       </c>
       <c r="V211">
-        <v>1.000056138775052</v>
+        <v>5.613877505195042E-05</v>
       </c>
       <c r="W211">
-        <v>1.002529510961214</v>
+        <v>0.002529510961214232</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16128,7 +16128,7 @@
         <v>1.011391000744867</v>
       </c>
       <c r="K212">
-        <v>50.28316226781986</v>
+        <v>0.002831622678198586</v>
       </c>
       <c r="L212">
         <v>-0.01014082241715178</v>
@@ -16158,13 +16158,13 @@
         <v>-0.01875000000000426</v>
       </c>
       <c r="U212">
-        <v>0.9999439273298195</v>
+        <v>-5.607267018048478E-05</v>
       </c>
       <c r="V212">
-        <v>0.9998877287526664</v>
+        <v>-0.0001122712473335952</v>
       </c>
       <c r="W212">
-        <v>0.9991589571068124</v>
+        <v>-0.000841042893187649</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16199,7 +16199,7 @@
         <v>0.8971631541645397</v>
       </c>
       <c r="K213">
-        <v>47.28972055962296</v>
+        <v>-0.02710279440377045</v>
       </c>
       <c r="L213">
         <v>-0.01003568786666294</v>
@@ -16229,13 +16229,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U213">
-        <v>0.9998878483709975</v>
+        <v>-0.000112151629002466</v>
       </c>
       <c r="V213">
-        <v>0.9997754322928363</v>
+        <v>-0.0002245677071637253</v>
       </c>
       <c r="W213">
-        <v>0.9983164983164983</v>
+        <v>-0.001683501683501731</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16270,7 +16270,7 @@
         <v>0.9566059603676118</v>
       </c>
       <c r="K214">
-        <v>48.89108894403462</v>
+        <v>-0.01108911055965378</v>
       </c>
       <c r="L214">
         <v>-0.009781801522722764</v>
@@ -16300,13 +16300,13 @@
         <v>-0.03437499999999716</v>
       </c>
       <c r="U214">
-        <v>0.999915876843699</v>
+        <v>-8.412315630101919E-05</v>
       </c>
       <c r="V214">
-        <v>0.9997753818508535</v>
+        <v>-0.0002246181491465382</v>
       </c>
       <c r="W214">
-        <v>1.000843170320405</v>
+        <v>0.000843170320404818</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16341,7 +16341,7 @@
         <v>1.144320085219401</v>
       </c>
       <c r="K215">
-        <v>53.3651712310626</v>
+        <v>0.03365171231062603</v>
       </c>
       <c r="L215">
         <v>-0.008499097351778255</v>
@@ -16371,13 +16371,13 @@
         <v>-0.01249999999999574</v>
       </c>
       <c r="U215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V215">
-        <v>1.000056167153449</v>
+        <v>5.616715344869405E-05</v>
       </c>
       <c r="W215">
-        <v>1.002527379949452</v>
+        <v>0.002527379949452291</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16412,7 +16412,7 @@
         <v>1.210184690430551</v>
       </c>
       <c r="K216">
-        <v>54.75491236864931</v>
+        <v>0.04754912368649311</v>
       </c>
       <c r="L216">
         <v>-0.006337167672242634</v>
@@ -16442,13 +16442,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U216">
-        <v>1.000028043411201</v>
+        <v>2.80434112005512E-05</v>
       </c>
       <c r="V216">
-        <v>1.000224655995507</v>
+        <v>0.0002246559955068061</v>
       </c>
       <c r="W216">
-        <v>1.000840336134454</v>
+        <v>0.0008403361344537785</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16483,7 +16483,7 @@
         <v>1.210184690430552</v>
       </c>
       <c r="K217">
-        <v>54.75491236864931</v>
+        <v>0.04754912368649311</v>
       </c>
       <c r="L217">
         <v>-0.003757039597154914</v>
@@ -16513,13 +16513,13 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="U217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V217">
-        <v>1.000280756920658</v>
+        <v>0.0002807569206579874</v>
       </c>
       <c r="W217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16554,7 +16554,7 @@
         <v>1.056044126492621</v>
       </c>
       <c r="K218">
-        <v>51.36291156815359</v>
+        <v>0.01362911568153591</v>
       </c>
       <c r="L218">
         <v>-0.001687183450726751</v>
@@ -16584,13 +16584,13 @@
         <v>0.05937499999999574</v>
       </c>
       <c r="U218">
-        <v>0.9999719573752103</v>
+        <v>-2.804262478972586E-05</v>
       </c>
       <c r="V218">
-        <v>1.000224542494667</v>
+        <v>0.0002245424946671903</v>
       </c>
       <c r="W218">
-        <v>0.9983207388748951</v>
+        <v>-0.001679261125104858</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16625,7 +16625,7 @@
         <v>0.9311958083840358</v>
       </c>
       <c r="K219">
-        <v>48.21861171929694</v>
+        <v>-0.01781388280703061</v>
       </c>
       <c r="L219">
         <v>-0.0006652655403425652</v>
@@ -16655,13 +16655,13 @@
         <v>0.04062499999999858</v>
       </c>
       <c r="U219">
-        <v>0.9998878263551979</v>
+        <v>-0.0001121736448020938</v>
       </c>
       <c r="V219">
-        <v>1.000056123021663</v>
+        <v>5.612302166335681E-05</v>
       </c>
       <c r="W219">
-        <v>0.9983179142136249</v>
+        <v>-0.001682085786375076</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16696,7 +16696,7 @@
         <v>1.055640686133642</v>
       </c>
       <c r="K220">
-        <v>51.35336604565591</v>
+        <v>0.01353366045655913</v>
       </c>
       <c r="L220">
         <v>0.0002719880784250356</v>
@@ -16726,13 +16726,13 @@
         <v>0.03750000000000142</v>
       </c>
       <c r="U220">
-        <v>0.9999158603281448</v>
+        <v>-8.413967185516569E-05</v>
       </c>
       <c r="V220">
-        <v>0.9998877602559068</v>
+        <v>-0.0001122397440932454</v>
       </c>
       <c r="W220">
-        <v>1.001684919966302</v>
+        <v>0.001684919966301601</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16767,7 +16767,7 @@
         <v>1.317629902448592</v>
       </c>
       <c r="K221">
-        <v>56.85247247873816</v>
+        <v>0.06852472478738159</v>
       </c>
       <c r="L221">
         <v>0.002323146958648175</v>
@@ -16797,13 +16797,13 @@
         <v>0.07500000000000284</v>
       </c>
       <c r="U221">
-        <v>1.000056097834624</v>
+        <v>5.609783462356965E-05</v>
       </c>
       <c r="V221">
-        <v>1.000280630858169</v>
+        <v>0.0002806308581690953</v>
       </c>
       <c r="W221">
-        <v>1.00336417157275</v>
+        <v>0.003364171572750152</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16838,7 +16838,7 @@
         <v>1.386574433057796</v>
       </c>
       <c r="K222">
-        <v>58.09893937735892</v>
+        <v>0.08098939377358916</v>
       </c>
       <c r="L222">
         <v>0.005216334167981574</v>
@@ -16868,13 +16868,13 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="U222">
-        <v>1.000084142031749</v>
+        <v>8.414203174944568E-05</v>
       </c>
       <c r="V222">
-        <v>1.000392772977219</v>
+        <v>0.0003927729772190691</v>
       </c>
       <c r="W222">
-        <v>1.000838222967309</v>
+        <v>0.0008382229673093988</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16909,7 +16909,7 @@
         <v>1.292755073347667</v>
       </c>
       <c r="K223">
-        <v>56.38435122771779</v>
+        <v>0.06384351227717788</v>
       </c>
       <c r="L223">
         <v>0.008109499708116565</v>
@@ -16939,13 +16939,13 @@
         <v>0.1000000000000014</v>
       </c>
       <c r="U223">
-        <v>1.000084134952464</v>
+        <v>8.41349524638435E-05</v>
       </c>
       <c r="V223">
-        <v>1.000616972348421</v>
+        <v>0.0006169723484210632</v>
       </c>
       <c r="W223">
-        <v>0.9991624790619765</v>
+        <v>-0.0008375209380234727</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16980,7 +16980,7 @@
         <v>1.065160467089406</v>
       </c>
       <c r="K224">
-        <v>51.57761268743542</v>
+        <v>0.01577612687435415</v>
       </c>
       <c r="L224">
         <v>0.009869060721549014</v>
@@ -17010,13 +17010,13 @@
         <v>0.06875000000000142</v>
       </c>
       <c r="U224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V224">
-        <v>1.000168161434978</v>
+        <v>0.000168161434977554</v>
       </c>
       <c r="W224">
-        <v>0.9974853310980721</v>
+        <v>-0.002514668901927863</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Frontline 16.12.2020.xlsx
+++ b/data_clean/Frontline 16.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1109,13 +1112,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W224"/>
+  <dimension ref="A1:X224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1185,10 +1188,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>58.55</v>
@@ -1245,7 +1251,7 @@
         <v>58.55</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>58.55</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1256,10 +1262,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>58.4</v>
@@ -1316,7 +1325,7 @@
         <v>58.47499999999999</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>58.47499999999999</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1327,10 +1336,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>58.4</v>
@@ -1387,21 +1399,24 @@
         <v>58.45</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>58.45</v>
       </c>
       <c r="U4">
-        <v>-0.0004275331338178257</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>-0.0004275331338178257</v>
       </c>
       <c r="W4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>-0.0004275331338178257</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>58.3</v>
@@ -1458,21 +1473,24 @@
         <v>58.41249999999999</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>58.36666666666667</v>
       </c>
       <c r="U5">
-        <v>-0.0006415739948674171</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>-0.0006415739948674171</v>
       </c>
       <c r="W5">
+        <v>-0.0006415739948674171</v>
+      </c>
+      <c r="X5">
         <v>-0.00171232876712335</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>58.25</v>
@@ -1529,21 +1547,24 @@
         <v>58.38</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>58.31666666666666</v>
       </c>
       <c r="U6">
-        <v>-0.0005563877594693123</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>-0.0005563877594693123</v>
       </c>
       <c r="W6">
+        <v>-0.0005563877594693123</v>
+      </c>
+      <c r="X6">
         <v>-0.0008576329331045907</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>58.4</v>
@@ -1600,21 +1621,24 @@
         <v>58.38333333333333</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>58.31666666666666</v>
       </c>
       <c r="U7">
-        <v>5.709717939939019E-05</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>5.709717939939019E-05</v>
       </c>
       <c r="W7">
+        <v>5.709717939939019E-05</v>
+      </c>
+      <c r="X7">
         <v>0.002575107296137302</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>58.25</v>
@@ -1671,21 +1695,24 @@
         <v>58.36428571428571</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>58.3</v>
       </c>
       <c r="U8">
-        <v>-0.0003262509685575399</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>-0.0003262509685575399</v>
       </c>
       <c r="W8">
+        <v>-0.0003262509685575399</v>
+      </c>
+      <c r="X8">
         <v>-0.002568493150684859</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>58.25</v>
@@ -1742,21 +1769,24 @@
         <v>58.35</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>58.3</v>
       </c>
       <c r="U9">
-        <v>-0.0002447680822420528</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>-0.0002447680822420528</v>
       </c>
       <c r="W9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+        <v>-0.0002447680822420528</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>58.35</v>
@@ -1813,21 +1843,24 @@
         <v>58.34999999999999</v>
       </c>
       <c r="T10">
+        <v>58.28333333333333</v>
+      </c>
+      <c r="U10">
         <v>-0.02499999999999858</v>
-      </c>
-      <c r="U10">
-        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V10">
         <v>-1.110223024625157E-16</v>
       </c>
       <c r="W10">
+        <v>-1.110223024625157E-16</v>
+      </c>
+      <c r="X10">
         <v>0.001716738197425016</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>58.35</v>
@@ -1884,21 +1917,24 @@
         <v>58.35</v>
       </c>
       <c r="T11">
+        <v>58.31666666666666</v>
+      </c>
+      <c r="U11">
         <v>-0.03125</v>
-      </c>
-      <c r="U11">
-        <v>2.220446049250313E-16</v>
       </c>
       <c r="V11">
         <v>2.220446049250313E-16</v>
       </c>
       <c r="W11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+        <v>2.220446049250313E-16</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>58.35</v>
@@ -1955,21 +1991,24 @@
         <v>58.35</v>
       </c>
       <c r="T12">
+        <v>58.35</v>
+      </c>
+      <c r="U12">
         <v>-0.03750000000000142</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>58.7</v>
@@ -2026,21 +2065,24 @@
         <v>58.37916666666666</v>
       </c>
       <c r="T13">
+        <v>58.46666666666667</v>
+      </c>
+      <c r="U13">
         <v>-0.01666666666665861</v>
-      </c>
-      <c r="U13">
-        <v>0.0004998571836616339</v>
       </c>
       <c r="V13">
         <v>0.0004998571836616339</v>
       </c>
       <c r="W13">
+        <v>0.0004998571836616339</v>
+      </c>
+      <c r="X13">
         <v>0.005998286203941827</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>58.7</v>
@@ -2097,21 +2139,24 @@
         <v>58.40384615384615</v>
       </c>
       <c r="T14">
+        <v>58.58333333333334</v>
+      </c>
+      <c r="U14">
         <v>0.01490384615384954</v>
-      </c>
-      <c r="U14">
-        <v>0.0004227447664748585</v>
       </c>
       <c r="V14">
         <v>0.0004227447664748585</v>
       </c>
       <c r="W14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>0.0004227447664748585</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>58.55</v>
@@ -2168,21 +2213,24 @@
         <v>58.41428571428571</v>
       </c>
       <c r="T15">
+        <v>58.65</v>
+      </c>
+      <c r="U15">
         <v>0.02321428571428896</v>
-      </c>
-      <c r="U15">
-        <v>0.00017874782445082</v>
       </c>
       <c r="V15">
         <v>0.00017874782445082</v>
       </c>
       <c r="W15">
+        <v>0.00017874782445082</v>
+      </c>
+      <c r="X15">
         <v>-0.002555366269165305</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>58.5</v>
@@ -2239,21 +2287,24 @@
         <v>58.41999999999999</v>
       </c>
       <c r="T16">
+        <v>58.58333333333334</v>
+      </c>
+      <c r="U16">
         <v>0.0487500000000054</v>
-      </c>
-      <c r="U16">
-        <v>9.782342871123006E-05</v>
       </c>
       <c r="V16">
         <v>9.782342871123006E-05</v>
       </c>
       <c r="W16">
+        <v>9.782342871123006E-05</v>
+      </c>
+      <c r="X16">
         <v>-0.0008539709649871829</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>58.6</v>
@@ -2310,21 +2361,24 @@
         <v>58.42333333333333</v>
       </c>
       <c r="T17">
+        <v>58.55</v>
+      </c>
+      <c r="U17">
         <v>0.08124999999999716</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.0001925710373160694</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>5.7058085130679E-05</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.001709401709401703</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>58.65</v>
@@ -2381,21 +2435,24 @@
         <v>58.43999999999999</v>
       </c>
       <c r="T18">
+        <v>58.58333333333334</v>
+      </c>
+      <c r="U18">
         <v>0.1125000000000043</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.0002202185826731817</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.0002852741484564714</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.0008532423208189588</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>58.7</v>
@@ -2452,21 +2509,24 @@
         <v>58.46</v>
       </c>
       <c r="T19">
+        <v>58.65</v>
+      </c>
+      <c r="U19">
         <v>0.1375000000000028</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.000243235535873243</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.0003422313483916195</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.0008525149190110604</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>58.7</v>
@@ -2523,21 +2583,24 @@
         <v>58.48666666666667</v>
       </c>
       <c r="T20">
+        <v>58.68333333333334</v>
+      </c>
+      <c r="U20">
         <v>0.1624999999999943</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.0002175788723413064</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.0004561523548864965</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>58.65</v>
@@ -2594,21 +2657,24 @@
         <v>58.51333333333334</v>
       </c>
       <c r="T21">
+        <v>58.68333333333334</v>
+      </c>
+      <c r="U21">
         <v>0.1343749999999986</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.0001530221882171112</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.0004559443747862435</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-0.0008517887563884718</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>58.8</v>
@@ -2665,21 +2731,24 @@
         <v>58.54</v>
       </c>
       <c r="T22">
+        <v>58.71666666666667</v>
+      </c>
+      <c r="U22">
         <v>0.1124999999999972</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.0002605693440167478</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.0004557365842543515</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.002557544757033181</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>58.6</v>
@@ -2736,21 +2805,24 @@
         <v>58.56333333333334</v>
       </c>
       <c r="T23">
+        <v>58.68333333333334</v>
+      </c>
+      <c r="U23">
         <v>0.1062499999999957</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>8.140670791267901E-05</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.0003985878601526771</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-0.00340136054421758</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>58.8</v>
@@ -2807,21 +2879,24 @@
         <v>58.6</v>
       </c>
       <c r="T24">
+        <v>58.73333333333333</v>
+      </c>
+      <c r="U24">
         <v>0.109375</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.000222965440356715</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.0006261027946952158</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.003412969283276279</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>59</v>
@@ -2878,21 +2953,24 @@
         <v>58.64333333333333</v>
       </c>
       <c r="T25">
+        <v>58.8</v>
+      </c>
+      <c r="U25">
         <v>0.1125000000000043</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.0003467578144349392</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.0007394766780430828</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.003401360544217802</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>58.8</v>
@@ -2949,21 +3027,24 @@
         <v>58.67333333333333</v>
       </c>
       <c r="T26">
+        <v>58.86666666666667</v>
+      </c>
+      <c r="U26">
         <v>0.1031249999999915</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.0001822323462414843</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.0005115671005513356</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-0.003389830508474634</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>58.65</v>
@@ -3020,21 +3101,24 @@
         <v>58.69333333333334</v>
       </c>
       <c r="T27">
+        <v>58.81666666666666</v>
+      </c>
+      <c r="U27">
         <v>0.078125</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>6.963861500630664E-05</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.0003408703556415649</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-0.00255102040816324</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>58.8</v>
@@ -3091,21 +3175,24 @@
         <v>58.7</v>
       </c>
       <c r="T28">
+        <v>58.75</v>
+      </c>
+      <c r="U28">
         <v>0.06250000000000711</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.0001593644884825274</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.0001135847342117469</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.002557544757033181</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>58.6</v>
@@ -3162,21 +3249,24 @@
         <v>58.69333333333334</v>
       </c>
       <c r="T29">
+        <v>58.68333333333334</v>
+      </c>
+      <c r="U29">
         <v>0.06249999999999289</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>2.597731164200034E-05</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-0.0001135718341851444</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-0.00340136054421758</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>58.8</v>
@@ -3233,21 +3323,24 @@
         <v>58.71000000000001</v>
       </c>
       <c r="T30">
+        <v>58.73333333333333</v>
+      </c>
+      <c r="U30">
         <v>0.05624999999999858</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.0001419562837736699</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.0002839618355294782</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.003412969283276279</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>58.65</v>
@@ -3304,21 +3397,24 @@
         <v>58.72000000000001</v>
       </c>
       <c r="T31">
+        <v>58.68333333333334</v>
+      </c>
+      <c r="U31">
         <v>0.05624999999999147</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>4.710176926026044E-05</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.0001703287344574367</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-0.00255102040816324</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>58.85</v>
@@ -3375,21 +3471,24 @@
         <v>58.73666666666666</v>
       </c>
       <c r="T32">
+        <v>58.76666666666667</v>
+      </c>
+      <c r="U32">
         <v>0.04062499999999147</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.0001707358716067642</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.0002838328792005296</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.003410059676044463</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>58.95</v>
@@ -3446,21 +3545,24 @@
         <v>58.75666666666667</v>
       </c>
       <c r="T33">
+        <v>58.81666666666666</v>
+      </c>
+      <c r="U33">
         <v>0.01249999999999574</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.0003129623307158713</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.0003405028091483242</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.001699235344095218</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>58.8</v>
@@ -3517,21 +3619,24 @@
         <v>58.76333333333334</v>
       </c>
       <c r="T34">
+        <v>58.86666666666667</v>
+      </c>
+      <c r="U34">
         <v>0.003124999999990052</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.0002275377570466475</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.0001134623021501469</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-0.002544529262086592</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>58.7</v>
@@ -3588,21 +3693,24 @@
         <v>58.76333333333333</v>
       </c>
       <c r="T35">
+        <v>58.81666666666666</v>
+      </c>
+      <c r="U35">
         <v>0.009374999999998579</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>0.0002274859953932395</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-0.00170068027210879</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>59</v>
@@ -3659,21 +3767,24 @@
         <v>58.78666666666666</v>
       </c>
       <c r="T36">
+        <v>58.83333333333334</v>
+      </c>
+      <c r="U36">
         <v>0.015625</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>0.0004264392324093702</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0.0003970730047082593</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0.005110732538330387</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>59</v>
@@ -3730,21 +3841,24 @@
         <v>58.8</v>
       </c>
       <c r="T37">
+        <v>58.9</v>
+      </c>
+      <c r="U37">
         <v>0.04375000000000284</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.0003410059676045574</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.0002268088001815549</v>
       </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>59</v>
@@ -3801,21 +3915,24 @@
         <v>58.82666666666667</v>
       </c>
       <c r="T38">
+        <v>59</v>
+      </c>
+      <c r="U38">
         <v>0.05624999999999858</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0.0004261121527187051</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.0004535147392290551</v>
       </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>59</v>
@@ -3872,21 +3989,24 @@
         <v>58.84</v>
       </c>
       <c r="T39">
+        <v>59</v>
+      </c>
+      <c r="U39">
         <v>0.07500000000000284</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>0.0004259306584888378</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>0.0002266545784224139</v>
       </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>59.25</v>
@@ -3943,21 +4063,24 @@
         <v>58.85666666666667</v>
       </c>
       <c r="T40">
+        <v>59.08333333333334</v>
+      </c>
+      <c r="U40">
         <v>0.09687499999999716</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>0.0005108991825613085</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>0.0002832540222070801</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>0.004237288135593209</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>58.95</v>
@@ -4014,21 +4137,24 @@
         <v>58.86666666666667</v>
       </c>
       <c r="T41">
+        <v>59.06666666666666</v>
+      </c>
+      <c r="U41">
         <v>0.1000000000000014</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>0.0003404255319148231</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>0.0001699042872513878</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>-0.005063291139240422</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>58.95</v>
@@ -4085,21 +4211,24 @@
         <v>58.88666666666666</v>
       </c>
       <c r="T42">
+        <v>59.05</v>
+      </c>
+      <c r="U42">
         <v>0.1093750000000071</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>0.0003403096818104245</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>0.0003397508493769852</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>58.95</v>
@@ -4156,21 +4285,24 @@
         <v>58.89666666666667</v>
       </c>
       <c r="T43">
+        <v>58.95000000000001</v>
+      </c>
+      <c r="U43">
         <v>0.1218750000000028</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>0.0001417474627203319</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>0.0001698177289710667</v>
       </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>58.75</v>
@@ -4227,21 +4359,24 @@
         <v>58.90666666666667</v>
       </c>
       <c r="T44">
+        <v>58.88333333333333</v>
+      </c>
+      <c r="U44">
         <v>0.09375</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>2.834547464503068E-05</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>0.0001697888958061</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>-0.003392705682782049</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>58.85</v>
@@ -4298,21 +4433,24 @@
         <v>58.91</v>
       </c>
       <c r="T45">
+        <v>58.85</v>
+      </c>
+      <c r="U45">
         <v>0.05937500000000284</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>0.0001700680272107569</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>5.658669081021195E-05</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>0.001702127659574559</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>58.95</v>
@@ -4369,21 +4507,24 @@
         <v>58.92999999999999</v>
       </c>
       <c r="T46">
+        <v>58.85</v>
+      </c>
+      <c r="U46">
         <v>0.04375000000000284</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>0.0002550586634926244</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>0.0003395009336275567</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>0.001699235344095218</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>59</v>
@@ -4440,21 +4581,24 @@
         <v>58.93999999999999</v>
       </c>
       <c r="T47">
+        <v>58.93333333333334</v>
+      </c>
+      <c r="U47">
         <v>0.02187500000000853</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>0.0002266610001415703</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>0.0001696928559307143</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.0008481764206953457</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>59</v>
@@ -4511,21 +4655,24 @@
         <v>58.94333333333334</v>
       </c>
       <c r="T48">
+        <v>58.98333333333334</v>
+      </c>
+      <c r="U48">
         <v>-0.01874999999999005</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>0.0001982834320028992</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>5.655468838394739E-05</v>
       </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>58.95</v>
@@ -4582,21 +4729,24 @@
         <v>58.95333333333333</v>
       </c>
       <c r="T49">
+        <v>58.98333333333333</v>
+      </c>
+      <c r="U49">
         <v>-0.01874999999999716</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>0.0001416029453411571</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>0.0001696544703952974</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>-0.0008474576271185752</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>59</v>
@@ -4653,21 +4803,24 @@
         <v>58.97333333333334</v>
       </c>
       <c r="T50">
+        <v>58.98333333333333</v>
+      </c>
+      <c r="U50">
         <v>-0.02499999999999858</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>0.0001698994761432093</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>0.0003392513852764623</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>0.0008481764206953457</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>59</v>
@@ -4724,21 +4877,24 @@
         <v>58.97333333333334</v>
       </c>
       <c r="T51">
+        <v>58.98333333333333</v>
+      </c>
+      <c r="U51">
         <v>-0.03750000000000142</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>0.000198182384417267</v>
       </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
       <c r="W51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>59</v>
@@ -4795,21 +4951,24 @@
         <v>58.97333333333334</v>
       </c>
       <c r="T52">
+        <v>59</v>
+      </c>
+      <c r="U52">
         <v>-0.006250000000001421</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>0.000113224637681153</v>
       </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
       <c r="W52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>58.95</v>
@@ -4866,21 +5025,24 @@
         <v>58.97000000000001</v>
       </c>
       <c r="T53">
+        <v>58.98333333333334</v>
+      </c>
+      <c r="U53">
         <v>0.009374999999991473</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>0.0001981206837995408</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>-5.65227221343001E-05</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>-0.0008474576271185752</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>59</v>
@@ -4937,21 +5099,24 @@
         <v>58.97000000000001</v>
       </c>
       <c r="T54">
+        <v>58.98333333333334</v>
+      </c>
+      <c r="U54">
         <v>0.01562499999999289</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>0.0001131893941537232</v>
       </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
       <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
         <v>0.0008481764206953457</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>59</v>
@@ -5008,21 +5173,24 @@
         <v>58.95333333333334</v>
       </c>
       <c r="T55">
+        <v>58.98333333333334</v>
+      </c>
+      <c r="U55">
         <v>0.01562499999999289</v>
       </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
       <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
         <v>-0.0002826295856650507</v>
       </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>58.8</v>
@@ -5079,21 +5247,24 @@
         <v>58.94333333333334</v>
       </c>
       <c r="T56">
+        <v>58.93333333333333</v>
+      </c>
+      <c r="U56">
         <v>0.01874999999999716</v>
       </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
       <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
         <v>-0.0001696256926383422</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>-0.003389830508474634</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>58.85</v>
@@ -5150,21 +5321,24 @@
         <v>58.93666666666667</v>
       </c>
       <c r="T57">
+        <v>58.88333333333333</v>
+      </c>
+      <c r="U57">
         <v>0.01250000000000284</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>0.0001131765837647514</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>-0.0001131029802634576</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>0.0008503401360544505</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>58.8</v>
@@ -5221,21 +5395,24 @@
         <v>58.92666666666666</v>
       </c>
       <c r="T58">
+        <v>58.81666666666666</v>
+      </c>
+      <c r="U58">
         <v>-0.003125000000004263</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>-0.0001696736609921867</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>-0.000849617672047609</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>58.95</v>
@@ -5292,21 +5469,24 @@
         <v>58.94</v>
       </c>
       <c r="T59">
+        <v>58.86666666666667</v>
+      </c>
+      <c r="U59">
         <v>-0.009374999999998579</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>0.0001980366084815</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>0.0002262699400386037</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>0.002551020408163351</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>58.85</v>
@@ -5363,21 +5543,24 @@
         <v>58.94</v>
       </c>
       <c r="T60">
+        <v>58.86666666666667</v>
+      </c>
+      <c r="U60">
         <v>-0.03437500000000426</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>2.828534253551673E-05</v>
       </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
       <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
         <v>-0.001696352841391024</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>59</v>
@@ -5434,21 +5617,24 @@
         <v>58.94333333333334</v>
       </c>
       <c r="T61">
+        <v>58.93333333333334</v>
+      </c>
+      <c r="U61">
         <v>-0.03750000000000142</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>0.0001979917974828105</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>5.655468838372535E-05</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>0.002548853016142605</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>59.05</v>
@@ -5505,21 +5691,24 @@
         <v>58.94666666666667</v>
       </c>
       <c r="T62">
+        <v>58.96666666666667</v>
+      </c>
+      <c r="U62">
         <v>-0.03750000000000142</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>0.0001131157739946431</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>5.655149013161775E-05</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>0.0008474576271186862</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>58.85</v>
@@ -5576,21 +5765,24 @@
         <v>58.93666666666667</v>
       </c>
       <c r="T63">
+        <v>58.96666666666667</v>
+      </c>
+      <c r="U63">
         <v>-0.046875</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>-5.655149013195082E-05</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>-0.0001696448767246617</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>-0.003386960203217493</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>58.85</v>
@@ -5647,21 +5839,24 @@
         <v>58.93</v>
       </c>
       <c r="T64">
+        <v>58.91666666666666</v>
+      </c>
+      <c r="U64">
         <v>-0.03125000000000711</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>2.82773441919737E-05</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>-0.0001131157739948652</v>
       </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="X64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>59</v>
@@ -5718,21 +5913,24 @@
         <v>58.93</v>
       </c>
       <c r="T65">
+        <v>58.9</v>
+      </c>
+      <c r="U65">
         <v>-0.01562500000000711</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>0.0001696592676374564</v>
       </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
       <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
         <v>0.002548853016142605</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>59</v>
@@ -5789,21 +5987,24 @@
         <v>58.93</v>
       </c>
       <c r="T66">
+        <v>58.95</v>
+      </c>
+      <c r="U66">
         <v>0.009374999999991473</v>
       </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
       <c r="V66">
         <v>0</v>
       </c>
       <c r="W66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>59.05</v>
@@ -5860,21 +6061,24 @@
         <v>58.93333333333333</v>
       </c>
       <c r="T67">
+        <v>59.01666666666667</v>
+      </c>
+      <c r="U67">
         <v>0.01874999999999716</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>2.827174804220789E-05</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>5.65642853103121E-05</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>0.0008474576271186862</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>59</v>
@@ -5931,21 +6135,24 @@
         <v>58.93666666666666</v>
       </c>
       <c r="T68">
+        <v>59.01666666666667</v>
+      </c>
+      <c r="U68">
         <v>0.03750000000000142</v>
       </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
       <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
         <v>5.656108597285048E-05</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>-0.0008467400508043177</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>59</v>
@@ -6002,21 +6209,24 @@
         <v>58.93666666666666</v>
       </c>
       <c r="T69">
+        <v>59.01666666666667</v>
+      </c>
+      <c r="U69">
         <v>0.03437500000000426</v>
       </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
       <c r="V69">
         <v>0</v>
       </c>
       <c r="W69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>59</v>
@@ -6073,21 +6283,24 @@
         <v>58.93666666666666</v>
       </c>
       <c r="T70">
+        <v>59</v>
+      </c>
+      <c r="U70">
         <v>0.02812500000000284</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>-0.0001413547438652296</v>
       </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
       <c r="W70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="X70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>58.85</v>
@@ -6144,21 +6357,24 @@
         <v>58.94</v>
       </c>
       <c r="T71">
+        <v>58.95</v>
+      </c>
+      <c r="U71">
         <v>0.03750000000000142</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>-5.654989114145526E-05</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>5.65578869975436E-05</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>-0.002542372881355948</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>58.85</v>
@@ -6215,21 +6431,24 @@
         <v>58.94</v>
       </c>
       <c r="T72">
+        <v>58.9</v>
+      </c>
+      <c r="U72">
         <v>0.03437499999999716</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>-5.655308921248547E-05</v>
       </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
       <c r="W72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="X72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>59</v>
@@ -6286,21 +6505,24 @@
         <v>58.95333333333334</v>
       </c>
       <c r="T73">
+        <v>58.9</v>
+      </c>
+      <c r="U73">
         <v>0.02499999999999858</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>2.827814382255767E-05</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>0.0002262187535346794</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>0.002548853016142605</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>59</v>
@@ -6357,21 +6579,24 @@
         <v>58.95666666666667</v>
       </c>
       <c r="T74">
+        <v>58.95</v>
+      </c>
+      <c r="U74">
         <v>0.01249999999999574</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>0.0001413867209592023</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>5.654189754600303E-05</v>
       </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="X74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>59</v>
@@ -6428,21 +6653,24 @@
         <v>58.96666666666667</v>
       </c>
       <c r="T75">
+        <v>59</v>
+      </c>
+      <c r="U75">
         <v>0.003124999999997158</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>8.482004014820355E-05</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>0.0001696161022219922</v>
       </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>58.85</v>
@@ -6499,21 +6727,24 @@
         <v>58.95666666666666</v>
       </c>
       <c r="T76">
+        <v>58.95000000000001</v>
+      </c>
+      <c r="U76">
         <v>-0.01562499999999289</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>-5.654189754611405E-05</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>-0.0001695873374788492</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>-0.002542372881355948</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>58.85</v>
@@ -6570,21 +6801,24 @@
         <v>58.94333333333334</v>
       </c>
       <c r="T77">
+        <v>58.90000000000001</v>
+      </c>
+      <c r="U77">
         <v>-0.02499999999999147</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>-8.481764206946796E-05</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>-0.0002261548029625082</v>
       </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23">
+      <c r="X77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>59</v>
@@ -6641,21 +6875,24 @@
         <v>58.95333333333333</v>
       </c>
       <c r="T78">
+        <v>58.90000000000001</v>
+      </c>
+      <c r="U78">
         <v>-0.02187499999999432</v>
       </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
       <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
         <v>0.0001696544703952974</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>0.002548853016142605</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>59</v>
@@ -6712,21 +6949,24 @@
         <v>58.96333333333333</v>
       </c>
       <c r="T79">
+        <v>58.95</v>
+      </c>
+      <c r="U79">
         <v>-0.01249999999999574</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>2.827494557067212E-05</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>0.0001696256926382311</v>
       </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="X79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>59</v>
@@ -6783,21 +7023,24 @@
         <v>58.96333333333333</v>
       </c>
       <c r="T80">
+        <v>59</v>
+      </c>
+      <c r="U80">
         <v>-0.003124999999990052</v>
       </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
       <c r="V80">
         <v>0</v>
       </c>
       <c r="W80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:23">
+      <c r="X80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>59</v>
@@ -6854,21 +7097,24 @@
         <v>58.96333333333333</v>
       </c>
       <c r="T81">
+        <v>59</v>
+      </c>
+      <c r="U81">
         <v>-0.003124999999990052</v>
       </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
       <c r="V81">
         <v>0</v>
       </c>
       <c r="W81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:23">
+      <c r="X81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>58.95</v>
@@ -6925,21 +7171,24 @@
         <v>58.95666666666667</v>
       </c>
       <c r="T82">
+        <v>58.98333333333334</v>
+      </c>
+      <c r="U82">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>-2.827414612083246E-05</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>-0.0001130646164282378</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>-0.0008474576271185752</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>59</v>
@@ -6996,21 +7245,24 @@
         <v>58.95666666666667</v>
       </c>
       <c r="T83">
+        <v>58.98333333333334</v>
+      </c>
+      <c r="U83">
         <v>-0.003124999999997158</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>2.827494557067212E-05</v>
       </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
       <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
         <v>0.0008481764206953457</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>59</v>
@@ -7067,21 +7319,24 @@
         <v>58.95666666666667</v>
       </c>
       <c r="T84">
+        <v>58.98333333333334</v>
+      </c>
+      <c r="U84">
         <v>0.015625</v>
       </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
       <c r="V84">
         <v>0</v>
       </c>
       <c r="W84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:23">
+      <c r="X84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>58.9</v>
@@ -7138,21 +7393,24 @@
         <v>58.95</v>
       </c>
       <c r="T85">
+        <v>58.96666666666666</v>
+      </c>
+      <c r="U85">
         <v>0.02812499999999574</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>-5.654829224155389E-05</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>-0.0001130774014813651</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>-0.001694915254237261</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>59</v>
@@ -7209,21 +7467,24 @@
         <v>58.96</v>
       </c>
       <c r="T86">
+        <v>58.96666666666666</v>
+      </c>
+      <c r="U86">
         <v>0.02812499999999574</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>0.0001131029802634576</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>0.000169635284139158</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0.001697792869270076</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>59.05</v>
@@ -7280,21 +7541,24 @@
         <v>58.97333333333333</v>
       </c>
       <c r="T87">
+        <v>58.98333333333333</v>
+      </c>
+      <c r="U87">
         <v>0.02187499999999432</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>0.0001130901894261793</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>0.0002261420171867368</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>0.0008474576271186862</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>59.1</v>
@@ -7351,21 +7615,24 @@
         <v>58.98</v>
       </c>
       <c r="T88">
+        <v>59.05</v>
+      </c>
+      <c r="U88">
         <v>0.01875000000000426</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>0.0001696161022219922</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>0.0001130454442686002</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>0.0008467400508045397</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>59.05</v>
@@ -7422,21 +7689,24 @@
         <v>58.98333333333333</v>
       </c>
       <c r="T89">
+        <v>59.06666666666666</v>
+      </c>
+      <c r="U89">
         <v>0.02187499999999432</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>5.652911249298676E-05</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>5.651633322045768E-05</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>-0.0008460236886633776</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>58.95</v>
@@ -7493,21 +7763,24 @@
         <v>58.98</v>
       </c>
       <c r="T90">
+        <v>59.03333333333333</v>
+      </c>
+      <c r="U90">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>5.652591713301014E-05</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>-5.651313930499224E-05</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>-0.001693480101608746</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>59</v>
@@ -7564,21 +7837,24 @@
         <v>58.98999999999999</v>
       </c>
       <c r="T91">
+        <v>59</v>
+      </c>
+      <c r="U91">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U91">
-        <v>0</v>
-      </c>
       <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
         <v>0.000169548999660929</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>0.0008481764206953457</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>58.95</v>
@@ -7635,21 +7911,24 @@
         <v>58.99666666666667</v>
       </c>
       <c r="T92">
+        <v>58.96666666666667</v>
+      </c>
+      <c r="U92">
         <v>0.01250000000000284</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>-5.652272213441112E-05</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>0.0001130135051139458</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>-0.0008474576271185752</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>59.2</v>
@@ -7706,21 +7985,24 @@
         <v>59.01000000000001</v>
       </c>
       <c r="T93">
+        <v>59.05</v>
+      </c>
+      <c r="U93">
         <v>0.02812499999999574</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>0.0001978407099656465</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>0.0002260014690096401</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>0.004240882103477617</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>59.3</v>
@@ -7777,21 +8059,24 @@
         <v>59.03</v>
       </c>
       <c r="T94">
+        <v>59.15000000000001</v>
+      </c>
+      <c r="U94">
         <v>0.046875</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>0.0002543163129784531</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>0.0003389256058294876</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>0.001689189189189033</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>59.35</v>
@@ -7848,21 +8133,24 @@
         <v>59.05333333333333</v>
       </c>
       <c r="T95">
+        <v>59.28333333333333</v>
+      </c>
+      <c r="U95">
         <v>0.06249999999999289</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>0.0001977512853834629</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>0.0003952792365464752</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>0.000843170320404818</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>59.4</v>
@@ -7919,21 +8207,24 @@
         <v>59.08000000000001</v>
       </c>
       <c r="T96">
+        <v>59.35</v>
+      </c>
+      <c r="U96">
         <v>0.07499999999999574</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>0.0002259567857645361</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>0.0004515692029805063</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>0.0008424599831506896</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>59.35</v>
@@ -7990,21 +8281,24 @@
         <v>59.10666666666667</v>
       </c>
       <c r="T97">
+        <v>59.36666666666667</v>
+      </c>
+      <c r="U97">
         <v>0.09062499999999574</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>0.0001694293056222484</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>0.0004513653802753481</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>-0.0008417508417507547</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>59.3</v>
@@ -8061,21 +8355,24 @@
         <v>59.12666666666667</v>
       </c>
       <c r="T98">
+        <v>59.35</v>
+      </c>
+      <c r="U98">
         <v>0.1124999999999972</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>0.0001694006041954577</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>0.0003383713061131388</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>-0.0008424599831509116</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>59.3</v>
@@ -8132,21 +8429,24 @@
         <v>59.14666666666667</v>
       </c>
       <c r="T99">
+        <v>59.31666666666666</v>
+      </c>
+      <c r="U99">
         <v>0.1312499999999943</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>0.0001693719124911119</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>0.000338256849701235</v>
       </c>
-      <c r="W99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23">
+      <c r="X99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>59.3</v>
@@ -8203,21 +8503,24 @@
         <v>59.17333333333333</v>
       </c>
       <c r="T100">
+        <v>59.29999999999999</v>
+      </c>
+      <c r="U100">
         <v>0.15625</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>0.0001693432305043263</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>0.0004508566275924775</v>
       </c>
-      <c r="W100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23">
+      <c r="X100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>59.1</v>
@@ -8274,21 +8577,24 @@
         <v>59.18</v>
       </c>
       <c r="T101">
+        <v>59.23333333333333</v>
+      </c>
+      <c r="U101">
         <v>0.1312499999999943</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>0.0001410954651919205</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>0.0001126633618746542</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>-0.003372681281618828</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>59.1</v>
@@ -8345,21 +8651,24 @@
         <v>59.18333333333333</v>
       </c>
       <c r="T102">
+        <v>59.16666666666666</v>
+      </c>
+      <c r="U102">
         <v>0.1000000000000014</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>0.0001410755600699254</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>5.63253351357762E-05</v>
       </c>
-      <c r="W102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23">
+      <c r="X102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>59.1</v>
@@ -8416,21 +8725,24 @@
         <v>59.18333333333333</v>
       </c>
       <c r="T103">
+        <v>59.1</v>
+      </c>
+      <c r="U103">
         <v>0.06562500000000426</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>5.642226422564178E-05</v>
       </c>
-      <c r="V103">
-        <v>0</v>
-      </c>
       <c r="W103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:23">
+      <c r="X103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>59.1</v>
@@ -8487,21 +8799,24 @@
         <v>59.18666666666666</v>
       </c>
       <c r="T104">
+        <v>59.1</v>
+      </c>
+      <c r="U104">
         <v>0.02812499999999574</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>5.641908093312331E-05</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>5.632216277096092E-05</v>
       </c>
-      <c r="W104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23">
+      <c r="X104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>59</v>
@@ -8558,21 +8873,24 @@
         <v>59.19</v>
       </c>
       <c r="T105">
+        <v>59.06666666666666</v>
+      </c>
+      <c r="U105">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U105">
-        <v>0</v>
-      </c>
       <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
         <v>5.631899076385949E-05</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>-0.001692047377326644</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>59</v>
@@ -8629,21 +8947,24 @@
         <v>59.19</v>
       </c>
       <c r="T106">
+        <v>59.03333333333334</v>
+      </c>
+      <c r="U106">
         <v>-0.05312500000000142</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>8.462384700003156E-05</v>
       </c>
-      <c r="V106">
-        <v>0</v>
-      </c>
       <c r="W106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:23">
+      <c r="X106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>59</v>
@@ -8700,21 +9021,24 @@
         <v>59.19333333333334</v>
       </c>
       <c r="T107">
+        <v>59</v>
+      </c>
+      <c r="U107">
         <v>-0.09062500000000284</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>8.461668641057685E-05</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>5.631581911358374E-05</v>
       </c>
-      <c r="W107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23">
+      <c r="X107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>59.15</v>
@@ -8771,21 +9095,24 @@
         <v>59.18999999999999</v>
       </c>
       <c r="T108">
+        <v>59.05</v>
+      </c>
+      <c r="U108">
         <v>-0.1218749999999957</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>8.460952703281954E-05</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>-5.631264782091083E-05</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>0.002542372881355837</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>59</v>
@@ -8842,21 +9169,24 @@
         <v>59.16999999999999</v>
       </c>
       <c r="T109">
+        <v>59.05</v>
+      </c>
+      <c r="U109">
         <v>-0.1218749999999886</v>
       </c>
-      <c r="U109">
-        <v>0</v>
-      </c>
       <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
         <v>-0.0003378949146815025</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>-0.002535925612848655</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>59</v>
@@ -8913,21 +9243,24 @@
         <v>59.14666666666666</v>
       </c>
       <c r="T110">
+        <v>59.05</v>
+      </c>
+      <c r="U110">
         <v>-0.1156249999999943</v>
       </c>
-      <c r="U110">
-        <v>0</v>
-      </c>
       <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
         <v>-0.0003943439806207705</v>
       </c>
-      <c r="W110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23">
+      <c r="X110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>59</v>
@@ -8984,21 +9317,24 @@
         <v>59.12</v>
       </c>
       <c r="T111">
+        <v>59</v>
+      </c>
+      <c r="U111">
         <v>-0.1062499999999957</v>
       </c>
-      <c r="U111">
-        <v>0</v>
-      </c>
       <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
         <v>-0.0004508566275923664</v>
       </c>
-      <c r="W111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23">
+      <c r="X111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>59</v>
@@ -9055,21 +9391,24 @@
         <v>59.09666666666666</v>
       </c>
       <c r="T112">
+        <v>59</v>
+      </c>
+      <c r="U112">
         <v>-0.09374999999999289</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>2.82007896221792E-05</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>-0.0003946774921064211</v>
       </c>
-      <c r="W112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23">
+      <c r="X112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>58.95</v>
@@ -9126,21 +9465,24 @@
         <v>59.07333333333334</v>
       </c>
       <c r="T113">
+        <v>58.98333333333333</v>
+      </c>
+      <c r="U113">
         <v>-0.07499999999999574</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>-2.819999436010079E-05</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>-0.0003948333239324198</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>-0.0008474576271185752</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>59</v>
@@ -9197,21 +9539,24 @@
         <v>59.05333333333333</v>
       </c>
       <c r="T114">
+        <v>58.98333333333333</v>
+      </c>
+      <c r="U114">
         <v>-0.05624999999999858</v>
       </c>
-      <c r="U114">
-        <v>0</v>
-      </c>
       <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
         <v>-0.0003385622390250642</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>0.0008481764206953457</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>59.05</v>
@@ -9268,21 +9613,24 @@
         <v>59.03666666666666</v>
       </c>
       <c r="T115">
+        <v>59</v>
+      </c>
+      <c r="U115">
         <v>-0.03437499999999005</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>8.460236886631556E-05</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>-0.0002822307518627332</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>0.0008474576271186862</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>59.2</v>
@@ -9339,21 +9687,24 @@
         <v>59.04333333333333</v>
       </c>
       <c r="T116">
+        <v>59.08333333333334</v>
+      </c>
+      <c r="U116">
         <v>-0.02187500000000142</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>0.0001127936158813458</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>0.0001129241714188378</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>0.002540220152413397</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>58.65</v>
@@ -9410,21 +9761,24 @@
         <v>59.01333333333333</v>
       </c>
       <c r="T117">
+        <v>58.96666666666667</v>
+      </c>
+      <c r="U117">
         <v>-0.03750000000000142</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>-0.0002255617898326845</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>-0.0005081013944561175</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>-0.009290540540540571</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>58.75</v>
@@ -9481,21 +9835,24 @@
         <v>58.99</v>
       </c>
       <c r="T118">
+        <v>58.86666666666667</v>
+      </c>
+      <c r="U118">
         <v>-0.04687500000000711</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>-0.0001974110945035523</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>-0.0003953908721191501</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>0.001705029838022121</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>58.85</v>
@@ -9552,21 +9909,24 @@
         <v>58.97333333333334</v>
       </c>
       <c r="T119">
+        <v>58.75</v>
+      </c>
+      <c r="U119">
         <v>-0.05000000000000426</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>-0.0001128286133363909</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>-0.0002825337627846425</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>0.001702127659574559</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>58.9</v>
@@ -9623,21 +9983,24 @@
         <v>58.96666666666667</v>
       </c>
       <c r="T120">
+        <v>58.83333333333334</v>
+      </c>
+      <c r="U120">
         <v>-0.05000000000000426</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>-2.821033626720926E-05</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>-0.0001130454442686002</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>0.000849617672047609</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>59.05</v>
@@ -9694,21 +10057,24 @@
         <v>58.97</v>
       </c>
       <c r="T121">
+        <v>58.93333333333334</v>
+      </c>
+      <c r="U121">
         <v>-0.04062499999999858</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>2.821113211259885E-05</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>5.652911249298676E-05</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>0.002546689303905003</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>59.05</v>
@@ -9765,21 +10131,24 @@
         <v>58.97333333333334</v>
       </c>
       <c r="T122">
+        <v>59</v>
+      </c>
+      <c r="U122">
         <v>-0.03750000000000142</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>5.642067253441851E-05</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>5.652591713301014E-05</v>
       </c>
-      <c r="W122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23">
+      <c r="X122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>59.2</v>
@@ -9836,21 +10205,24 @@
         <v>58.97666666666667</v>
       </c>
       <c r="T123">
+        <v>59.1</v>
+      </c>
+      <c r="U123">
         <v>-0.03125</v>
       </c>
-      <c r="U123">
-        <v>0</v>
-      </c>
       <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
         <v>5.65227221343001E-05</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>0.002540220152413397</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>59.1</v>
@@ -9907,21 +10279,24 @@
         <v>58.98333333333333</v>
       </c>
       <c r="T124">
+        <v>59.11666666666667</v>
+      </c>
+      <c r="U124">
         <v>-0.04062499999999858</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>-0.0001128349788432903</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>0.0001130390549934912</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>-0.001689189189189255</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>59</v>
@@ -9978,21 +10353,24 @@
         <v>58.98333333333333</v>
       </c>
       <c r="T125">
+        <v>59.1</v>
+      </c>
+      <c r="U125">
         <v>0.003125000000004263</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>-0.0001974834960222216</v>
       </c>
-      <c r="V125">
-        <v>0</v>
-      </c>
       <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
         <v>-0.001692047377326644</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>58.9</v>
@@ -10049,21 +10427,24 @@
         <v>58.97666666666667</v>
       </c>
       <c r="T126">
+        <v>59</v>
+      </c>
+      <c r="U126">
         <v>0.02812499999999574</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>-0.0002821750049382121</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>-0.0001130262786096514</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>-0.001694915254237261</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>59</v>
@@ -10120,21 +10501,24 @@
         <v>58.97666666666667</v>
       </c>
       <c r="T127">
+        <v>58.96666666666667</v>
+      </c>
+      <c r="U127">
         <v>0.04687499999999289</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>-0.0001975782551018046</v>
       </c>
-      <c r="V127">
-        <v>0</v>
-      </c>
       <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
         <v>0.001697792869270076</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>59.05</v>
@@ -10191,21 +10575,24 @@
         <v>58.98333333333333</v>
       </c>
       <c r="T128">
+        <v>58.98333333333333</v>
+      </c>
+      <c r="U128">
         <v>0.0625</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>-0.0001411552142736028</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>0.0001130390549934912</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>0.0008474576271186862</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>59.1</v>
@@ -10262,21 +10649,24 @@
         <v>58.99</v>
       </c>
       <c r="T129">
+        <v>59.05</v>
+      </c>
+      <c r="U129">
         <v>0.05937499999999574</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>-0.0001129401135047114</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>0.0001130262786097624</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>0.0008467400508045397</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>59.15</v>
@@ -10333,21 +10723,24 @@
         <v>58.99666666666667</v>
       </c>
       <c r="T130">
+        <v>59.1</v>
+      </c>
+      <c r="U130">
         <v>0.0625</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>-8.471465281112422E-05</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>0.0001130135051139458</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>0.0008460236886631556</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>59.2</v>
@@ -10404,21 +10797,24 @@
         <v>58.99666666666667</v>
       </c>
       <c r="T131">
+        <v>59.15</v>
+      </c>
+      <c r="U131">
         <v>0.05312499999999432</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>5.648121999435318E-05</v>
       </c>
-      <c r="V131">
-        <v>0</v>
-      </c>
       <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
         <v>0.0008453085376163294</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>59.15</v>
@@ -10475,21 +10871,24 @@
         <v>59.03</v>
       </c>
       <c r="T132">
+        <v>59.16666666666666</v>
+      </c>
+      <c r="U132">
         <v>0.06249999999999289</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>2.823901502324588E-05</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>0.0005650036725237673</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>-0.0008445945945946276</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>59.15</v>
@@ -10546,21 +10945,24 @@
         <v>59.05666666666666</v>
       </c>
       <c r="T133">
+        <v>59.16666666666666</v>
+      </c>
+      <c r="U133">
         <v>0.04999999999999716</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>2.823821760356005E-05</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>0.0004517476989100988</v>
       </c>
-      <c r="W133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23">
+      <c r="X133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>59.2</v>
@@ -10617,21 +11019,24 @@
         <v>59.08000000000001</v>
       </c>
       <c r="T134">
+        <v>59.16666666666666</v>
+      </c>
+      <c r="U134">
         <v>0.05937500000000284</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>5.647484045856466E-05</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>0.0003951007506914905</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>0.0008453085376163294</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>59.15</v>
@@ -10688,21 +11093,24 @@
         <v>59.09666666666667</v>
       </c>
       <c r="T135">
+        <v>59.16666666666666</v>
+      </c>
+      <c r="U135">
         <v>0.05937499999999574</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>8.470747684663493E-05</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>0.0002821033626720926</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>-0.0008445945945946276</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>59.15</v>
@@ -10759,21 +11167,24 @@
         <v>59.10333333333334</v>
       </c>
       <c r="T136">
+        <v>59.16666666666666</v>
+      </c>
+      <c r="U136">
         <v>0.05624999999999858</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>8.470030209761781E-05</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>0.0001128095211235802</v>
       </c>
-      <c r="W136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23">
+      <c r="X136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>59.15</v>
@@ -10830,21 +11241,24 @@
         <v>59.11</v>
       </c>
       <c r="T137">
+        <v>59.15</v>
+      </c>
+      <c r="U137">
         <v>0.05625000000000568</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>8.469312856429489E-05</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>0.0001127967965708354</v>
       </c>
-      <c r="W137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:23">
+      <c r="X137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>59.15</v>
@@ -10901,21 +11315,24 @@
         <v>59.10666666666667</v>
       </c>
       <c r="T138">
+        <v>59.15</v>
+      </c>
+      <c r="U138">
         <v>0.04999999999999716</v>
       </c>
-      <c r="U138">
-        <v>0</v>
-      </c>
       <c r="V138">
+        <v>0</v>
+      </c>
+      <c r="W138">
         <v>-5.63920374442306E-05</v>
       </c>
-      <c r="W138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23">
+      <c r="X138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>59.15</v>
@@ -10972,21 +11389,24 @@
         <v>59.11</v>
       </c>
       <c r="T139">
+        <v>59.15</v>
+      </c>
+      <c r="U139">
         <v>0.04687500000000711</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>8.468595624555597E-05</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>5.639521768552314E-05</v>
       </c>
-      <c r="W139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:23">
+      <c r="X139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>59.1</v>
@@ -11043,21 +11463,24 @@
         <v>59.11666666666667</v>
       </c>
       <c r="T140">
+        <v>59.13333333333333</v>
+      </c>
+      <c r="U140">
         <v>0.04062500000000568</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>5.645252342789675E-05</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>0.0001127840748886833</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>-0.0008453085376162184</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>59</v>
@@ -11114,21 +11537,24 @@
         <v>59.12333333333333</v>
       </c>
       <c r="T141">
+        <v>59.08333333333334</v>
+      </c>
+      <c r="U141">
         <v>0.02187499999999432</v>
       </c>
-      <c r="U141">
-        <v>0</v>
-      </c>
       <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
         <v>0.0001127713560753474</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>-0.001692047377326644</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>59</v>
@@ -11185,21 +11611,24 @@
         <v>59.12333333333333</v>
       </c>
       <c r="T142">
+        <v>59.03333333333333</v>
+      </c>
+      <c r="U142">
         <v>-0.009374999999991473</v>
       </c>
-      <c r="U142">
-        <v>0</v>
-      </c>
       <c r="V142">
         <v>0</v>
       </c>
       <c r="W142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:23">
+      <c r="X142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>59</v>
@@ -11256,21 +11685,24 @@
         <v>59.12</v>
       </c>
       <c r="T143">
+        <v>59</v>
+      </c>
+      <c r="U143">
         <v>-0.02812499999998863</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>2.822466836027715E-05</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>-5.637932006530288E-05</v>
       </c>
-      <c r="W143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:23">
+      <c r="X143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>59</v>
@@ -11327,21 +11759,24 @@
         <v>59.11333333333333</v>
       </c>
       <c r="T144">
+        <v>59</v>
+      </c>
+      <c r="U144">
         <v>-0.04375000000000284</v>
       </c>
-      <c r="U144">
-        <v>0</v>
-      </c>
       <c r="V144">
+        <v>0</v>
+      </c>
+      <c r="W144">
         <v>-0.0001127649977447076</v>
       </c>
-      <c r="W144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:23">
+      <c r="X144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>59</v>
@@ -11398,21 +11833,24 @@
         <v>59.10333333333333</v>
       </c>
       <c r="T145">
+        <v>59</v>
+      </c>
+      <c r="U145">
         <v>-0.05624999999999858</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>-2.822387175083207E-05</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>-0.0001691665726851754</v>
       </c>
-      <c r="W145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:23">
+      <c r="X145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>59</v>
@@ -11469,21 +11907,24 @@
         <v>59.09</v>
       </c>
       <c r="T146">
+        <v>59</v>
+      </c>
+      <c r="U146">
         <v>-0.06562499999999716</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>-0.0001128986734404425</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>-0.0002255935931420039</v>
       </c>
-      <c r="W146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:23">
+      <c r="X146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>59.2</v>
@@ -11540,21 +11981,24 @@
         <v>59.09333333333333</v>
       </c>
       <c r="T147">
+        <v>59.06666666666666</v>
+      </c>
+      <c r="U147">
         <v>-0.05937499999999574</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>0.0003105064077228992</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>5.641112427379191E-05</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>0.003389830508474523</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>59.1</v>
@@ -11611,21 +12055,24 @@
         <v>59.09</v>
       </c>
       <c r="T148">
+        <v>59.1</v>
+      </c>
+      <c r="U148">
         <v>-0.05624999999999858</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>0.0001975336512687331</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>-5.640794223826795E-05</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>-0.001689189189189255</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>59.3</v>
@@ -11682,21 +12129,24 @@
         <v>59.09666666666667</v>
       </c>
       <c r="T149">
+        <v>59.2</v>
+      </c>
+      <c r="U149">
         <v>-0.02812500000000284</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>0.0002539216792687427</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>0.0001128222485473618</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>0.003384094754653066</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>59.3</v>
@@ -11753,21 +12203,24 @@
         <v>59.10666666666666</v>
       </c>
       <c r="T150">
+        <v>59.23333333333333</v>
+      </c>
+      <c r="U150">
         <v>0.003125000000004263</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>0.0002256508617042297</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>0.0001692142816851483</v>
       </c>
-      <c r="W150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:23">
+      <c r="X150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>59.3</v>
@@ -11824,21 +12277,24 @@
         <v>59.11666666666667</v>
       </c>
       <c r="T151">
+        <v>59.3</v>
+      </c>
+      <c r="U151">
         <v>0.03125</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>0.0001409999718000599</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>0.0001691856530567915</v>
       </c>
-      <c r="W151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23">
+      <c r="X151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>59.4</v>
@@ -11895,21 +12351,24 @@
         <v>59.13333333333333</v>
       </c>
       <c r="T152">
+        <v>59.33333333333334</v>
+      </c>
+      <c r="U152">
         <v>0.06562500000000426</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>0.0001973721310550847</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>0.0002819283901889236</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>0.001686340640809414</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>59.3</v>
@@ -11966,21 +12425,24 @@
         <v>59.14333333333333</v>
       </c>
       <c r="T153">
+        <v>59.33333333333334</v>
+      </c>
+      <c r="U153">
         <v>0.09375000000000711</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>5.63809094240586E-05</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>0.000169109357384345</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>-0.001683501683501731</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>59.3</v>
@@ -12037,21 +12499,24 @@
         <v>59.15333333333334</v>
       </c>
       <c r="T154">
+        <v>59.33333333333334</v>
+      </c>
+      <c r="U154">
         <v>0.1218749999999886</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>0.0001127554615925064</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>0.0001690807642451553</v>
       </c>
-      <c r="W154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:23">
+      <c r="X154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>59.35</v>
@@ -12108,21 +12573,24 @@
         <v>59.17</v>
       </c>
       <c r="T155">
+        <v>59.31666666666666</v>
+      </c>
+      <c r="U155">
         <v>0.1281249999999901</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>0.0001972998111559043</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>0.0002817536346217953</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>0.000843170320404818</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>59.35</v>
@@ -12179,21 +12647,24 @@
         <v>59.19333333333334</v>
       </c>
       <c r="T156">
+        <v>59.33333333333334</v>
+      </c>
+      <c r="U156">
         <v>0.1437500000000043</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>0.0002536211463675109</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>0.0003943439806208815</v>
       </c>
-      <c r="W156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23">
+      <c r="X156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>59.3</v>
@@ -12250,21 +12721,24 @@
         <v>59.21333333333334</v>
       </c>
       <c r="T157">
+        <v>59.33333333333334</v>
+      </c>
+      <c r="U157">
         <v>0.125</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>0.0001690378926608727</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>0.0003378758869243548</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>-0.0008424599831509116</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>59.45</v>
@@ -12321,21 +12795,24 @@
         <v>59.24333333333333</v>
       </c>
       <c r="T158">
+        <v>59.36666666666667</v>
+      </c>
+      <c r="U158">
         <v>0.1156250000000014</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>0.0002253457649079582</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>0.0005066426480522246</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>0.002529510961214232</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>59.55</v>
@@ -12392,21 +12869,24 @@
         <v>59.28</v>
       </c>
       <c r="T159">
+        <v>59.43333333333334</v>
+      </c>
+      <c r="U159">
         <v>0.1124999999999972</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>0.0002534568700893747</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>0.0006189163337646519</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>0.001682085786375076</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>59.35</v>
@@ -12463,21 +12943,24 @@
         <v>59.30333333333333</v>
       </c>
       <c r="T160">
+        <v>59.45</v>
+      </c>
+      <c r="U160">
         <v>0.08437499999999432</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>0.0001126189537701272</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>0.0003936122357175442</v>
       </c>
-      <c r="W160">
+      <c r="X160">
         <v>-0.003358522250209828</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>59.3</v>
@@ -12534,21 +13017,24 @@
         <v>59.32333333333334</v>
       </c>
       <c r="T161">
+        <v>59.4</v>
+      </c>
+      <c r="U161">
         <v>0.06562499999999716</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>5.630313608473436E-05</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>0.0003372491709292547</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>-0.0008424599831509116</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>59.4</v>
@@ -12605,21 +13091,24 @@
         <v>59.33666666666667</v>
       </c>
       <c r="T162">
+        <v>59.35</v>
+      </c>
+      <c r="U162">
         <v>0.05312499999999432</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>0.0001407499155501313</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>0.0002247569815136963</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>0.001686340640809414</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>59.3</v>
@@ -12676,21 +13165,24 @@
         <v>59.35</v>
       </c>
       <c r="T163">
+        <v>59.33333333333334</v>
+      </c>
+      <c r="U163">
         <v>0.04062500000000568</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>8.443806467961501E-05</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>0.000224706477164327</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>-0.001683501683501731</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>59.4</v>
@@ -12747,21 +13239,24 @@
         <v>59.35666666666667</v>
       </c>
       <c r="T164">
+        <v>59.36666666666667</v>
+      </c>
+      <c r="U164">
         <v>0.02812499999999574</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>0.0001125745806596079</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>0.0001123279977535141</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>0.001686340640809414</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>59.35</v>
@@ -12818,21 +13313,24 @@
         <v>59.36000000000001</v>
       </c>
       <c r="T165">
+        <v>59.35</v>
+      </c>
+      <c r="U165">
         <v>0.03125</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>0.0001125619090500685</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>5.615769079581057E-05</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>-0.0008417508417507547</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>59.35</v>
@@ -12889,21 +13387,24 @@
         <v>59.36333333333333</v>
       </c>
       <c r="T166">
+        <v>59.36666666666667</v>
+      </c>
+      <c r="U166">
         <v>0.015625</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>0.000112549240292692</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>5.6154537286357E-05</v>
       </c>
-      <c r="W166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:23">
+      <c r="X166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>59.4</v>
@@ -12960,21 +13461,24 @@
         <v>59.36333333333334</v>
       </c>
       <c r="T167">
+        <v>59.36666666666667</v>
+      </c>
+      <c r="U167">
         <v>-0.009374999999991473</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>0.0001406707179834044</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>0.0008424599831506896</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>59.3</v>
@@ -13031,21 +13535,24 @@
         <v>59.36333333333334</v>
       </c>
       <c r="T168">
+        <v>59.35</v>
+      </c>
+      <c r="U168">
         <v>-0.009374999999998579</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>8.439055950937302E-05</v>
       </c>
-      <c r="V168">
-        <v>0</v>
-      </c>
       <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="X168">
         <v>-0.001683501683501731</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>59.25</v>
@@ -13102,21 +13609,24 @@
         <v>59.36</v>
       </c>
       <c r="T169">
+        <v>59.31666666666666</v>
+      </c>
+      <c r="U169">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>5.625562556255126E-05</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>-5.615138413173071E-05</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>-0.000843170320404707</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>59.45</v>
@@ -13173,21 +13683,24 @@
         <v>59.36666666666667</v>
       </c>
       <c r="T170">
+        <v>59.33333333333334</v>
+      </c>
+      <c r="U170">
         <v>-0.01562499999999289</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>0.0001968836136581054</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>0.0001123090745731581</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>0.00337552742616043</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>59.35</v>
@@ -13244,21 +13757,24 @@
         <v>59.36666666666667</v>
       </c>
       <c r="T171">
+        <v>59.35</v>
+      </c>
+      <c r="U171">
         <v>-0.009374999999991473</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>0.0001968448581310955</v>
       </c>
-      <c r="V171">
-        <v>0</v>
-      </c>
       <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
         <v>-0.001682085786375076</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>59.35</v>
@@ -13315,21 +13831,24 @@
         <v>59.37</v>
       </c>
       <c r="T172">
+        <v>59.38333333333333</v>
+      </c>
+      <c r="U172">
         <v>-0.015625</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>0.0001968061178587721</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>5.614823133059943E-05</v>
       </c>
-      <c r="W172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:23">
+      <c r="X172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>59.35</v>
@@ -13386,21 +13905,24 @@
         <v>59.36333333333334</v>
       </c>
       <c r="T173">
+        <v>59.35</v>
+      </c>
+      <c r="U173">
         <v>-0.01874999999999716</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>0.0001967673928320313</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>-0.0001122901577675917</v>
       </c>
-      <c r="W173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:23">
+      <c r="X173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>59.35</v>
@@ -13457,21 +13979,24 @@
         <v>59.35</v>
       </c>
       <c r="T174">
+        <v>59.35</v>
+      </c>
+      <c r="U174">
         <v>-0.01250000000000995</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>0.0001967286830419912</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>-0.0002246055365264787</v>
       </c>
-      <c r="W174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:23">
+      <c r="X174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>59.25</v>
@@ -13528,21 +14053,24 @@
         <v>59.34333333333333</v>
       </c>
       <c r="T175">
+        <v>59.31666666666666</v>
+      </c>
+      <c r="U175">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>0.0001404928489141533</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>-0.0001123279977534031</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>-0.001684919966301601</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>59.25</v>
@@ -13599,21 +14127,24 @@
         <v>59.34</v>
       </c>
       <c r="T176">
+        <v>59.28333333333334</v>
+      </c>
+      <c r="U176">
         <v>-0.01249999999999574</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>0.0001404731134460047</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>-5.617030837490322E-05</v>
       </c>
-      <c r="W176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:23">
+      <c r="X176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>59.25</v>
@@ -13670,21 +14201,24 @@
         <v>59.33000000000001</v>
       </c>
       <c r="T177">
+        <v>59.25</v>
+      </c>
+      <c r="U177">
         <v>-0.009374999999998579</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>2.809067670450638E-05</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>-0.0001685203909672639</v>
       </c>
-      <c r="W177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:23">
+      <c r="X177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>59.45</v>
@@ -13741,21 +14275,24 @@
         <v>59.34</v>
       </c>
       <c r="T178">
+        <v>59.31666666666666</v>
+      </c>
+      <c r="U178">
         <v>-0.01249999999999574</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>0.0001966292134831793</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>0.0001685487948761555</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>0.00337552742616043</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>59.45</v>
@@ -13812,21 +14349,24 @@
         <v>59.34333333333333</v>
       </c>
       <c r="T179">
+        <v>59.38333333333333</v>
+      </c>
+      <c r="U179">
         <v>-0.009374999999998579</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>8.425309630122335E-05</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>5.617346365571763E-05</v>
       </c>
-      <c r="W179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:23">
+      <c r="X179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>59.45</v>
@@ -13883,21 +14423,24 @@
         <v>59.35</v>
       </c>
       <c r="T180">
-        <v>0</v>
+        <v>59.45000000000001</v>
       </c>
       <c r="U180">
+        <v>0</v>
+      </c>
+      <c r="V180">
         <v>8.424599831502455E-05</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>0.0001123406167500285</v>
       </c>
-      <c r="W180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:23">
+      <c r="X180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>59.4</v>
@@ -13954,21 +14497,24 @@
         <v>59.35333333333334</v>
       </c>
       <c r="T181">
+        <v>59.43333333333334</v>
+      </c>
+      <c r="U181">
         <v>0.003125000000004263</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>5.615926768309798E-05</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>5.616399887675705E-05</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>-0.000841042893187649</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>59.5</v>
@@ -14025,21 +14571,24 @@
         <v>59.36000000000001</v>
       </c>
       <c r="T182">
+        <v>59.45</v>
+      </c>
+      <c r="U182">
         <v>0.01249999999999574</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>5.615611399689691E-05</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>0.0001123216893181844</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>0.001683501683501731</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>59.5</v>
@@ -14096,21 +14645,24 @@
         <v>59.37333333333333</v>
       </c>
       <c r="T183">
+        <v>59.46666666666667</v>
+      </c>
+      <c r="U183">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>0.000112305921329714</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>0.0002246181491463162</v>
       </c>
-      <c r="W183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:23">
+      <c r="X183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>59.5</v>
@@ -14167,21 +14719,24 @@
         <v>59.39</v>
       </c>
       <c r="T184">
+        <v>59.5</v>
+      </c>
+      <c r="U184">
         <v>0.05624999999999858</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>0.000112293310126077</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>0.0002807096339545456</v>
       </c>
-      <c r="W184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:23">
+      <c r="X184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>59.5</v>
@@ -14238,21 +14793,24 @@
         <v>59.39333333333334</v>
       </c>
       <c r="T185">
+        <v>59.5</v>
+      </c>
+      <c r="U185">
         <v>0.07187499999999858</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>8.421052631568671E-05</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>5.612617163386346E-05</v>
       </c>
-      <c r="W185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:23">
+      <c r="X185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>59.5</v>
@@ -14309,21 +14867,24 @@
         <v>59.40333333333334</v>
       </c>
       <c r="T186">
+        <v>59.5</v>
+      </c>
+      <c r="U186">
         <v>0.07499999999999574</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>8.420343550019638E-05</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>0.0001683690649905145</v>
       </c>
-      <c r="W186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:23">
+      <c r="X186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>59.55</v>
@@ -14380,21 +14941,24 @@
         <v>59.41666666666666</v>
       </c>
       <c r="T187">
+        <v>59.51666666666666</v>
+      </c>
+      <c r="U187">
         <v>0.07499999999999574</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>0.0001403272431310665</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>0.0002244542954938922</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>0.0008403361344537785</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>59.5</v>
@@ -14451,21 +15015,24 @@
         <v>59.42666666666666</v>
       </c>
       <c r="T188">
+        <v>59.51666666666666</v>
+      </c>
+      <c r="U188">
         <v>0.07187499999999858</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>2.80615108316784E-05</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>0.0001683029453014573</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>-0.0008396305625524292</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>59.55</v>
@@ -14522,21 +15089,24 @@
         <v>59.44</v>
       </c>
       <c r="T189">
+        <v>59.53333333333333</v>
+      </c>
+      <c r="U189">
         <v>0.07812499999999289</v>
       </c>
-      <c r="U189">
-        <v>0</v>
-      </c>
       <c r="V189">
+        <v>0</v>
+      </c>
+      <c r="W189">
         <v>0.0002243661655823015</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>0.0008403361344537785</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>59.6</v>
@@ -14593,21 +15163,24 @@
         <v>59.46333333333333</v>
       </c>
       <c r="T190">
+        <v>59.55</v>
+      </c>
+      <c r="U190">
         <v>0.07500000000000284</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>0.0001403036170271044</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>0.0003925527142214502</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>0.0008396305625526512</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>59.55</v>
@@ -14664,21 +15237,24 @@
         <v>59.48333333333333</v>
       </c>
       <c r="T191">
+        <v>59.56666666666666</v>
+      </c>
+      <c r="U191">
         <v>0.0625</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>0.0001402839346837936</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>0.0003363417231907473</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>-0.000838926174496768</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>59.55</v>
@@ -14735,21 +15311,24 @@
         <v>59.50333333333333</v>
       </c>
       <c r="T192">
+        <v>59.56666666666666</v>
+      </c>
+      <c r="U192">
         <v>0.04999999999999716</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>8.415855471710643E-05</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>0.0003362286354720023</v>
       </c>
-      <c r="W192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:23">
+      <c r="X192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>59.5</v>
@@ -14806,21 +15385,24 @@
         <v>59.50666666666667</v>
       </c>
       <c r="T193">
+        <v>59.53333333333333</v>
+      </c>
+      <c r="U193">
         <v>0.03437499999999716</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>0.0001122019635344529</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>5.601927062914847E-05</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>-0.0008396305625524292</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>59.5</v>
@@ -14877,21 +15459,24 @@
         <v>59.51</v>
       </c>
       <c r="T194">
+        <v>59.51666666666667</v>
+      </c>
+      <c r="U194">
         <v>0.03124999999999289</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>5.609468783318583E-05</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>5.60161326461639E-05</v>
       </c>
-      <c r="W194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:23">
+      <c r="X194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>59.5</v>
@@ -14948,21 +15533,24 @@
         <v>59.51333333333333</v>
       </c>
       <c r="T195">
+        <v>59.5</v>
+      </c>
+      <c r="U195">
         <v>0.02187500000000142</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>8.413731209322428E-05</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>5.601299501489798E-05</v>
       </c>
-      <c r="W195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:23">
+      <c r="X195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>59.4</v>
@@ -15019,21 +15607,24 @@
         <v>59.51333333333333</v>
       </c>
       <c r="T196">
+        <v>59.46666666666667</v>
+      </c>
+      <c r="U196">
         <v>0.01250000000000995</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>2.80434112005512E-05</v>
       </c>
-      <c r="V196">
-        <v>0</v>
-      </c>
       <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
         <v>-0.001680672268907557</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>59.5</v>
@@ -15090,21 +15681,24 @@
         <v>59.51333333333333</v>
       </c>
       <c r="T197">
+        <v>59.46666666666667</v>
+      </c>
+      <c r="U197">
         <v>7.105427357601002E-15</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>5.608524957922967E-05</v>
       </c>
-      <c r="V197">
-        <v>0</v>
-      </c>
       <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
         <v>0.001683501683501731</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>59.5</v>
@@ -15161,21 +15755,24 @@
         <v>59.51333333333333</v>
       </c>
       <c r="T198">
+        <v>59.46666666666667</v>
+      </c>
+      <c r="U198">
         <v>-0.01249999999999574</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>0.0001121642084012109</v>
       </c>
-      <c r="V198">
-        <v>0</v>
-      </c>
       <c r="W198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:23">
+      <c r="X198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>59.55</v>
@@ -15232,21 +15829,24 @@
         <v>59.51666666666667</v>
       </c>
       <c r="T199">
+        <v>59.51666666666666</v>
+      </c>
+      <c r="U199">
         <v>-0.015625</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>0.0001682274435035325</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>5.600985773512868E-05</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>0.0008403361344537785</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>59.45</v>
@@ -15303,21 +15903,24 @@
         <v>59.51333333333333</v>
       </c>
       <c r="T200">
+        <v>59.5</v>
+      </c>
+      <c r="U200">
         <v>-0.02499999999999147</v>
       </c>
-      <c r="U200">
-        <v>0</v>
-      </c>
       <c r="V200">
+        <v>0</v>
+      </c>
+      <c r="W200">
         <v>-5.600672080652291E-05</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>-0.001679261125104858</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>59.35</v>
@@ -15374,21 +15977,24 @@
         <v>59.50333333333333</v>
       </c>
       <c r="T201">
+        <v>59.45</v>
+      </c>
+      <c r="U201">
         <v>-0.03437499999999716</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>-0.0001680295732048309</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>-0.001682085786375076</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>59.3</v>
@@ -15445,21 +16051,24 @@
         <v>59.48666666666666</v>
       </c>
       <c r="T202">
+        <v>59.36666666666667</v>
+      </c>
+      <c r="U202">
         <v>-0.04687499999999289</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>-2.803319129862647E-05</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>-0.0002800963531455203</v>
       </c>
-      <c r="W202">
+      <c r="X202">
         <v>-0.0008424599831509116</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>59.25</v>
@@ -15516,21 +16125,24 @@
         <v>59.47</v>
       </c>
       <c r="T203">
+        <v>59.29999999999999</v>
+      </c>
+      <c r="U203">
         <v>-0.05937499999999574</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>-5.606795436063905E-05</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>-0.0002801748290933714</v>
       </c>
-      <c r="W203">
+      <c r="X203">
         <v>-0.000843170320404707</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>59.3</v>
@@ -15587,21 +16199,24 @@
         <v>59.45333333333333</v>
       </c>
       <c r="T204">
+        <v>59.28333333333333</v>
+      </c>
+      <c r="U204">
         <v>-0.05937500000000284</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>-2.803554907615524E-05</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>-0.0002802533490274817</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>0.0008438818565399409</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>59.55</v>
@@ -15658,21 +16273,24 @@
         <v>59.45</v>
       </c>
       <c r="T205">
+        <v>59.36666666666667</v>
+      </c>
+      <c r="U205">
         <v>-0.05312499999999432</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>0.0001682180105415654</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>-5.606638259691987E-05</v>
       </c>
-      <c r="W205">
+      <c r="X205">
         <v>0.004215851602023646</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>59.4</v>
@@ -15729,21 +16347,24 @@
         <v>59.43999999999999</v>
       </c>
       <c r="T206">
+        <v>59.41666666666666</v>
+      </c>
+      <c r="U206">
         <v>-0.05312500000000142</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>8.40948590010715E-05</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>-0.0001682085786377518</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>-0.002518891687657399</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>59.35</v>
@@ -15800,21 +16421,24 @@
         <v>59.42666666666666</v>
       </c>
       <c r="T207">
+        <v>59.43333333333334</v>
+      </c>
+      <c r="U207">
         <v>-0.06562499999999005</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>5.605852510015552E-05</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>-0.0002243158366980191</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>-0.0008417508417507547</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>59.1</v>
@@ -15871,21 +16495,24 @@
         <v>59.4</v>
       </c>
       <c r="T208">
+        <v>59.28333333333333</v>
+      </c>
+      <c r="U208">
         <v>-0.08125000000000426</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>-0.0001961938395134144</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>-0.0004487323311643809</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>-0.004212299915754003</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>59.35</v>
@@ -15942,21 +16569,24 @@
         <v>59.39</v>
       </c>
       <c r="T209">
+        <v>59.26666666666667</v>
+      </c>
+      <c r="U209">
         <v>-0.07187499999999858</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>-5.606638259703089E-05</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>-0.0001683501683501509</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>0.004230118443316444</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>59.3</v>
@@ -16013,21 +16643,24 @@
         <v>59.37666666666667</v>
       </c>
       <c r="T210">
+        <v>59.25</v>
+      </c>
+      <c r="U210">
         <v>-0.05937499999999574</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>-8.410428931882041E-05</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>-0.0002245046865353428</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>-0.0008424599831509116</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>59.45</v>
@@ -16084,21 +16717,24 @@
         <v>59.38</v>
       </c>
       <c r="T211">
+        <v>59.36666666666667</v>
+      </c>
+      <c r="U211">
         <v>-0.03125</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>2.803712114851642E-05</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>5.613877505195042E-05</v>
       </c>
-      <c r="W211">
+      <c r="X211">
         <v>0.002529510961214232</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>59.4</v>
@@ -16155,21 +16791,24 @@
         <v>59.37333333333333</v>
       </c>
       <c r="T212">
+        <v>59.38333333333333</v>
+      </c>
+      <c r="U212">
         <v>-0.01875000000000426</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>-5.607267018048478E-05</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>-0.0001122712473335952</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>-0.000841042893187649</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>59.3</v>
@@ -16226,21 +16865,24 @@
         <v>59.36</v>
       </c>
       <c r="T213">
+        <v>59.38333333333333</v>
+      </c>
+      <c r="U213">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>-0.000112151629002466</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>-0.0002245677071637253</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>-0.001683501683501731</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>59.35</v>
@@ -16297,21 +16939,24 @@
         <v>59.34666666666666</v>
       </c>
       <c r="T214">
+        <v>59.35</v>
+      </c>
+      <c r="U214">
         <v>-0.03437499999999716</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>-8.412315630101919E-05</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>-0.0002246181491465382</v>
       </c>
-      <c r="W214">
+      <c r="X214">
         <v>0.000843170320404818</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>59.5</v>
@@ -16368,21 +17013,24 @@
         <v>59.35</v>
       </c>
       <c r="T215">
+        <v>59.38333333333333</v>
+      </c>
+      <c r="U215">
         <v>-0.01249999999999574</v>
       </c>
-      <c r="U215">
-        <v>0</v>
-      </c>
       <c r="V215">
+        <v>0</v>
+      </c>
+      <c r="W215">
         <v>5.616715344869405E-05</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>0.002527379949452291</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>59.55</v>
@@ -16439,21 +17087,24 @@
         <v>59.36333333333334</v>
       </c>
       <c r="T216">
+        <v>59.46666666666667</v>
+      </c>
+      <c r="U216">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>2.80434112005512E-05</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>0.0002246559955068061</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>0.0008403361344537785</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>59.55</v>
@@ -16510,21 +17161,24 @@
         <v>59.38</v>
       </c>
       <c r="T217">
+        <v>59.53333333333333</v>
+      </c>
+      <c r="U217">
         <v>0.04999999999999716</v>
       </c>
-      <c r="U217">
-        <v>0</v>
-      </c>
       <c r="V217">
+        <v>0</v>
+      </c>
+      <c r="W217">
         <v>0.0002807569206579874</v>
       </c>
-      <c r="W217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:23">
+      <c r="X217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>59.45</v>
@@ -16581,21 +17235,24 @@
         <v>59.39333333333334</v>
       </c>
       <c r="T218">
+        <v>59.51666666666667</v>
+      </c>
+      <c r="U218">
         <v>0.05937499999999574</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>-2.804262478972586E-05</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>0.0002245424946671903</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>-0.001679261125104858</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>59.35</v>
@@ -16652,21 +17309,24 @@
         <v>59.39666666666666</v>
       </c>
       <c r="T219">
+        <v>59.45</v>
+      </c>
+      <c r="U219">
         <v>0.04062499999999858</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>-0.0001121736448020938</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>5.612302166335681E-05</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>-0.001682085786375076</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>59.45</v>
@@ -16723,21 +17383,24 @@
         <v>59.39</v>
       </c>
       <c r="T220">
+        <v>59.41666666666666</v>
+      </c>
+      <c r="U220">
         <v>0.03750000000000142</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>-8.413967185516569E-05</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>-0.0001122397440932454</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>0.001684919966301601</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>59.65</v>
@@ -16794,21 +17457,24 @@
         <v>59.40666666666667</v>
       </c>
       <c r="T221">
+        <v>59.48333333333333</v>
+      </c>
+      <c r="U221">
         <v>0.07500000000000284</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>5.609783462356965E-05</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>0.0002806308581690953</v>
       </c>
-      <c r="W221">
+      <c r="X221">
         <v>0.003364171572750152</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>59.7</v>
@@ -16865,21 +17531,24 @@
         <v>59.43</v>
       </c>
       <c r="T222">
+        <v>59.6</v>
+      </c>
+      <c r="U222">
         <v>0.09999999999999432</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>8.414203174944568E-05</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>0.0003927729772190691</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>0.0008382229673093988</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>59.65</v>
@@ -16936,21 +17605,24 @@
         <v>59.46666666666667</v>
       </c>
       <c r="T223">
+        <v>59.66666666666666</v>
+      </c>
+      <c r="U223">
         <v>0.1000000000000014</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>8.41349524638435E-05</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>0.0006169723484210632</v>
       </c>
-      <c r="W223">
+      <c r="X223">
         <v>-0.0008375209380234727</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>59.5</v>
@@ -17007,15 +17679,18 @@
         <v>59.47666666666667</v>
       </c>
       <c r="T224">
+        <v>59.61666666666667</v>
+      </c>
+      <c r="U224">
         <v>0.06875000000000142</v>
       </c>
-      <c r="U224">
-        <v>0</v>
-      </c>
       <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
         <v>0.000168161434977554</v>
       </c>
-      <c r="W224">
+      <c r="X224">
         <v>-0.002514668901927863</v>
       </c>
     </row>
